--- a/Jogos_do_Dia/2023-02-25_FutPythonTrader_Jogos_do_Dia.xlsx
+++ b/Jogos_do_Dia/2023-02-25_FutPythonTrader_Jogos_do_Dia.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="549" uniqueCount="420">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="553" uniqueCount="422">
   <si>
     <t>League</t>
   </si>
@@ -124,6 +124,9 @@
     <t>Japan J2 League</t>
   </si>
   <si>
+    <t>South Korea K League 1</t>
+  </si>
+  <si>
     <t>Japan J1 League</t>
   </si>
   <si>
@@ -233,6 +236,9 @@
   </si>
   <si>
     <t>Paraguay Division Profesional</t>
+  </si>
+  <si>
+    <t>USA MLS</t>
   </si>
   <si>
     <t>Chile Primera División</t>
@@ -1756,10 +1762,10 @@
         <v>5</v>
       </c>
       <c r="D2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="E2" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="F2">
         <v>3.1</v>
@@ -1860,10 +1866,10 @@
         <v>5</v>
       </c>
       <c r="D3" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="E3" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="F3">
         <v>2.28</v>
@@ -1964,19 +1970,19 @@
         <v>2</v>
       </c>
       <c r="D4" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="E4" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="F4">
-        <v>2.81</v>
+        <v>2.73</v>
       </c>
       <c r="G4">
-        <v>3.26</v>
+        <v>2.97</v>
       </c>
       <c r="H4">
-        <v>2.53</v>
+        <v>2.43</v>
       </c>
       <c r="I4">
         <v>1.1</v>
@@ -1991,10 +1997,10 @@
         <v>2.65</v>
       </c>
       <c r="M4">
-        <v>2.18</v>
+        <v>2.25</v>
       </c>
       <c r="N4">
-        <v>1.68</v>
+        <v>1.53</v>
       </c>
       <c r="O4">
         <v>1.53</v>
@@ -2054,12 +2060,12 @@
         <v>2.9</v>
       </c>
       <c r="AH4">
-        <v>0</v>
+        <v>4.1</v>
       </c>
     </row>
     <row r="5" spans="1:34">
-      <c r="A5">
-        <v>8899</v>
+      <c r="A5" t="s">
+        <v>36</v>
       </c>
       <c r="B5" s="2">
         <v>44982.08333333334</v>
@@ -2068,19 +2074,19 @@
         <v>1</v>
       </c>
       <c r="D5" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="E5" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="F5">
-        <v>2.18</v>
+        <v>1.98</v>
       </c>
       <c r="G5">
-        <v>3.36</v>
+        <v>3.1</v>
       </c>
       <c r="H5">
-        <v>3.36</v>
+        <v>3.49</v>
       </c>
       <c r="I5">
         <v>1.07</v>
@@ -2095,10 +2101,10 @@
         <v>3.1</v>
       </c>
       <c r="M5">
-        <v>2.15</v>
+        <v>2</v>
       </c>
       <c r="N5">
-        <v>1.7</v>
+        <v>1.67</v>
       </c>
       <c r="O5">
         <v>1.44</v>
@@ -2172,19 +2178,19 @@
         <v>2</v>
       </c>
       <c r="D6" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="E6" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="F6">
-        <v>2.76</v>
+        <v>2.69</v>
       </c>
       <c r="G6">
-        <v>3.34</v>
+        <v>2.99</v>
       </c>
       <c r="H6">
-        <v>2.52</v>
+        <v>2.44</v>
       </c>
       <c r="I6">
         <v>1.07</v>
@@ -2199,10 +2205,10 @@
         <v>3.25</v>
       </c>
       <c r="M6">
-        <v>2.04</v>
+        <v>2</v>
       </c>
       <c r="N6">
-        <v>1.78</v>
+        <v>1.86</v>
       </c>
       <c r="O6">
         <v>1.4</v>
@@ -2276,19 +2282,19 @@
         <v>2</v>
       </c>
       <c r="D7" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="E7" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="F7">
-        <v>2.8</v>
+        <v>2.49</v>
       </c>
       <c r="G7">
-        <v>2.9</v>
+        <v>2.87</v>
       </c>
       <c r="H7">
-        <v>2.5</v>
+        <v>2.74</v>
       </c>
       <c r="I7">
         <v>1.1</v>
@@ -2345,13 +2351,13 @@
         <v>1.53</v>
       </c>
       <c r="AA7">
-        <v>0</v>
+        <v>2.05</v>
       </c>
       <c r="AB7">
-        <v>0</v>
+        <v>7.5</v>
       </c>
       <c r="AC7">
-        <v>0</v>
+        <v>2.05</v>
       </c>
       <c r="AD7">
         <v>1.26</v>
@@ -2380,19 +2386,19 @@
         <v>2</v>
       </c>
       <c r="D8" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="E8" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="F8">
-        <v>2.45</v>
+        <v>3.37</v>
       </c>
       <c r="G8">
-        <v>3.1</v>
+        <v>3.07</v>
       </c>
       <c r="H8">
-        <v>2.65</v>
+        <v>2.03</v>
       </c>
       <c r="I8">
         <v>1.06</v>
@@ -2449,13 +2455,13 @@
         <v>0</v>
       </c>
       <c r="AA8">
-        <v>0</v>
+        <v>1.9</v>
       </c>
       <c r="AB8">
-        <v>0</v>
+        <v>7.2</v>
       </c>
       <c r="AC8">
-        <v>0</v>
+        <v>2.25</v>
       </c>
       <c r="AD8">
         <v>1.35</v>
@@ -2470,12 +2476,12 @@
         <v>2.9</v>
       </c>
       <c r="AH8">
-        <v>0</v>
+        <v>4.1</v>
       </c>
     </row>
     <row r="9" spans="1:34">
       <c r="A9" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B9" s="2">
         <v>44982.08333333334</v>
@@ -2484,19 +2490,19 @@
         <v>2</v>
       </c>
       <c r="D9" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="E9" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="F9">
-        <v>1.78</v>
+        <v>1.71</v>
       </c>
       <c r="G9">
-        <v>3.94</v>
+        <v>3.65</v>
       </c>
       <c r="H9">
-        <v>4.22</v>
+        <v>3.8</v>
       </c>
       <c r="I9">
         <v>1.03</v>
@@ -2511,10 +2517,10 @@
         <v>4</v>
       </c>
       <c r="M9">
-        <v>1.71</v>
+        <v>1.6</v>
       </c>
       <c r="N9">
-        <v>2.14</v>
+        <v>2.1</v>
       </c>
       <c r="O9">
         <v>1.33</v>
@@ -2579,7 +2585,7 @@
     </row>
     <row r="10" spans="1:34">
       <c r="A10" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B10" s="2">
         <v>44982.125</v>
@@ -2588,19 +2594,19 @@
         <v>18</v>
       </c>
       <c r="D10" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="E10" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="F10">
-        <v>2.44</v>
+        <v>2.5</v>
       </c>
       <c r="G10">
-        <v>3.5</v>
+        <v>3.1</v>
       </c>
       <c r="H10">
-        <v>2.79</v>
+        <v>2.8</v>
       </c>
       <c r="I10">
         <v>1.04</v>
@@ -2618,7 +2624,7 @@
         <v>1.85</v>
       </c>
       <c r="N10">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="O10">
         <v>1.33</v>
@@ -2683,7 +2689,7 @@
     </row>
     <row r="11" spans="1:34">
       <c r="A11" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B11" s="2">
         <v>44982.125</v>
@@ -2692,19 +2698,19 @@
         <v>18</v>
       </c>
       <c r="D11" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="E11" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="F11">
-        <v>1.78</v>
+        <v>1.7</v>
       </c>
       <c r="G11">
-        <v>3.92</v>
+        <v>4</v>
       </c>
       <c r="H11">
-        <v>4.24</v>
+        <v>4</v>
       </c>
       <c r="I11">
         <v>1.03</v>
@@ -2719,10 +2725,10 @@
         <v>4.25</v>
       </c>
       <c r="M11">
-        <v>1.71</v>
+        <v>1.64</v>
       </c>
       <c r="N11">
-        <v>2.14</v>
+        <v>2.04</v>
       </c>
       <c r="O11">
         <v>1.33</v>
@@ -2787,7 +2793,7 @@
     </row>
     <row r="12" spans="1:34">
       <c r="A12" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B12" s="2">
         <v>44982.125</v>
@@ -2796,19 +2802,19 @@
         <v>2</v>
       </c>
       <c r="D12" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="E12" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="F12">
-        <v>2.45</v>
+        <v>2.3</v>
       </c>
       <c r="G12">
-        <v>3.52</v>
+        <v>3.3</v>
       </c>
       <c r="H12">
-        <v>2.78</v>
+        <v>2.55</v>
       </c>
       <c r="I12">
         <v>1.03</v>
@@ -2823,10 +2829,10 @@
         <v>3.7</v>
       </c>
       <c r="M12">
-        <v>1.81</v>
+        <v>1.75</v>
       </c>
       <c r="N12">
-        <v>2</v>
+        <v>1.91</v>
       </c>
       <c r="O12">
         <v>1.37</v>
@@ -2891,7 +2897,7 @@
     </row>
     <row r="13" spans="1:34">
       <c r="A13" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B13" s="2">
         <v>44982.125</v>
@@ -2900,19 +2906,19 @@
         <v>2</v>
       </c>
       <c r="D13" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="E13" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="F13">
-        <v>2.22</v>
+        <v>2.1</v>
       </c>
       <c r="G13">
-        <v>3.42</v>
+        <v>3.1</v>
       </c>
       <c r="H13">
-        <v>3.22</v>
+        <v>3</v>
       </c>
       <c r="I13">
         <v>1.04</v>
@@ -2927,10 +2933,10 @@
         <v>3.3</v>
       </c>
       <c r="M13">
-        <v>2.01</v>
+        <v>1.91</v>
       </c>
       <c r="N13">
-        <v>1.8</v>
+        <v>1.74</v>
       </c>
       <c r="O13">
         <v>1.43</v>
@@ -2995,7 +3001,7 @@
     </row>
     <row r="14" spans="1:34">
       <c r="A14" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B14" s="2">
         <v>44982.125</v>
@@ -3004,19 +3010,19 @@
         <v>2</v>
       </c>
       <c r="D14" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="E14" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="F14">
-        <v>2.89</v>
+        <v>2.7</v>
       </c>
       <c r="G14">
-        <v>3.15</v>
+        <v>2.9</v>
       </c>
       <c r="H14">
-        <v>2.57</v>
+        <v>2.45</v>
       </c>
       <c r="I14">
         <v>1.1</v>
@@ -3031,7 +3037,7 @@
         <v>2.55</v>
       </c>
       <c r="M14">
-        <v>2.48</v>
+        <v>2.35</v>
       </c>
       <c r="N14">
         <v>1.5</v>
@@ -3099,7 +3105,7 @@
     </row>
     <row r="15" spans="1:34">
       <c r="A15" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B15" s="2">
         <v>44982.16666666666</v>
@@ -3108,19 +3114,19 @@
         <v>2</v>
       </c>
       <c r="D15" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="E15" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="F15">
-        <v>3.19</v>
+        <v>3.05</v>
       </c>
       <c r="G15">
-        <v>3.52</v>
+        <v>3.2</v>
       </c>
       <c r="H15">
-        <v>2.19</v>
+        <v>2.05</v>
       </c>
       <c r="I15">
         <v>1.05</v>
@@ -3135,10 +3141,10 @@
         <v>3.5</v>
       </c>
       <c r="M15">
-        <v>1.86</v>
+        <v>1.77</v>
       </c>
       <c r="N15">
-        <v>1.94</v>
+        <v>1.88</v>
       </c>
       <c r="O15">
         <v>1.39</v>
@@ -3203,7 +3209,7 @@
     </row>
     <row r="16" spans="1:34">
       <c r="A16" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B16" s="2">
         <v>44982.16666666666</v>
@@ -3212,19 +3218,19 @@
         <v>2</v>
       </c>
       <c r="D16" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="E16" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="F16">
-        <v>2.17</v>
+        <v>2.05</v>
       </c>
       <c r="G16">
-        <v>3.28</v>
+        <v>3.05</v>
       </c>
       <c r="H16">
-        <v>3.48</v>
+        <v>3.2</v>
       </c>
       <c r="I16">
         <v>1.08</v>
@@ -3239,10 +3245,10 @@
         <v>2.7</v>
       </c>
       <c r="M16">
-        <v>2.4</v>
+        <v>2.25</v>
       </c>
       <c r="N16">
-        <v>1.54</v>
+        <v>1.53</v>
       </c>
       <c r="O16">
         <v>1.49</v>
@@ -3306,8 +3312,8 @@
       </c>
     </row>
     <row r="17" spans="1:34">
-      <c r="A17">
-        <v>8899</v>
+      <c r="A17" t="s">
+        <v>36</v>
       </c>
       <c r="B17" s="2">
         <v>44982.1875</v>
@@ -3316,19 +3322,19 @@
         <v>1</v>
       </c>
       <c r="D17" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="E17" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="F17">
-        <v>2.25</v>
+        <v>2.11</v>
       </c>
       <c r="G17">
-        <v>3.34</v>
+        <v>3.03</v>
       </c>
       <c r="H17">
-        <v>3.24</v>
+        <v>3.21</v>
       </c>
       <c r="I17">
         <v>1.07</v>
@@ -3346,7 +3352,7 @@
         <v>2.15</v>
       </c>
       <c r="N17">
-        <v>1.7</v>
+        <v>1.57</v>
       </c>
       <c r="O17">
         <v>1.44</v>
@@ -3410,8 +3416,8 @@
       </c>
     </row>
     <row r="18" spans="1:34">
-      <c r="A18">
-        <v>8899</v>
+      <c r="A18" t="s">
+        <v>36</v>
       </c>
       <c r="B18" s="2">
         <v>44982.1875</v>
@@ -3420,19 +3426,19 @@
         <v>1</v>
       </c>
       <c r="D18" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="E18" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="F18">
-        <v>2.29</v>
+        <v>2.14</v>
       </c>
       <c r="G18">
-        <v>3.24</v>
+        <v>2.91</v>
       </c>
       <c r="H18">
-        <v>3.24</v>
+        <v>3.3</v>
       </c>
       <c r="I18">
         <v>1.08</v>
@@ -3447,10 +3453,10 @@
         <v>2.9</v>
       </c>
       <c r="M18">
-        <v>2.18</v>
+        <v>2.2</v>
       </c>
       <c r="N18">
-        <v>1.64</v>
+        <v>1.57</v>
       </c>
       <c r="O18">
         <v>1.5</v>
@@ -3515,7 +3521,7 @@
     </row>
     <row r="19" spans="1:34">
       <c r="A19" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B19" s="2">
         <v>44982.23958333334</v>
@@ -3524,19 +3530,19 @@
         <v>18</v>
       </c>
       <c r="D19" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="E19" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="F19">
-        <v>1.94</v>
+        <v>1.8</v>
       </c>
       <c r="G19">
-        <v>3.46</v>
+        <v>3.6</v>
       </c>
       <c r="H19">
-        <v>4.04</v>
+        <v>4</v>
       </c>
       <c r="I19">
         <v>1.03</v>
@@ -3551,10 +3557,10 @@
         <v>3.6</v>
       </c>
       <c r="M19">
-        <v>1.87</v>
+        <v>1.85</v>
       </c>
       <c r="N19">
-        <v>1.93</v>
+        <v>2</v>
       </c>
       <c r="O19">
         <v>1.33</v>
@@ -3619,7 +3625,7 @@
     </row>
     <row r="20" spans="1:34">
       <c r="A20" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B20" s="2">
         <v>44982.3125</v>
@@ -3628,10 +3634,10 @@
         <v>21</v>
       </c>
       <c r="D20" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="E20" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="F20">
         <v>1.62</v>
@@ -3723,7 +3729,7 @@
     </row>
     <row r="21" spans="1:34">
       <c r="A21" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B21" s="2">
         <v>44982.33333333334</v>
@@ -3732,10 +3738,10 @@
         <v>22</v>
       </c>
       <c r="D21" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="E21" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="F21">
         <v>2.75</v>
@@ -3759,10 +3765,10 @@
         <v>2.7</v>
       </c>
       <c r="M21">
-        <v>2.28</v>
+        <v>2.25</v>
       </c>
       <c r="N21">
-        <v>1.58</v>
+        <v>1.6</v>
       </c>
       <c r="O21">
         <v>1.5</v>
@@ -3813,21 +3819,21 @@
         <v>0</v>
       </c>
       <c r="AE21">
-        <v>0</v>
+        <v>1.29</v>
       </c>
       <c r="AF21">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="AG21">
         <v>1.88</v>
       </c>
       <c r="AH21">
-        <v>0</v>
+        <v>2.43</v>
       </c>
     </row>
     <row r="22" spans="1:34">
       <c r="A22" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B22" s="2">
         <v>44982.375</v>
@@ -3836,10 +3842,10 @@
         <v>22</v>
       </c>
       <c r="D22" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="E22" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="F22">
         <v>2.05</v>
@@ -3931,7 +3937,7 @@
     </row>
     <row r="23" spans="1:34">
       <c r="A23" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B23" s="2">
         <v>44982.375</v>
@@ -3940,10 +3946,10 @@
         <v>22</v>
       </c>
       <c r="D23" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="E23" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="F23">
         <v>2.55</v>
@@ -3967,10 +3973,10 @@
         <v>4.75</v>
       </c>
       <c r="M23">
-        <v>1.56</v>
+        <v>1.53</v>
       </c>
       <c r="N23">
-        <v>2.43</v>
+        <v>2.2</v>
       </c>
       <c r="O23">
         <v>1.25</v>
@@ -4035,7 +4041,7 @@
     </row>
     <row r="24" spans="1:34">
       <c r="A24" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B24" s="2">
         <v>44982.375</v>
@@ -4044,10 +4050,10 @@
         <v>22</v>
       </c>
       <c r="D24" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="E24" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="F24">
         <v>2.3</v>
@@ -4139,7 +4145,7 @@
     </row>
     <row r="25" spans="1:34">
       <c r="A25" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B25" s="2">
         <v>44982.375</v>
@@ -4148,10 +4154,10 @@
         <v>24</v>
       </c>
       <c r="D25" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="E25" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="F25">
         <v>2.5</v>
@@ -4235,7 +4241,7 @@
         <v>0</v>
       </c>
       <c r="AG25">
-        <v>0</v>
+        <v>1.95</v>
       </c>
       <c r="AH25">
         <v>0</v>
@@ -4243,7 +4249,7 @@
     </row>
     <row r="26" spans="1:34">
       <c r="A26" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B26" s="2">
         <v>44982.39583333334</v>
@@ -4252,10 +4258,10 @@
         <v>34</v>
       </c>
       <c r="D26" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="E26" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="F26">
         <v>1.83</v>
@@ -4330,7 +4336,7 @@
         <v>3.06</v>
       </c>
       <c r="AD26">
-        <v>0</v>
+        <v>1.16</v>
       </c>
       <c r="AE26">
         <v>1.26</v>
@@ -4347,7 +4353,7 @@
     </row>
     <row r="27" spans="1:34">
       <c r="A27" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B27" s="2">
         <v>44982.39583333334</v>
@@ -4356,10 +4362,10 @@
         <v>34</v>
       </c>
       <c r="D27" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="E27" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="F27">
         <v>2.3</v>
@@ -4383,10 +4389,10 @@
         <v>2.63</v>
       </c>
       <c r="M27">
-        <v>2.33</v>
+        <v>2.2</v>
       </c>
       <c r="N27">
-        <v>1.61</v>
+        <v>1.55</v>
       </c>
       <c r="O27">
         <v>1.49</v>
@@ -4451,7 +4457,7 @@
     </row>
     <row r="28" spans="1:34">
       <c r="A28" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B28" s="2">
         <v>44982.39583333334</v>
@@ -4460,10 +4466,10 @@
         <v>27</v>
       </c>
       <c r="D28" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="E28" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="F28">
         <v>1.91</v>
@@ -4487,7 +4493,7 @@
         <v>2.9</v>
       </c>
       <c r="M28">
-        <v>2.33</v>
+        <v>2.3</v>
       </c>
       <c r="N28">
         <v>1.57</v>
@@ -4550,12 +4556,12 @@
         <v>3.64</v>
       </c>
       <c r="AH28">
-        <v>0</v>
+        <v>5.6</v>
       </c>
     </row>
     <row r="29" spans="1:34">
       <c r="A29" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B29" s="2">
         <v>44982.40625</v>
@@ -4564,10 +4570,10 @@
         <v>3</v>
       </c>
       <c r="D29" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="E29" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="F29">
         <v>1.08</v>
@@ -4659,7 +4665,7 @@
     </row>
     <row r="30" spans="1:34">
       <c r="A30" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B30" s="2">
         <v>44982.40625</v>
@@ -4668,19 +4674,19 @@
         <v>4</v>
       </c>
       <c r="D30" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="E30" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="F30">
-        <v>2</v>
+        <v>1.74</v>
       </c>
       <c r="G30">
-        <v>3.25</v>
+        <v>3.53</v>
       </c>
       <c r="H30">
-        <v>3.3</v>
+        <v>3.83</v>
       </c>
       <c r="I30">
         <v>1.06</v>
@@ -4695,10 +4701,10 @@
         <v>3.25</v>
       </c>
       <c r="M30">
-        <v>2.03</v>
+        <v>1.91</v>
       </c>
       <c r="N30">
-        <v>1.83</v>
+        <v>1.73</v>
       </c>
       <c r="O30">
         <v>1.42</v>
@@ -4763,7 +4769,7 @@
     </row>
     <row r="31" spans="1:34">
       <c r="A31" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B31" s="2">
         <v>44982.41666666666</v>
@@ -4772,10 +4778,10 @@
         <v>23</v>
       </c>
       <c r="D31" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="E31" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="F31">
         <v>8.5</v>
@@ -4802,7 +4808,7 @@
         <v>1.63</v>
       </c>
       <c r="N31">
-        <v>2.23</v>
+        <v>2.2</v>
       </c>
       <c r="O31">
         <v>1.3</v>
@@ -4867,7 +4873,7 @@
     </row>
     <row r="32" spans="1:34">
       <c r="A32" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B32" s="2">
         <v>44982.41666666666</v>
@@ -4876,10 +4882,10 @@
         <v>24</v>
       </c>
       <c r="D32" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="E32" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="F32">
         <v>2.3</v>
@@ -4903,10 +4909,10 @@
         <v>4.2</v>
       </c>
       <c r="M32">
-        <v>1.66</v>
+        <v>1.7</v>
       </c>
       <c r="N32">
-        <v>2.16</v>
+        <v>2.1</v>
       </c>
       <c r="O32">
         <v>1.31</v>
@@ -4954,7 +4960,7 @@
         <v>2.43</v>
       </c>
       <c r="AD32">
-        <v>0</v>
+        <v>1.17</v>
       </c>
       <c r="AE32">
         <v>1.21</v>
@@ -4971,7 +4977,7 @@
     </row>
     <row r="33" spans="1:34">
       <c r="A33" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B33" s="2">
         <v>44982.41666666666</v>
@@ -4980,10 +4986,10 @@
         <v>24</v>
       </c>
       <c r="D33" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="E33" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="F33">
         <v>2.15</v>
@@ -5058,7 +5064,7 @@
         <v>2.78</v>
       </c>
       <c r="AD33">
-        <v>0</v>
+        <v>1.18</v>
       </c>
       <c r="AE33">
         <v>1.28</v>
@@ -5075,7 +5081,7 @@
     </row>
     <row r="34" spans="1:34">
       <c r="A34" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B34" s="2">
         <v>44982.41666666666</v>
@@ -5084,10 +5090,10 @@
         <v>24</v>
       </c>
       <c r="D34" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="E34" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="F34">
         <v>2</v>
@@ -5179,7 +5185,7 @@
     </row>
     <row r="35" spans="1:34">
       <c r="A35" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B35" s="2">
         <v>44982.41666666666</v>
@@ -5188,10 +5194,10 @@
         <v>24</v>
       </c>
       <c r="D35" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="E35" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="F35">
         <v>3.2</v>
@@ -5283,7 +5289,7 @@
     </row>
     <row r="36" spans="1:34">
       <c r="A36" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B36" s="2">
         <v>44982.41666666666</v>
@@ -5292,10 +5298,10 @@
         <v>24</v>
       </c>
       <c r="D36" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="E36" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="F36">
         <v>2</v>
@@ -5319,10 +5325,10 @@
         <v>4</v>
       </c>
       <c r="M36">
-        <v>1.8</v>
+        <v>1.72</v>
       </c>
       <c r="N36">
-        <v>1.96</v>
+        <v>2.05</v>
       </c>
       <c r="O36">
         <v>1.36</v>
@@ -5387,7 +5393,7 @@
     </row>
     <row r="37" spans="1:34">
       <c r="A37" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B37" s="2">
         <v>44982.41666666666</v>
@@ -5396,10 +5402,10 @@
         <v>24</v>
       </c>
       <c r="D37" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="E37" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="F37">
         <v>2.6</v>
@@ -5474,7 +5480,7 @@
         <v>2.05</v>
       </c>
       <c r="AD37">
-        <v>0</v>
+        <v>1.2</v>
       </c>
       <c r="AE37">
         <v>1.26</v>
@@ -5491,7 +5497,7 @@
     </row>
     <row r="38" spans="1:34">
       <c r="A38" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B38" s="2">
         <v>44982.41666666666</v>
@@ -5500,10 +5506,10 @@
         <v>23</v>
       </c>
       <c r="D38" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="E38" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="F38">
         <v>2.25</v>
@@ -5521,10 +5527,10 @@
         <v>6.5</v>
       </c>
       <c r="K38">
-        <v>1.61</v>
+        <v>1.5</v>
       </c>
       <c r="L38">
-        <v>2.33</v>
+        <v>2.43</v>
       </c>
       <c r="M38">
         <v>2.49</v>
@@ -5595,7 +5601,7 @@
     </row>
     <row r="39" spans="1:34">
       <c r="A39" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B39" s="2">
         <v>44982.41666666666</v>
@@ -5604,10 +5610,10 @@
         <v>21</v>
       </c>
       <c r="D39" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="E39" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="F39">
         <v>2.15</v>
@@ -5631,10 +5637,10 @@
         <v>3</v>
       </c>
       <c r="M39">
-        <v>2.15</v>
+        <v>2.1</v>
       </c>
       <c r="N39">
-        <v>1.61</v>
+        <v>1.68</v>
       </c>
       <c r="O39">
         <v>1.44</v>
@@ -5699,7 +5705,7 @@
     </row>
     <row r="40" spans="1:34">
       <c r="A40" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B40" s="2">
         <v>44982.41666666666</v>
@@ -5708,19 +5714,19 @@
         <v>26</v>
       </c>
       <c r="D40" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="E40" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="F40">
         <v>3</v>
       </c>
       <c r="G40">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="H40">
-        <v>2.35</v>
+        <v>2.38</v>
       </c>
       <c r="I40">
         <v>1.08</v>
@@ -5735,10 +5741,10 @@
         <v>2.98</v>
       </c>
       <c r="M40">
-        <v>2.15</v>
+        <v>2.09</v>
       </c>
       <c r="N40">
-        <v>1.57</v>
+        <v>1.58</v>
       </c>
       <c r="O40">
         <v>1.5</v>
@@ -5803,7 +5809,7 @@
     </row>
     <row r="41" spans="1:34">
       <c r="A41" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B41" s="2">
         <v>44982.41666666666</v>
@@ -5812,19 +5818,19 @@
         <v>26</v>
       </c>
       <c r="D41" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="E41" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="F41">
-        <v>1.66</v>
+        <v>1.8</v>
       </c>
       <c r="G41">
-        <v>3.84</v>
+        <v>3.4</v>
       </c>
       <c r="H41">
-        <v>5.2</v>
+        <v>4.75</v>
       </c>
       <c r="I41">
         <v>1.06</v>
@@ -5839,10 +5845,10 @@
         <v>3.35</v>
       </c>
       <c r="M41">
-        <v>2</v>
+        <v>1.99</v>
       </c>
       <c r="N41">
-        <v>1.81</v>
+        <v>1.65</v>
       </c>
       <c r="O41">
         <v>1.4</v>
@@ -5907,7 +5913,7 @@
     </row>
     <row r="42" spans="1:34">
       <c r="A42" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B42" s="2">
         <v>44982.41666666666</v>
@@ -5916,19 +5922,19 @@
         <v>26</v>
       </c>
       <c r="D42" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="E42" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="F42">
-        <v>2.15</v>
+        <v>2.2</v>
       </c>
       <c r="G42">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="H42">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="I42">
         <v>1.08</v>
@@ -5943,10 +5949,10 @@
         <v>3.02</v>
       </c>
       <c r="M42">
-        <v>2.15</v>
+        <v>2.05</v>
       </c>
       <c r="N42">
-        <v>1.57</v>
+        <v>1.8</v>
       </c>
       <c r="O42">
         <v>1.44</v>
@@ -6011,7 +6017,7 @@
     </row>
     <row r="43" spans="1:34">
       <c r="A43" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B43" s="2">
         <v>44982.41666666666</v>
@@ -6020,19 +6026,19 @@
         <v>26</v>
       </c>
       <c r="D43" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="E43" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="F43">
         <v>2.5</v>
       </c>
       <c r="G43">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="H43">
-        <v>2.8</v>
+        <v>2.9</v>
       </c>
       <c r="I43">
         <v>1.09</v>
@@ -6050,7 +6056,7 @@
         <v>2.25</v>
       </c>
       <c r="N43">
-        <v>1.53</v>
+        <v>1.6</v>
       </c>
       <c r="O43">
         <v>1.5</v>
@@ -6115,7 +6121,7 @@
     </row>
     <row r="44" spans="1:34">
       <c r="A44" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B44" s="2">
         <v>44982.41666666666</v>
@@ -6124,19 +6130,19 @@
         <v>26</v>
       </c>
       <c r="D44" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="E44" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="F44">
-        <v>2.37</v>
+        <v>2.1</v>
       </c>
       <c r="G44">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="H44">
-        <v>3</v>
+        <v>3.6</v>
       </c>
       <c r="I44">
         <v>1.08</v>
@@ -6151,10 +6157,10 @@
         <v>2.89</v>
       </c>
       <c r="M44">
-        <v>2.2</v>
+        <v>2.15</v>
       </c>
       <c r="N44">
-        <v>1.57</v>
+        <v>1.55</v>
       </c>
       <c r="O44">
         <v>1.5</v>
@@ -6219,7 +6225,7 @@
     </row>
     <row r="45" spans="1:34">
       <c r="A45" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B45" s="2">
         <v>44982.41666666666</v>
@@ -6228,19 +6234,19 @@
         <v>26</v>
       </c>
       <c r="D45" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="E45" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="F45">
-        <v>2.37</v>
+        <v>2.7</v>
       </c>
       <c r="G45">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="H45">
-        <v>3</v>
+        <v>2.7</v>
       </c>
       <c r="I45">
         <v>1.09</v>
@@ -6255,10 +6261,10 @@
         <v>2.84</v>
       </c>
       <c r="M45">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="N45">
-        <v>1.53</v>
+        <v>1.58</v>
       </c>
       <c r="O45">
         <v>1.5</v>
@@ -6323,7 +6329,7 @@
     </row>
     <row r="46" spans="1:34">
       <c r="A46" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B46" s="2">
         <v>44982.4375</v>
@@ -6332,10 +6338,10 @@
         <v>17</v>
       </c>
       <c r="D46" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="E46" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="F46">
         <v>1.5</v>
@@ -6347,43 +6353,43 @@
         <v>5.25</v>
       </c>
       <c r="I46">
-        <v>0</v>
+        <v>1.03</v>
       </c>
       <c r="J46">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="K46">
-        <v>0</v>
+        <v>1.17</v>
       </c>
       <c r="L46">
-        <v>0</v>
+        <v>4.75</v>
       </c>
       <c r="M46">
-        <v>1.58</v>
+        <v>1.55</v>
       </c>
       <c r="N46">
-        <v>2.28</v>
+        <v>2.35</v>
       </c>
       <c r="O46">
-        <v>0</v>
+        <v>1.29</v>
       </c>
       <c r="P46">
-        <v>0</v>
+        <v>3.5</v>
       </c>
       <c r="Q46">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="R46">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="S46">
-        <v>0</v>
+        <v>1.2</v>
       </c>
       <c r="T46">
-        <v>0</v>
+        <v>1.18</v>
       </c>
       <c r="U46">
-        <v>0</v>
+        <v>1.87</v>
       </c>
       <c r="V46">
         <v>1.5</v>
@@ -6401,33 +6407,33 @@
         <v>2.77</v>
       </c>
       <c r="AA46">
-        <v>0</v>
+        <v>1.36</v>
       </c>
       <c r="AB46">
-        <v>0</v>
+        <v>6.5</v>
       </c>
       <c r="AC46">
-        <v>0</v>
+        <v>3.6</v>
       </c>
       <c r="AD46">
         <v>0</v>
       </c>
       <c r="AE46">
-        <v>0</v>
+        <v>1.29</v>
       </c>
       <c r="AF46">
-        <v>0</v>
+        <v>1.61</v>
       </c>
       <c r="AG46">
-        <v>0</v>
+        <v>1.97</v>
       </c>
       <c r="AH46">
-        <v>0</v>
+        <v>2.46</v>
       </c>
     </row>
     <row r="47" spans="1:34">
       <c r="A47" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B47" s="2">
         <v>44982.4375</v>
@@ -6436,10 +6442,10 @@
         <v>17</v>
       </c>
       <c r="D47" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="E47" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="F47">
         <v>2.9</v>
@@ -6451,43 +6457,43 @@
         <v>2.1</v>
       </c>
       <c r="I47">
-        <v>0</v>
+        <v>1.03</v>
       </c>
       <c r="J47">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="K47">
-        <v>0</v>
+        <v>1.21</v>
       </c>
       <c r="L47">
-        <v>0</v>
+        <v>4.3</v>
       </c>
       <c r="M47">
-        <v>1.48</v>
+        <v>1.55</v>
       </c>
       <c r="N47">
-        <v>2.37</v>
+        <v>2.35</v>
       </c>
       <c r="O47">
-        <v>0</v>
+        <v>1.33</v>
       </c>
       <c r="P47">
-        <v>0</v>
+        <v>3.25</v>
       </c>
       <c r="Q47">
-        <v>1.5</v>
+        <v>1.62</v>
       </c>
       <c r="R47">
-        <v>2.5</v>
+        <v>2.2</v>
       </c>
       <c r="S47">
-        <v>0</v>
+        <v>1.64</v>
       </c>
       <c r="T47">
-        <v>0</v>
+        <v>1.21</v>
       </c>
       <c r="U47">
-        <v>0</v>
+        <v>1.38</v>
       </c>
       <c r="V47">
         <v>0.5</v>
@@ -6505,33 +6511,33 @@
         <v>2.53</v>
       </c>
       <c r="AA47">
-        <v>0</v>
+        <v>2.3</v>
       </c>
       <c r="AB47">
-        <v>0</v>
+        <v>5.75</v>
       </c>
       <c r="AC47">
-        <v>0</v>
+        <v>1.8</v>
       </c>
       <c r="AD47">
-        <v>0</v>
+        <v>1.2</v>
       </c>
       <c r="AE47">
-        <v>0</v>
+        <v>1.39</v>
       </c>
       <c r="AF47">
-        <v>0</v>
+        <v>1.76</v>
       </c>
       <c r="AG47">
-        <v>0</v>
+        <v>2.19</v>
       </c>
       <c r="AH47">
-        <v>0</v>
+        <v>2.88</v>
       </c>
     </row>
     <row r="48" spans="1:34">
       <c r="A48" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B48" s="2">
         <v>44982.45833333334</v>
@@ -6540,10 +6546,10 @@
         <v>22</v>
       </c>
       <c r="D48" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="E48" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="F48">
         <v>2.3</v>
@@ -6567,10 +6573,10 @@
         <v>2.65</v>
       </c>
       <c r="M48">
-        <v>2.4</v>
+        <v>2.25</v>
       </c>
       <c r="N48">
-        <v>1.54</v>
+        <v>1.6</v>
       </c>
       <c r="O48">
         <v>1.51</v>
@@ -6635,7 +6641,7 @@
     </row>
     <row r="49" spans="1:34">
       <c r="A49" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B49" s="2">
         <v>44982.45833333334</v>
@@ -6644,10 +6650,10 @@
         <v>25</v>
       </c>
       <c r="D49" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="E49" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="F49">
         <v>3.25</v>
@@ -6665,10 +6671,10 @@
         <v>6</v>
       </c>
       <c r="K49">
-        <v>1.58</v>
+        <v>1.54</v>
       </c>
       <c r="L49">
-        <v>2.3</v>
+        <v>2.33</v>
       </c>
       <c r="M49">
         <v>2.63</v>
@@ -6739,7 +6745,7 @@
     </row>
     <row r="50" spans="1:34">
       <c r="A50" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B50" s="2">
         <v>44982.45833333334</v>
@@ -6748,10 +6754,10 @@
         <v>24</v>
       </c>
       <c r="D50" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="E50" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="F50">
         <v>2.5</v>
@@ -6826,7 +6832,7 @@
         <v>2.4</v>
       </c>
       <c r="AD50">
-        <v>0</v>
+        <v>1.25</v>
       </c>
       <c r="AE50">
         <v>1.49</v>
@@ -6838,12 +6844,12 @@
         <v>2.24</v>
       </c>
       <c r="AH50">
-        <v>0</v>
+        <v>3.1</v>
       </c>
     </row>
     <row r="51" spans="1:34">
       <c r="A51" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B51" s="2">
         <v>44982.45833333334</v>
@@ -6852,10 +6858,10 @@
         <v>21</v>
       </c>
       <c r="D51" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="E51" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="F51">
         <v>6</v>
@@ -6879,10 +6885,10 @@
         <v>4</v>
       </c>
       <c r="M51">
-        <v>1.8</v>
+        <v>1.6</v>
       </c>
       <c r="N51">
-        <v>1.96</v>
+        <v>2.25</v>
       </c>
       <c r="O51">
         <v>1.29</v>
@@ -6947,7 +6953,7 @@
     </row>
     <row r="52" spans="1:34">
       <c r="A52" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B52" s="2">
         <v>44982.45833333334</v>
@@ -6956,10 +6962,10 @@
         <v>21</v>
       </c>
       <c r="D52" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="E52" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="F52">
         <v>1.62</v>
@@ -7051,7 +7057,7 @@
     </row>
     <row r="53" spans="1:34">
       <c r="A53" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B53" s="2">
         <v>44982.45833333334</v>
@@ -7060,10 +7066,10 @@
         <v>21</v>
       </c>
       <c r="D53" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="E53" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="F53">
         <v>1.83</v>
@@ -7155,7 +7161,7 @@
     </row>
     <row r="54" spans="1:34">
       <c r="A54" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B54" s="2">
         <v>44982.45833333334</v>
@@ -7164,10 +7170,10 @@
         <v>22</v>
       </c>
       <c r="D54" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="E54" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="F54">
         <v>2.15</v>
@@ -7259,7 +7265,7 @@
     </row>
     <row r="55" spans="1:34">
       <c r="A55" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B55" s="2">
         <v>44982.45833333334</v>
@@ -7268,19 +7274,19 @@
         <v>21</v>
       </c>
       <c r="D55" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="E55" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="F55">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="G55">
-        <v>4.2</v>
+        <v>4.5</v>
       </c>
       <c r="H55">
-        <v>1.43</v>
+        <v>1.44</v>
       </c>
       <c r="I55">
         <v>1.04</v>
@@ -7295,10 +7301,10 @@
         <v>3.8</v>
       </c>
       <c r="M55">
-        <v>1.67</v>
+        <v>1.78</v>
       </c>
       <c r="N55">
-        <v>2.12</v>
+        <v>1.95</v>
       </c>
       <c r="O55">
         <v>1.33</v>
@@ -7346,10 +7352,10 @@
         <v>1.31</v>
       </c>
       <c r="AD55">
-        <v>0</v>
+        <v>1.13</v>
       </c>
       <c r="AE55">
-        <v>0</v>
+        <v>1.26</v>
       </c>
       <c r="AF55">
         <v>1.56</v>
@@ -7363,7 +7369,7 @@
     </row>
     <row r="56" spans="1:34">
       <c r="A56" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B56" s="2">
         <v>44982.45833333334</v>
@@ -7372,16 +7378,16 @@
         <v>21</v>
       </c>
       <c r="D56" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="E56" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="F56">
-        <v>1.83</v>
+        <v>1.95</v>
       </c>
       <c r="G56">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="H56">
         <v>4</v>
@@ -7399,10 +7405,10 @@
         <v>3.3</v>
       </c>
       <c r="M56">
-        <v>1.9</v>
+        <v>1.93</v>
       </c>
       <c r="N56">
-        <v>1.83</v>
+        <v>1.88</v>
       </c>
       <c r="O56">
         <v>1.38</v>
@@ -7450,7 +7456,7 @@
         <v>3.54</v>
       </c>
       <c r="AD56">
-        <v>0</v>
+        <v>1.17</v>
       </c>
       <c r="AE56">
         <v>1.33</v>
@@ -7467,7 +7473,7 @@
     </row>
     <row r="57" spans="1:34">
       <c r="A57" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B57" s="2">
         <v>44982.45833333334</v>
@@ -7476,19 +7482,19 @@
         <v>21</v>
       </c>
       <c r="D57" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="E57" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="F57">
-        <v>1.5</v>
+        <v>1.45</v>
       </c>
       <c r="G57">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="H57">
-        <v>5.75</v>
+        <v>6.5</v>
       </c>
       <c r="I57">
         <v>1.05</v>
@@ -7503,10 +7509,10 @@
         <v>3.6</v>
       </c>
       <c r="M57">
-        <v>1.78</v>
+        <v>1.8</v>
       </c>
       <c r="N57">
-        <v>1.97</v>
+        <v>1.95</v>
       </c>
       <c r="O57">
         <v>1.36</v>
@@ -7554,7 +7560,7 @@
         <v>4.58</v>
       </c>
       <c r="AD57">
-        <v>0</v>
+        <v>1.23</v>
       </c>
       <c r="AE57">
         <v>1.33</v>
@@ -7571,7 +7577,7 @@
     </row>
     <row r="58" spans="1:34">
       <c r="A58" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B58" s="2">
         <v>44982.45833333334</v>
@@ -7580,16 +7586,16 @@
         <v>21</v>
       </c>
       <c r="D58" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="E58" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="F58">
-        <v>1.55</v>
+        <v>1.6</v>
       </c>
       <c r="G58">
-        <v>3.7</v>
+        <v>3.8</v>
       </c>
       <c r="H58">
         <v>5.5</v>
@@ -7658,7 +7664,7 @@
         <v>4.1</v>
       </c>
       <c r="AD58">
-        <v>0</v>
+        <v>1.2</v>
       </c>
       <c r="AE58">
         <v>1.34</v>
@@ -7675,7 +7681,7 @@
     </row>
     <row r="59" spans="1:34">
       <c r="A59" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B59" s="2">
         <v>44982.47916666666</v>
@@ -7684,10 +7690,10 @@
         <v>22</v>
       </c>
       <c r="D59" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="E59" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="F59">
         <v>1.65</v>
@@ -7711,10 +7717,10 @@
         <v>4.33</v>
       </c>
       <c r="M59">
-        <v>1.65</v>
+        <v>1.53</v>
       </c>
       <c r="N59">
-        <v>2.23</v>
+        <v>2.29</v>
       </c>
       <c r="O59">
         <v>1.33</v>
@@ -7779,7 +7785,7 @@
     </row>
     <row r="60" spans="1:34">
       <c r="A60" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B60" s="2">
         <v>44982.47916666666</v>
@@ -7788,10 +7794,10 @@
         <v>22</v>
       </c>
       <c r="D60" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="E60" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="F60">
         <v>2.5</v>
@@ -7815,10 +7821,10 @@
         <v>3.75</v>
       </c>
       <c r="M60">
-        <v>1.79</v>
+        <v>1.59</v>
       </c>
       <c r="N60">
-        <v>2.02</v>
+        <v>2.17</v>
       </c>
       <c r="O60">
         <v>1.36</v>
@@ -7883,7 +7889,7 @@
     </row>
     <row r="61" spans="1:34">
       <c r="A61" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B61" s="2">
         <v>44982.47916666666</v>
@@ -7892,10 +7898,10 @@
         <v>22</v>
       </c>
       <c r="D61" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="E61" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="F61">
         <v>3.6</v>
@@ -7987,7 +7993,7 @@
     </row>
     <row r="62" spans="1:34">
       <c r="A62" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B62" s="2">
         <v>44982.47916666666</v>
@@ -7996,10 +8002,10 @@
         <v>22</v>
       </c>
       <c r="D62" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="E62" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="F62">
         <v>2.2</v>
@@ -8023,10 +8029,10 @@
         <v>4</v>
       </c>
       <c r="M62">
-        <v>1.77</v>
+        <v>1.59</v>
       </c>
       <c r="N62">
-        <v>2.05</v>
+        <v>2.17</v>
       </c>
       <c r="O62">
         <v>1.33</v>
@@ -8091,7 +8097,7 @@
     </row>
     <row r="63" spans="1:34">
       <c r="A63" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B63" s="2">
         <v>44982.47916666666</v>
@@ -8100,10 +8106,10 @@
         <v>22</v>
       </c>
       <c r="D63" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="E63" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="F63">
         <v>1.95</v>
@@ -8127,10 +8133,10 @@
         <v>4.2</v>
       </c>
       <c r="M63">
-        <v>1.78</v>
+        <v>1.56</v>
       </c>
       <c r="N63">
-        <v>2.04</v>
+        <v>2.23</v>
       </c>
       <c r="O63">
         <v>1.33</v>
@@ -8195,7 +8201,7 @@
     </row>
     <row r="64" spans="1:34">
       <c r="A64" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B64" s="2">
         <v>44982.47916666666</v>
@@ -8204,10 +8210,10 @@
         <v>3</v>
       </c>
       <c r="D64" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="E64" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="F64">
         <v>1.73</v>
@@ -8285,7 +8291,7 @@
         <v>0</v>
       </c>
       <c r="AE64">
-        <v>0</v>
+        <v>1.9</v>
       </c>
       <c r="AF64">
         <v>0</v>
@@ -8299,7 +8305,7 @@
     </row>
     <row r="65" spans="1:34">
       <c r="A65" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B65" s="2">
         <v>44982.47916666666</v>
@@ -8308,10 +8314,10 @@
         <v>3</v>
       </c>
       <c r="D65" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="E65" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="F65">
         <v>2.5</v>
@@ -8392,7 +8398,7 @@
         <v>0</v>
       </c>
       <c r="AF65">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AG65">
         <v>0</v>
@@ -8403,7 +8409,7 @@
     </row>
     <row r="66" spans="1:34">
       <c r="A66" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B66" s="2">
         <v>44982.47916666666</v>
@@ -8412,10 +8418,10 @@
         <v>3</v>
       </c>
       <c r="D66" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="E66" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="F66">
         <v>2.9</v>
@@ -8507,7 +8513,7 @@
     </row>
     <row r="67" spans="1:34">
       <c r="A67" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B67" s="2">
         <v>44982.5</v>
@@ -8516,10 +8522,10 @@
         <v>23</v>
       </c>
       <c r="D67" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="E67" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="F67">
         <v>0</v>
@@ -8611,7 +8617,7 @@
     </row>
     <row r="68" spans="1:34">
       <c r="A68" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B68" s="2">
         <v>44982.5</v>
@@ -8620,10 +8626,10 @@
         <v>23</v>
       </c>
       <c r="D68" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="E68" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="F68">
         <v>1.4</v>
@@ -8715,7 +8721,7 @@
     </row>
     <row r="69" spans="1:34">
       <c r="A69" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B69" s="2">
         <v>44982.5</v>
@@ -8724,10 +8730,10 @@
         <v>27</v>
       </c>
       <c r="D69" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="E69" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="F69">
         <v>1.9</v>
@@ -8751,10 +8757,10 @@
         <v>3.25</v>
       </c>
       <c r="M69">
-        <v>1.98</v>
+        <v>2.19</v>
       </c>
       <c r="N69">
-        <v>1.77</v>
+        <v>1.58</v>
       </c>
       <c r="O69">
         <v>1.39</v>
@@ -8819,7 +8825,7 @@
     </row>
     <row r="70" spans="1:34">
       <c r="A70" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B70" s="2">
         <v>44982.5</v>
@@ -8828,10 +8834,10 @@
         <v>27</v>
       </c>
       <c r="D70" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="E70" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="F70">
         <v>2.8</v>
@@ -8855,10 +8861,10 @@
         <v>2.95</v>
       </c>
       <c r="M70">
-        <v>2.16</v>
+        <v>2.02</v>
       </c>
       <c r="N70">
-        <v>1.65</v>
+        <v>1.68</v>
       </c>
       <c r="O70">
         <v>1.45</v>
@@ -8923,7 +8929,7 @@
     </row>
     <row r="71" spans="1:34">
       <c r="A71" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B71" s="2">
         <v>44982.5</v>
@@ -8932,10 +8938,10 @@
         <v>27</v>
       </c>
       <c r="D71" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="E71" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="F71">
         <v>2.75</v>
@@ -8959,10 +8965,10 @@
         <v>2.75</v>
       </c>
       <c r="M71">
-        <v>2.2</v>
+        <v>2.23</v>
       </c>
       <c r="N71">
-        <v>1.62</v>
+        <v>1.56</v>
       </c>
       <c r="O71">
         <v>1.44</v>
@@ -9027,7 +9033,7 @@
     </row>
     <row r="72" spans="1:34">
       <c r="A72" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B72" s="2">
         <v>44982.5</v>
@@ -9036,10 +9042,10 @@
         <v>27</v>
       </c>
       <c r="D72" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="E72" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="F72">
         <v>3</v>
@@ -9063,7 +9069,7 @@
         <v>2.75</v>
       </c>
       <c r="M72">
-        <v>2.38</v>
+        <v>2.25</v>
       </c>
       <c r="N72">
         <v>1.55</v>
@@ -9131,7 +9137,7 @@
     </row>
     <row r="73" spans="1:34">
       <c r="A73" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B73" s="2">
         <v>44982.5</v>
@@ -9140,10 +9146,10 @@
         <v>27</v>
       </c>
       <c r="D73" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="E73" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="F73">
         <v>4</v>
@@ -9167,10 +9173,10 @@
         <v>3.75</v>
       </c>
       <c r="M73">
-        <v>1.77</v>
+        <v>1.78</v>
       </c>
       <c r="N73">
-        <v>2.05</v>
+        <v>1.86</v>
       </c>
       <c r="O73">
         <v>1.35</v>
@@ -9218,7 +9224,7 @@
         <v>1.57</v>
       </c>
       <c r="AD73">
-        <v>0</v>
+        <v>1.2</v>
       </c>
       <c r="AE73">
         <v>1.43</v>
@@ -9235,7 +9241,7 @@
     </row>
     <row r="74" spans="1:34">
       <c r="A74" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B74" s="2">
         <v>44982.5</v>
@@ -9244,10 +9250,10 @@
         <v>34</v>
       </c>
       <c r="D74" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="E74" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="F74">
         <v>2.8</v>
@@ -9271,10 +9277,10 @@
         <v>3.25</v>
       </c>
       <c r="M74">
-        <v>2.15</v>
+        <v>1.98</v>
       </c>
       <c r="N74">
-        <v>1.66</v>
+        <v>1.68</v>
       </c>
       <c r="O74">
         <v>1.39</v>
@@ -9339,7 +9345,7 @@
     </row>
     <row r="75" spans="1:34">
       <c r="A75" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B75" s="2">
         <v>44982.5</v>
@@ -9348,10 +9354,10 @@
         <v>34</v>
       </c>
       <c r="D75" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="E75" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="F75">
         <v>1.67</v>
@@ -9443,7 +9449,7 @@
     </row>
     <row r="76" spans="1:34">
       <c r="A76" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B76" s="2">
         <v>44982.5</v>
@@ -9452,10 +9458,10 @@
         <v>34</v>
       </c>
       <c r="D76" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="E76" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="F76">
         <v>1.91</v>
@@ -9530,7 +9536,7 @@
         <v>3.06</v>
       </c>
       <c r="AD76">
-        <v>0</v>
+        <v>1.17</v>
       </c>
       <c r="AE76">
         <v>1.26</v>
@@ -9547,7 +9553,7 @@
     </row>
     <row r="77" spans="1:34">
       <c r="A77" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B77" s="2">
         <v>44982.5</v>
@@ -9556,10 +9562,10 @@
         <v>34</v>
       </c>
       <c r="D77" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="E77" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="F77">
         <v>3.75</v>
@@ -9651,7 +9657,7 @@
     </row>
     <row r="78" spans="1:34">
       <c r="A78" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B78" s="2">
         <v>44982.5</v>
@@ -9660,10 +9666,10 @@
         <v>34</v>
       </c>
       <c r="D78" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="E78" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="F78">
         <v>1.83</v>
@@ -9755,7 +9761,7 @@
     </row>
     <row r="79" spans="1:34">
       <c r="A79" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B79" s="2">
         <v>44982.5</v>
@@ -9764,10 +9770,10 @@
         <v>34</v>
       </c>
       <c r="D79" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="E79" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="F79">
         <v>1.91</v>
@@ -9859,7 +9865,7 @@
     </row>
     <row r="80" spans="1:34">
       <c r="A80" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B80" s="2">
         <v>44982.5</v>
@@ -9868,10 +9874,10 @@
         <v>34</v>
       </c>
       <c r="D80" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="E80" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="F80">
         <v>2.8</v>
@@ -9963,7 +9969,7 @@
     </row>
     <row r="81" spans="1:34">
       <c r="A81" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B81" s="2">
         <v>44982.5</v>
@@ -9972,10 +9978,10 @@
         <v>34</v>
       </c>
       <c r="D81" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="E81" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="F81">
         <v>5</v>
@@ -10067,7 +10073,7 @@
     </row>
     <row r="82" spans="1:34">
       <c r="A82" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B82" s="2">
         <v>44982.5</v>
@@ -10076,10 +10082,10 @@
         <v>34</v>
       </c>
       <c r="D82" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="E82" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="F82">
         <v>2</v>
@@ -10171,7 +10177,7 @@
     </row>
     <row r="83" spans="1:34">
       <c r="A83" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B83" s="2">
         <v>44982.5</v>
@@ -10180,10 +10186,10 @@
         <v>34</v>
       </c>
       <c r="D83" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="E83" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="F83">
         <v>1.73</v>
@@ -10275,7 +10281,7 @@
     </row>
     <row r="84" spans="1:34">
       <c r="A84" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B84" s="2">
         <v>44982.5</v>
@@ -10284,10 +10290,10 @@
         <v>34</v>
       </c>
       <c r="D84" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="E84" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="F84">
         <v>2.5</v>
@@ -10362,7 +10368,7 @@
         <v>2.2</v>
       </c>
       <c r="AD84">
-        <v>0</v>
+        <v>1.18</v>
       </c>
       <c r="AE84">
         <v>1.26</v>
@@ -10379,7 +10385,7 @@
     </row>
     <row r="85" spans="1:34">
       <c r="A85" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B85" s="2">
         <v>44982.5</v>
@@ -10388,10 +10394,10 @@
         <v>34</v>
       </c>
       <c r="D85" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="E85" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="F85">
         <v>3.2</v>
@@ -10483,7 +10489,7 @@
     </row>
     <row r="86" spans="1:34">
       <c r="A86" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B86" s="2">
         <v>44982.5</v>
@@ -10492,10 +10498,10 @@
         <v>34</v>
       </c>
       <c r="D86" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="E86" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="F86">
         <v>2.7</v>
@@ -10519,10 +10525,10 @@
         <v>2.8</v>
       </c>
       <c r="M86">
-        <v>2.43</v>
+        <v>1.99</v>
       </c>
       <c r="N86">
-        <v>1.5</v>
+        <v>1.7</v>
       </c>
       <c r="O86">
         <v>1.47</v>
@@ -10587,7 +10593,7 @@
     </row>
     <row r="87" spans="1:34">
       <c r="A87" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B87" s="2">
         <v>44982.5</v>
@@ -10596,10 +10602,10 @@
         <v>34</v>
       </c>
       <c r="D87" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="E87" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="F87">
         <v>3.75</v>
@@ -10691,7 +10697,7 @@
     </row>
     <row r="88" spans="1:34">
       <c r="A88" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B88" s="2">
         <v>44982.5</v>
@@ -10700,10 +10706,10 @@
         <v>34</v>
       </c>
       <c r="D88" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="E88" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="F88">
         <v>2.1</v>
@@ -10795,7 +10801,7 @@
     </row>
     <row r="89" spans="1:34">
       <c r="A89" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B89" s="2">
         <v>44982.5</v>
@@ -10804,10 +10810,10 @@
         <v>34</v>
       </c>
       <c r="D89" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="E89" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="F89">
         <v>2.7</v>
@@ -10899,7 +10905,7 @@
     </row>
     <row r="90" spans="1:34">
       <c r="A90" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B90" s="2">
         <v>44982.5</v>
@@ -10908,10 +10914,10 @@
         <v>34</v>
       </c>
       <c r="D90" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="E90" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="F90">
         <v>2.25</v>
@@ -10935,10 +10941,10 @@
         <v>2.75</v>
       </c>
       <c r="M90">
-        <v>2.45</v>
+        <v>2.15</v>
       </c>
       <c r="N90">
-        <v>1.49</v>
+        <v>1.6</v>
       </c>
       <c r="O90">
         <v>1.5</v>
@@ -11003,7 +11009,7 @@
     </row>
     <row r="91" spans="1:34">
       <c r="A91" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B91" s="2">
         <v>44982.5</v>
@@ -11012,10 +11018,10 @@
         <v>34</v>
       </c>
       <c r="D91" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="E91" t="s">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="F91">
         <v>2.9</v>
@@ -11039,10 +11045,10 @@
         <v>2.75</v>
       </c>
       <c r="M91">
-        <v>2.35</v>
+        <v>2.31</v>
       </c>
       <c r="N91">
-        <v>1.53</v>
+        <v>1.52</v>
       </c>
       <c r="O91">
         <v>1.49</v>
@@ -11107,7 +11113,7 @@
     </row>
     <row r="92" spans="1:34">
       <c r="A92" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B92" s="2">
         <v>44982.5</v>
@@ -11116,10 +11122,10 @@
         <v>34</v>
       </c>
       <c r="D92" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="E92" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="F92">
         <v>3</v>
@@ -11143,10 +11149,10 @@
         <v>2.95</v>
       </c>
       <c r="M92">
-        <v>2.12</v>
+        <v>2.08</v>
       </c>
       <c r="N92">
-        <v>1.65</v>
+        <v>1.64</v>
       </c>
       <c r="O92">
         <v>1.44</v>
@@ -11211,7 +11217,7 @@
     </row>
     <row r="93" spans="1:34">
       <c r="A93" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B93" s="2">
         <v>44982.5</v>
@@ -11220,10 +11226,10 @@
         <v>34</v>
       </c>
       <c r="D93" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="E93" t="s">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="F93">
         <v>2.05</v>
@@ -11315,7 +11321,7 @@
     </row>
     <row r="94" spans="1:34">
       <c r="A94" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B94" s="2">
         <v>44982.5</v>
@@ -11324,10 +11330,10 @@
         <v>34</v>
       </c>
       <c r="D94" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="E94" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="F94">
         <v>2.3</v>
@@ -11351,7 +11357,7 @@
         <v>3.1</v>
       </c>
       <c r="M94">
-        <v>2.07</v>
+        <v>2.03</v>
       </c>
       <c r="N94">
         <v>1.68</v>
@@ -11419,7 +11425,7 @@
     </row>
     <row r="95" spans="1:34">
       <c r="A95" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B95" s="2">
         <v>44982.5</v>
@@ -11428,10 +11434,10 @@
         <v>34</v>
       </c>
       <c r="D95" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="E95" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="F95">
         <v>1.73</v>
@@ -11455,10 +11461,10 @@
         <v>3</v>
       </c>
       <c r="M95">
-        <v>2.18</v>
+        <v>2.03</v>
       </c>
       <c r="N95">
-        <v>1.62</v>
+        <v>1.67</v>
       </c>
       <c r="O95">
         <v>1.44</v>
@@ -11523,7 +11529,7 @@
     </row>
     <row r="96" spans="1:34">
       <c r="A96" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B96" s="2">
         <v>44982.5</v>
@@ -11532,10 +11538,10 @@
         <v>34</v>
       </c>
       <c r="D96" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="E96" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="F96">
         <v>1.8</v>
@@ -11559,10 +11565,10 @@
         <v>3.2</v>
       </c>
       <c r="M96">
-        <v>2.04</v>
+        <v>2.02</v>
       </c>
       <c r="N96">
-        <v>1.71</v>
+        <v>1.68</v>
       </c>
       <c r="O96">
         <v>1.41</v>
@@ -11627,7 +11633,7 @@
     </row>
     <row r="97" spans="1:34">
       <c r="A97" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B97" s="2">
         <v>44982.5</v>
@@ -11636,10 +11642,10 @@
         <v>34</v>
       </c>
       <c r="D97" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="E97" t="s">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="F97">
         <v>2.88</v>
@@ -11663,10 +11669,10 @@
         <v>2.8</v>
       </c>
       <c r="M97">
-        <v>2.3</v>
+        <v>2.24</v>
       </c>
       <c r="N97">
-        <v>1.58</v>
+        <v>1.53</v>
       </c>
       <c r="O97">
         <v>1.49</v>
@@ -11731,7 +11737,7 @@
     </row>
     <row r="98" spans="1:34">
       <c r="A98" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B98" s="2">
         <v>44982.5</v>
@@ -11740,10 +11746,10 @@
         <v>34</v>
       </c>
       <c r="D98" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="E98" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="F98">
         <v>2.3</v>
@@ -11767,10 +11773,10 @@
         <v>3</v>
       </c>
       <c r="M98">
-        <v>2.23</v>
+        <v>2.07</v>
       </c>
       <c r="N98">
-        <v>1.66</v>
+        <v>1.62</v>
       </c>
       <c r="O98">
         <v>1.46</v>
@@ -11835,7 +11841,7 @@
     </row>
     <row r="99" spans="1:34">
       <c r="A99" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B99" s="2">
         <v>44982.5</v>
@@ -11844,10 +11850,10 @@
         <v>34</v>
       </c>
       <c r="D99" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="E99" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="F99">
         <v>1.44</v>
@@ -11939,7 +11945,7 @@
     </row>
     <row r="100" spans="1:34">
       <c r="A100" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B100" s="2">
         <v>44982.5</v>
@@ -11948,10 +11954,10 @@
         <v>34</v>
       </c>
       <c r="D100" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="E100" t="s">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="F100">
         <v>1.73</v>
@@ -11975,10 +11981,10 @@
         <v>3.6</v>
       </c>
       <c r="M100">
-        <v>1.91</v>
+        <v>1.87</v>
       </c>
       <c r="N100">
-        <v>1.84</v>
+        <v>1.8</v>
       </c>
       <c r="O100">
         <v>1.45</v>
@@ -12043,7 +12049,7 @@
     </row>
     <row r="101" spans="1:34">
       <c r="A101" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B101" s="2">
         <v>44982.5</v>
@@ -12052,10 +12058,10 @@
         <v>34</v>
       </c>
       <c r="D101" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="E101" t="s">
-        <v>346</v>
+        <v>348</v>
       </c>
       <c r="F101">
         <v>2.15</v>
@@ -12079,10 +12085,10 @@
         <v>3</v>
       </c>
       <c r="M101">
-        <v>2.23</v>
+        <v>2.12</v>
       </c>
       <c r="N101">
-        <v>1.66</v>
+        <v>1.59</v>
       </c>
       <c r="O101">
         <v>1.5</v>
@@ -12147,7 +12153,7 @@
     </row>
     <row r="102" spans="1:34">
       <c r="A102" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B102" s="2">
         <v>44982.5</v>
@@ -12156,10 +12162,10 @@
         <v>34</v>
       </c>
       <c r="D102" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="E102" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="F102">
         <v>2.38</v>
@@ -12183,10 +12189,10 @@
         <v>3</v>
       </c>
       <c r="M102">
-        <v>2.23</v>
+        <v>2.07</v>
       </c>
       <c r="N102">
-        <v>1.66</v>
+        <v>1.62</v>
       </c>
       <c r="O102">
         <v>1.44</v>
@@ -12251,7 +12257,7 @@
     </row>
     <row r="103" spans="1:34">
       <c r="A103" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B103" s="2">
         <v>44982.5</v>
@@ -12260,10 +12266,10 @@
         <v>34</v>
       </c>
       <c r="D103" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="E103" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="F103">
         <v>2</v>
@@ -12355,7 +12361,7 @@
     </row>
     <row r="104" spans="1:34">
       <c r="A104" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B104" s="2">
         <v>44982.5</v>
@@ -12364,10 +12370,10 @@
         <v>34</v>
       </c>
       <c r="D104" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="E104" t="s">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="F104">
         <v>1.83</v>
@@ -12391,10 +12397,10 @@
         <v>3.4</v>
       </c>
       <c r="M104">
-        <v>2.08</v>
+        <v>2.07</v>
       </c>
       <c r="N104">
-        <v>1.75</v>
+        <v>1.62</v>
       </c>
       <c r="O104">
         <v>1.44</v>
@@ -12442,7 +12448,7 @@
         <v>2.9</v>
       </c>
       <c r="AD104">
-        <v>0</v>
+        <v>1.14</v>
       </c>
       <c r="AE104">
         <v>1.28</v>
@@ -12459,7 +12465,7 @@
     </row>
     <row r="105" spans="1:34">
       <c r="A105" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B105" s="2">
         <v>44982.5</v>
@@ -12468,10 +12474,10 @@
         <v>34</v>
       </c>
       <c r="D105" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="E105" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="F105">
         <v>2.5</v>
@@ -12495,10 +12501,10 @@
         <v>2.8</v>
       </c>
       <c r="M105">
-        <v>2.35</v>
+        <v>2.18</v>
       </c>
       <c r="N105">
-        <v>1.55</v>
+        <v>1.56</v>
       </c>
       <c r="O105">
         <v>1.49</v>
@@ -12563,7 +12569,7 @@
     </row>
     <row r="106" spans="1:34">
       <c r="A106" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B106" s="2">
         <v>44982.5</v>
@@ -12572,10 +12578,10 @@
         <v>34</v>
       </c>
       <c r="D106" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="E106" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="F106">
         <v>2.38</v>
@@ -12599,10 +12605,10 @@
         <v>3.14</v>
       </c>
       <c r="M106">
-        <v>2</v>
+        <v>2.07</v>
       </c>
       <c r="N106">
-        <v>1.8</v>
+        <v>1.62</v>
       </c>
       <c r="O106">
         <v>1.45</v>
@@ -12667,7 +12673,7 @@
     </row>
     <row r="107" spans="1:34">
       <c r="A107" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B107" s="2">
         <v>44982.5</v>
@@ -12676,10 +12682,10 @@
         <v>27</v>
       </c>
       <c r="D107" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="E107" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="F107">
         <v>2.3</v>
@@ -12703,7 +12709,7 @@
         <v>2.6</v>
       </c>
       <c r="M107">
-        <v>2.48</v>
+        <v>2.45</v>
       </c>
       <c r="N107">
         <v>1.52</v>
@@ -12771,7 +12777,7 @@
     </row>
     <row r="108" spans="1:34">
       <c r="A108" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B108" s="2">
         <v>44982.5</v>
@@ -12780,10 +12786,10 @@
         <v>25</v>
       </c>
       <c r="D108" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="E108" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="F108">
         <v>2.7</v>
@@ -12807,10 +12813,10 @@
         <v>3</v>
       </c>
       <c r="M108">
-        <v>2.12</v>
+        <v>1.88</v>
       </c>
       <c r="N108">
-        <v>1.72</v>
+        <v>1.79</v>
       </c>
       <c r="O108">
         <v>1.5</v>
@@ -12875,7 +12881,7 @@
     </row>
     <row r="109" spans="1:34">
       <c r="A109" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B109" s="2">
         <v>44982.5</v>
@@ -12884,10 +12890,10 @@
         <v>25</v>
       </c>
       <c r="D109" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="E109" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="F109">
         <v>1.85</v>
@@ -12979,7 +12985,7 @@
     </row>
     <row r="110" spans="1:34">
       <c r="A110" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B110" s="2">
         <v>44982.5</v>
@@ -12988,10 +12994,10 @@
         <v>25</v>
       </c>
       <c r="D110" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="E110" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="F110">
         <v>5</v>
@@ -13015,10 +13021,10 @@
         <v>4.35</v>
       </c>
       <c r="M110">
-        <v>1.76</v>
+        <v>1.78</v>
       </c>
       <c r="N110">
-        <v>2.06</v>
+        <v>1.89</v>
       </c>
       <c r="O110">
         <v>1.33</v>
@@ -13083,7 +13089,7 @@
     </row>
     <row r="111" spans="1:34">
       <c r="A111" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B111" s="2">
         <v>44982.5</v>
@@ -13092,10 +13098,10 @@
         <v>25</v>
       </c>
       <c r="D111" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="E111" t="s">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="F111">
         <v>1.67</v>
@@ -13119,10 +13125,10 @@
         <v>3.15</v>
       </c>
       <c r="M111">
-        <v>2.16</v>
+        <v>1.87</v>
       </c>
       <c r="N111">
-        <v>1.7</v>
+        <v>1.87</v>
       </c>
       <c r="O111">
         <v>1.44</v>
@@ -13187,7 +13193,7 @@
     </row>
     <row r="112" spans="1:34">
       <c r="A112" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B112" s="2">
         <v>44982.5</v>
@@ -13196,10 +13202,10 @@
         <v>1</v>
       </c>
       <c r="D112" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="E112" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="F112">
         <v>1.67</v>
@@ -13223,10 +13229,10 @@
         <v>0</v>
       </c>
       <c r="M112">
-        <v>1.62</v>
+        <v>1.6</v>
       </c>
       <c r="N112">
-        <v>2.23</v>
+        <v>2.2</v>
       </c>
       <c r="O112">
         <v>0</v>
@@ -13291,7 +13297,7 @@
     </row>
     <row r="113" spans="1:34">
       <c r="A113" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B113" s="2">
         <v>44982.51041666666</v>
@@ -13300,10 +13306,10 @@
         <v>29</v>
       </c>
       <c r="D113" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="E113" t="s">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="F113">
         <v>1.73</v>
@@ -13321,16 +13327,16 @@
         <v>6.5</v>
       </c>
       <c r="K113">
-        <v>1.5</v>
+        <v>1.52</v>
       </c>
       <c r="L113">
-        <v>2.37</v>
+        <v>2.4</v>
       </c>
       <c r="M113">
-        <v>2.6</v>
+        <v>2.44</v>
       </c>
       <c r="N113">
-        <v>1.47</v>
+        <v>1.43</v>
       </c>
       <c r="O113">
         <v>1.55</v>
@@ -13395,7 +13401,7 @@
     </row>
     <row r="114" spans="1:34">
       <c r="A114" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B114" s="2">
         <v>44982.51041666666</v>
@@ -13404,10 +13410,10 @@
         <v>29</v>
       </c>
       <c r="D114" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="E114" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="F114">
         <v>2.63</v>
@@ -13425,10 +13431,10 @@
         <v>6</v>
       </c>
       <c r="K114">
-        <v>1.52</v>
+        <v>1.57</v>
       </c>
       <c r="L114">
-        <v>2.45</v>
+        <v>2.3</v>
       </c>
       <c r="M114">
         <v>2.65</v>
@@ -13499,7 +13505,7 @@
     </row>
     <row r="115" spans="1:34">
       <c r="A115" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B115" s="2">
         <v>44982.51041666666</v>
@@ -13508,10 +13514,10 @@
         <v>23</v>
       </c>
       <c r="D115" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="E115" t="s">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="F115">
         <v>2.88</v>
@@ -13535,7 +13541,7 @@
         <v>2.65</v>
       </c>
       <c r="M115">
-        <v>2.5</v>
+        <v>2.24</v>
       </c>
       <c r="N115">
         <v>1.53</v>
@@ -13603,7 +13609,7 @@
     </row>
     <row r="116" spans="1:34">
       <c r="A116" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B116" s="2">
         <v>44982.51041666666</v>
@@ -13612,19 +13618,19 @@
         <v>26</v>
       </c>
       <c r="D116" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="E116" t="s">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="F116">
-        <v>1.55</v>
+        <v>1.53</v>
       </c>
       <c r="G116">
-        <v>3.9</v>
+        <v>3.75</v>
       </c>
       <c r="H116">
-        <v>6.25</v>
+        <v>7</v>
       </c>
       <c r="I116">
         <v>1.07</v>
@@ -13639,10 +13645,10 @@
         <v>3.15</v>
       </c>
       <c r="M116">
-        <v>2.09</v>
+        <v>2.03</v>
       </c>
       <c r="N116">
-        <v>1.66</v>
+        <v>1.62</v>
       </c>
       <c r="O116">
         <v>1.44</v>
@@ -13707,7 +13713,7 @@
     </row>
     <row r="117" spans="1:34">
       <c r="A117" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B117" s="2">
         <v>44982.52083333334</v>
@@ -13716,10 +13722,10 @@
         <v>23</v>
       </c>
       <c r="D117" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="E117" t="s">
-        <v>362</v>
+        <v>364</v>
       </c>
       <c r="F117">
         <v>1.91</v>
@@ -13811,7 +13817,7 @@
     </row>
     <row r="118" spans="1:34">
       <c r="A118" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B118" s="2">
         <v>44982.52083333334</v>
@@ -13820,10 +13826,10 @@
         <v>21</v>
       </c>
       <c r="D118" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="E118" t="s">
-        <v>363</v>
+        <v>365</v>
       </c>
       <c r="F118">
         <v>1.67</v>
@@ -13915,7 +13921,7 @@
     </row>
     <row r="119" spans="1:34">
       <c r="A119" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B119" s="2">
         <v>44982.52083333334</v>
@@ -13924,10 +13930,10 @@
         <v>22</v>
       </c>
       <c r="D119" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="E119" t="s">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="F119">
         <v>2.2</v>
@@ -13951,10 +13957,10 @@
         <v>2.8</v>
       </c>
       <c r="M119">
-        <v>2.33</v>
+        <v>2.2</v>
       </c>
       <c r="N119">
-        <v>1.56</v>
+        <v>1.65</v>
       </c>
       <c r="O119">
         <v>1.5</v>
@@ -14019,7 +14025,7 @@
     </row>
     <row r="120" spans="1:34">
       <c r="A120" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B120" s="2">
         <v>44982.52083333334</v>
@@ -14028,10 +14034,10 @@
         <v>22</v>
       </c>
       <c r="D120" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="E120" t="s">
-        <v>365</v>
+        <v>367</v>
       </c>
       <c r="F120">
         <v>3</v>
@@ -14106,7 +14112,7 @@
         <v>1.72</v>
       </c>
       <c r="AD120">
-        <v>0</v>
+        <v>1.17</v>
       </c>
       <c r="AE120">
         <v>1.32</v>
@@ -14123,7 +14129,7 @@
     </row>
     <row r="121" spans="1:34">
       <c r="A121" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B121" s="2">
         <v>44982.52083333334</v>
@@ -14132,19 +14138,19 @@
         <v>24</v>
       </c>
       <c r="D121" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="E121" t="s">
-        <v>366</v>
+        <v>368</v>
       </c>
       <c r="F121">
-        <v>1.2</v>
+        <v>1.25</v>
       </c>
       <c r="G121">
-        <v>6.25</v>
+        <v>5.25</v>
       </c>
       <c r="H121">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I121">
         <v>1.03</v>
@@ -14222,12 +14228,12 @@
         <v>3.45</v>
       </c>
       <c r="AH121">
-        <v>0</v>
+        <v>4.5</v>
       </c>
     </row>
     <row r="122" spans="1:34">
       <c r="A122" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B122" s="2">
         <v>44982.54166666666</v>
@@ -14236,10 +14242,10 @@
         <v>25</v>
       </c>
       <c r="D122" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="E122" t="s">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="F122">
         <v>4.75</v>
@@ -14263,10 +14269,10 @@
         <v>4</v>
       </c>
       <c r="M122">
-        <v>1.73</v>
+        <v>1.71</v>
       </c>
       <c r="N122">
-        <v>2.1</v>
+        <v>1.99</v>
       </c>
       <c r="O122">
         <v>1.36</v>
@@ -14331,7 +14337,7 @@
     </row>
     <row r="123" spans="1:34">
       <c r="A123" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B123" s="2">
         <v>44982.54166666666</v>
@@ -14340,19 +14346,19 @@
         <v>23</v>
       </c>
       <c r="D123" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="E123" t="s">
-        <v>368</v>
+        <v>370</v>
       </c>
       <c r="F123">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="G123">
-        <v>4.2</v>
+        <v>4.5</v>
       </c>
       <c r="H123">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="I123">
         <v>1.04</v>
@@ -14367,10 +14373,10 @@
         <v>4.5</v>
       </c>
       <c r="M123">
-        <v>1.63</v>
+        <v>1.56</v>
       </c>
       <c r="N123">
-        <v>2.28</v>
+        <v>2.37</v>
       </c>
       <c r="O123">
         <v>1.35</v>
@@ -14435,7 +14441,7 @@
     </row>
     <row r="124" spans="1:34">
       <c r="A124" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B124" s="2">
         <v>44982.54166666666</v>
@@ -14444,19 +14450,19 @@
         <v>23</v>
       </c>
       <c r="D124" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="E124" t="s">
-        <v>369</v>
+        <v>371</v>
       </c>
       <c r="F124">
-        <v>2.8</v>
+        <v>2.63</v>
       </c>
       <c r="G124">
-        <v>3</v>
+        <v>3.3</v>
       </c>
       <c r="H124">
-        <v>2.62</v>
+        <v>2.7</v>
       </c>
       <c r="I124">
         <v>1.05</v>
@@ -14471,10 +14477,10 @@
         <v>3.82</v>
       </c>
       <c r="M124">
-        <v>1.87</v>
+        <v>1.9</v>
       </c>
       <c r="N124">
-        <v>1.94</v>
+        <v>1.95</v>
       </c>
       <c r="O124">
         <v>1.36</v>
@@ -14539,7 +14545,7 @@
     </row>
     <row r="125" spans="1:34">
       <c r="A125" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B125" s="2">
         <v>44982.54166666666</v>
@@ -14548,16 +14554,16 @@
         <v>19</v>
       </c>
       <c r="D125" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="E125" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
       <c r="F125">
-        <v>1.55</v>
+        <v>1.57</v>
       </c>
       <c r="G125">
-        <v>4.3</v>
+        <v>4</v>
       </c>
       <c r="H125">
         <v>5.75</v>
@@ -14575,10 +14581,10 @@
         <v>0</v>
       </c>
       <c r="M125">
-        <v>1.85</v>
+        <v>1.81</v>
       </c>
       <c r="N125">
-        <v>1.85</v>
+        <v>1.82</v>
       </c>
       <c r="O125">
         <v>0</v>
@@ -14643,7 +14649,7 @@
     </row>
     <row r="126" spans="1:34">
       <c r="A126" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B126" s="2">
         <v>44982.54166666666</v>
@@ -14652,19 +14658,19 @@
         <v>19</v>
       </c>
       <c r="D126" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="E126" t="s">
-        <v>371</v>
+        <v>373</v>
       </c>
       <c r="F126">
-        <v>1.5</v>
+        <v>1.45</v>
       </c>
       <c r="G126">
-        <v>4.5</v>
+        <v>4.33</v>
       </c>
       <c r="H126">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="I126">
         <v>0</v>
@@ -14679,10 +14685,10 @@
         <v>0</v>
       </c>
       <c r="M126">
-        <v>1.85</v>
+        <v>1.81</v>
       </c>
       <c r="N126">
-        <v>1.85</v>
+        <v>1.82</v>
       </c>
       <c r="O126">
         <v>0</v>
@@ -14747,7 +14753,7 @@
     </row>
     <row r="127" spans="1:34">
       <c r="A127" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B127" s="2">
         <v>44982.5625</v>
@@ -14756,10 +14762,10 @@
         <v>22</v>
       </c>
       <c r="D127" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="E127" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
       <c r="F127">
         <v>1.91</v>
@@ -14783,10 +14789,10 @@
         <v>2.65</v>
       </c>
       <c r="M127">
-        <v>2.32</v>
+        <v>2.3</v>
       </c>
       <c r="N127">
-        <v>1.58</v>
+        <v>1.57</v>
       </c>
       <c r="O127">
         <v>1.49</v>
@@ -14851,7 +14857,7 @@
     </row>
     <row r="128" spans="1:34">
       <c r="A128" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B128" s="2">
         <v>44982.58333333334</v>
@@ -14860,10 +14866,10 @@
         <v>23</v>
       </c>
       <c r="D128" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="E128" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="F128">
         <v>1.6</v>
@@ -14941,7 +14947,7 @@
         <v>0</v>
       </c>
       <c r="AE128">
-        <v>0</v>
+        <v>1.9</v>
       </c>
       <c r="AF128">
         <v>0</v>
@@ -14955,7 +14961,7 @@
     </row>
     <row r="129" spans="1:34">
       <c r="A129" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B129" s="2">
         <v>44982.58333333334</v>
@@ -14964,10 +14970,10 @@
         <v>22</v>
       </c>
       <c r="D129" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="E129" t="s">
-        <v>374</v>
+        <v>376</v>
       </c>
       <c r="F129">
         <v>3.2</v>
@@ -14991,10 +14997,10 @@
         <v>4.57</v>
       </c>
       <c r="M129">
-        <v>1.58</v>
+        <v>1.57</v>
       </c>
       <c r="N129">
-        <v>2.28</v>
+        <v>2.25</v>
       </c>
       <c r="O129">
         <v>1.3</v>
@@ -15059,7 +15065,7 @@
     </row>
     <row r="130" spans="1:34">
       <c r="A130" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B130" s="2">
         <v>44982.58333333334</v>
@@ -15068,10 +15074,10 @@
         <v>21</v>
       </c>
       <c r="D130" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="E130" t="s">
-        <v>375</v>
+        <v>377</v>
       </c>
       <c r="F130">
         <v>1.44</v>
@@ -15163,7 +15169,7 @@
     </row>
     <row r="131" spans="1:34">
       <c r="A131" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B131" s="2">
         <v>44982.58333333334</v>
@@ -15172,10 +15178,10 @@
         <v>24</v>
       </c>
       <c r="D131" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="E131" t="s">
-        <v>376</v>
+        <v>378</v>
       </c>
       <c r="F131">
         <v>7</v>
@@ -15199,10 +15205,10 @@
         <v>4.3</v>
       </c>
       <c r="M131">
-        <v>1.58</v>
+        <v>1.65</v>
       </c>
       <c r="N131">
-        <v>2.38</v>
+        <v>2.06</v>
       </c>
       <c r="O131">
         <v>1.3</v>
@@ -15267,7 +15273,7 @@
     </row>
     <row r="132" spans="1:34">
       <c r="A132" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B132" s="2">
         <v>44982.58333333334</v>
@@ -15276,19 +15282,19 @@
         <v>24</v>
       </c>
       <c r="D132" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="E132" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="F132">
-        <v>7.25</v>
+        <v>6</v>
       </c>
       <c r="G132">
-        <v>3.9</v>
+        <v>3.4</v>
       </c>
       <c r="H132">
-        <v>1.53</v>
+        <v>1.7</v>
       </c>
       <c r="I132">
         <v>1.03</v>
@@ -15303,10 +15309,10 @@
         <v>2.88</v>
       </c>
       <c r="M132">
-        <v>2.08</v>
+        <v>1.87</v>
       </c>
       <c r="N132">
-        <v>1.7</v>
+        <v>1.85</v>
       </c>
       <c r="O132">
         <v>1.44</v>
@@ -15366,12 +15372,12 @@
         <v>3.1</v>
       </c>
       <c r="AH132">
-        <v>0</v>
+        <v>4.3</v>
       </c>
     </row>
     <row r="133" spans="1:34">
       <c r="A133" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B133" s="2">
         <v>44982.59027777778</v>
@@ -15380,10 +15386,10 @@
         <v>23</v>
       </c>
       <c r="D133" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="E133" t="s">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="F133">
         <v>0</v>
@@ -15475,7 +15481,7 @@
     </row>
     <row r="134" spans="1:34">
       <c r="A134" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B134" s="2">
         <v>44982.59375</v>
@@ -15484,10 +15490,10 @@
         <v>27</v>
       </c>
       <c r="D134" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="E134" t="s">
-        <v>379</v>
+        <v>381</v>
       </c>
       <c r="F134">
         <v>1.33</v>
@@ -15562,7 +15568,7 @@
         <v>4</v>
       </c>
       <c r="AD134">
-        <v>0</v>
+        <v>1.2</v>
       </c>
       <c r="AE134">
         <v>1.43</v>
@@ -15579,7 +15585,7 @@
     </row>
     <row r="135" spans="1:34">
       <c r="A135" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B135" s="2">
         <v>44982.59375</v>
@@ -15588,10 +15594,10 @@
         <v>27</v>
       </c>
       <c r="D135" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="E135" t="s">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="F135">
         <v>3.25</v>
@@ -15666,7 +15672,7 @@
         <v>1.91</v>
       </c>
       <c r="AD135">
-        <v>0</v>
+        <v>1.2</v>
       </c>
       <c r="AE135">
         <v>1.43</v>
@@ -15683,7 +15689,7 @@
     </row>
     <row r="136" spans="1:34">
       <c r="A136" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B136" s="2">
         <v>44982.60416666666</v>
@@ -15692,10 +15698,10 @@
         <v>22</v>
       </c>
       <c r="D136" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="E136" t="s">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="F136">
         <v>3.1</v>
@@ -15787,7 +15793,7 @@
     </row>
     <row r="137" spans="1:34">
       <c r="A137" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B137" s="2">
         <v>44982.60416666666</v>
@@ -15796,10 +15802,10 @@
         <v>23</v>
       </c>
       <c r="D137" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="E137" t="s">
-        <v>382</v>
+        <v>384</v>
       </c>
       <c r="F137">
         <v>1.8</v>
@@ -15891,7 +15897,7 @@
     </row>
     <row r="138" spans="1:34">
       <c r="A138" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B138" s="2">
         <v>44982.60416666666</v>
@@ -15900,10 +15906,10 @@
         <v>25</v>
       </c>
       <c r="D138" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="E138" t="s">
-        <v>383</v>
+        <v>385</v>
       </c>
       <c r="F138">
         <v>9</v>
@@ -15927,10 +15933,10 @@
         <v>5.4</v>
       </c>
       <c r="M138">
-        <v>1.6</v>
+        <v>1.4</v>
       </c>
       <c r="N138">
-        <v>2.35</v>
+        <v>2.67</v>
       </c>
       <c r="O138">
         <v>1.25</v>
@@ -15995,7 +16001,7 @@
     </row>
     <row r="139" spans="1:34">
       <c r="A139" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B139" s="2">
         <v>44982.61458333334</v>
@@ -16004,10 +16010,10 @@
         <v>23</v>
       </c>
       <c r="D139" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="E139" t="s">
-        <v>384</v>
+        <v>386</v>
       </c>
       <c r="F139">
         <v>1.83</v>
@@ -16099,7 +16105,7 @@
     </row>
     <row r="140" spans="1:34">
       <c r="A140" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B140" s="2">
         <v>44982.625</v>
@@ -16108,10 +16114,10 @@
         <v>25</v>
       </c>
       <c r="D140" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="E140" t="s">
-        <v>385</v>
+        <v>387</v>
       </c>
       <c r="F140">
         <v>1.67</v>
@@ -16203,7 +16209,7 @@
     </row>
     <row r="141" spans="1:34">
       <c r="A141" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B141" s="2">
         <v>44982.625</v>
@@ -16212,10 +16218,10 @@
         <v>25</v>
       </c>
       <c r="D141" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="E141" t="s">
-        <v>386</v>
+        <v>388</v>
       </c>
       <c r="F141">
         <v>1.62</v>
@@ -16239,10 +16245,10 @@
         <v>3</v>
       </c>
       <c r="M141">
-        <v>2.12</v>
+        <v>1.96</v>
       </c>
       <c r="N141">
-        <v>1.68</v>
+        <v>1.66</v>
       </c>
       <c r="O141">
         <v>1.45</v>
@@ -16307,7 +16313,7 @@
     </row>
     <row r="142" spans="1:34">
       <c r="A142" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B142" s="2">
         <v>44982.625</v>
@@ -16316,10 +16322,10 @@
         <v>25</v>
       </c>
       <c r="D142" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="E142" t="s">
-        <v>387</v>
+        <v>389</v>
       </c>
       <c r="F142">
         <v>2.38</v>
@@ -16343,10 +16349,10 @@
         <v>2.65</v>
       </c>
       <c r="M142">
-        <v>2.55</v>
+        <v>2.23</v>
       </c>
       <c r="N142">
-        <v>1.49</v>
+        <v>1.51</v>
       </c>
       <c r="O142">
         <v>1.52</v>
@@ -16411,7 +16417,7 @@
     </row>
     <row r="143" spans="1:34">
       <c r="A143" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B143" s="2">
         <v>44982.625</v>
@@ -16420,10 +16426,10 @@
         <v>25</v>
       </c>
       <c r="D143" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="E143" t="s">
-        <v>388</v>
+        <v>390</v>
       </c>
       <c r="F143">
         <v>1.65</v>
@@ -16515,7 +16521,7 @@
     </row>
     <row r="144" spans="1:34">
       <c r="A144" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B144" s="2">
         <v>44982.625</v>
@@ -16524,10 +16530,10 @@
         <v>25</v>
       </c>
       <c r="D144" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="E144" t="s">
-        <v>389</v>
+        <v>391</v>
       </c>
       <c r="F144">
         <v>1.8</v>
@@ -16551,10 +16557,10 @@
         <v>2.85</v>
       </c>
       <c r="M144">
-        <v>2.23</v>
+        <v>2.09</v>
       </c>
       <c r="N144">
-        <v>1.61</v>
+        <v>1.58</v>
       </c>
       <c r="O144">
         <v>1.47</v>
@@ -16619,7 +16625,7 @@
     </row>
     <row r="145" spans="1:34">
       <c r="A145" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B145" s="2">
         <v>44982.625</v>
@@ -16628,10 +16634,10 @@
         <v>25</v>
       </c>
       <c r="D145" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="E145" t="s">
-        <v>390</v>
+        <v>392</v>
       </c>
       <c r="F145">
         <v>2.8</v>
@@ -16649,10 +16655,10 @@
         <v>7</v>
       </c>
       <c r="K145">
-        <v>1.48</v>
+        <v>1.5</v>
       </c>
       <c r="L145">
-        <v>2.55</v>
+        <v>2.43</v>
       </c>
       <c r="M145">
         <v>2.51</v>
@@ -16723,7 +16729,7 @@
     </row>
     <row r="146" spans="1:34">
       <c r="A146" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B146" s="2">
         <v>44982.625</v>
@@ -16732,10 +16738,10 @@
         <v>25</v>
       </c>
       <c r="D146" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="E146" t="s">
-        <v>391</v>
+        <v>393</v>
       </c>
       <c r="F146">
         <v>2.88</v>
@@ -16753,16 +16759,16 @@
         <v>7</v>
       </c>
       <c r="K146">
-        <v>1.44</v>
+        <v>1.49</v>
       </c>
       <c r="L146">
-        <v>2.4</v>
+        <v>2.45</v>
       </c>
       <c r="M146">
-        <v>2.55</v>
+        <v>2.49</v>
       </c>
       <c r="N146">
-        <v>1.49</v>
+        <v>1.41</v>
       </c>
       <c r="O146">
         <v>1.54</v>
@@ -16827,7 +16833,7 @@
     </row>
     <row r="147" spans="1:34">
       <c r="A147" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B147" s="2">
         <v>44982.625</v>
@@ -16836,10 +16842,10 @@
         <v>25</v>
       </c>
       <c r="D147" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="E147" t="s">
-        <v>392</v>
+        <v>394</v>
       </c>
       <c r="F147">
         <v>2.8</v>
@@ -16863,10 +16869,10 @@
         <v>2.7</v>
       </c>
       <c r="M147">
-        <v>2.48</v>
+        <v>2.34</v>
       </c>
       <c r="N147">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="O147">
         <v>1.52</v>
@@ -16931,7 +16937,7 @@
     </row>
     <row r="148" spans="1:34">
       <c r="A148" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B148" s="2">
         <v>44982.625</v>
@@ -16940,10 +16946,10 @@
         <v>27</v>
       </c>
       <c r="D148" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="E148" t="s">
-        <v>393</v>
+        <v>395</v>
       </c>
       <c r="F148">
         <v>1.85</v>
@@ -16967,10 +16973,10 @@
         <v>3</v>
       </c>
       <c r="M148">
-        <v>2.28</v>
+        <v>2.3</v>
       </c>
       <c r="N148">
-        <v>1.6</v>
+        <v>1.57</v>
       </c>
       <c r="O148">
         <v>1.45</v>
@@ -17035,7 +17041,7 @@
     </row>
     <row r="149" spans="1:34">
       <c r="A149" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B149" s="2">
         <v>44982.625</v>
@@ -17044,10 +17050,10 @@
         <v>22</v>
       </c>
       <c r="D149" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="E149" t="s">
-        <v>394</v>
+        <v>396</v>
       </c>
       <c r="F149">
         <v>2.38</v>
@@ -17071,10 +17077,10 @@
         <v>2.62</v>
       </c>
       <c r="M149">
-        <v>2.35</v>
+        <v>2.26</v>
       </c>
       <c r="N149">
-        <v>1.55</v>
+        <v>1.54</v>
       </c>
       <c r="O149">
         <v>1.5</v>
@@ -17139,7 +17145,7 @@
     </row>
     <row r="150" spans="1:34">
       <c r="A150" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B150" s="2">
         <v>44982.64583333334</v>
@@ -17148,19 +17154,19 @@
         <v>24</v>
       </c>
       <c r="D150" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="E150" t="s">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="F150">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="G150">
-        <v>3.35</v>
+        <v>3.3</v>
       </c>
       <c r="H150">
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="I150">
         <v>1.1</v>
@@ -17175,10 +17181,10 @@
         <v>2.55</v>
       </c>
       <c r="M150">
-        <v>2.43</v>
+        <v>2.22</v>
       </c>
       <c r="N150">
-        <v>1.52</v>
+        <v>1.6</v>
       </c>
       <c r="O150">
         <v>1.53</v>
@@ -17238,12 +17244,12 @@
         <v>3.45</v>
       </c>
       <c r="AH150">
-        <v>0</v>
+        <v>4.5</v>
       </c>
     </row>
     <row r="151" spans="1:34">
       <c r="A151" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B151" s="2">
         <v>44982.66666666666</v>
@@ -17252,10 +17258,10 @@
         <v>22</v>
       </c>
       <c r="D151" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="E151" t="s">
-        <v>396</v>
+        <v>398</v>
       </c>
       <c r="F151">
         <v>2.6</v>
@@ -17279,7 +17285,7 @@
         <v>3.2</v>
       </c>
       <c r="M151">
-        <v>2.07</v>
+        <v>2.05</v>
       </c>
       <c r="N151">
         <v>1.72</v>
@@ -17330,7 +17336,7 @@
         <v>1.91</v>
       </c>
       <c r="AD151">
-        <v>0</v>
+        <v>1.17</v>
       </c>
       <c r="AE151">
         <v>1.3</v>
@@ -17347,7 +17353,7 @@
     </row>
     <row r="152" spans="1:34">
       <c r="A152" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B152" s="2">
         <v>44982.66666666666</v>
@@ -17356,10 +17362,10 @@
         <v>23</v>
       </c>
       <c r="D152" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="E152" t="s">
-        <v>397</v>
+        <v>399</v>
       </c>
       <c r="F152">
         <v>1.25</v>
@@ -17386,7 +17392,7 @@
         <v>1.61</v>
       </c>
       <c r="N152">
-        <v>2.33</v>
+        <v>2.13</v>
       </c>
       <c r="O152">
         <v>1.27</v>
@@ -17451,7 +17457,7 @@
     </row>
     <row r="153" spans="1:34">
       <c r="A153" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B153" s="2">
         <v>44982.66666666666</v>
@@ -17460,10 +17466,10 @@
         <v>1</v>
       </c>
       <c r="D153" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="E153" t="s">
-        <v>398</v>
+        <v>400</v>
       </c>
       <c r="F153">
         <v>2.75</v>
@@ -17487,10 +17493,10 @@
         <v>0</v>
       </c>
       <c r="M153">
-        <v>1.53</v>
+        <v>1.52</v>
       </c>
       <c r="N153">
-        <v>2.4</v>
+        <v>2.36</v>
       </c>
       <c r="O153">
         <v>0</v>
@@ -17555,7 +17561,7 @@
     </row>
     <row r="154" spans="1:34">
       <c r="A154" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B154" s="2">
         <v>44982.67708333334</v>
@@ -17564,10 +17570,10 @@
         <v>24</v>
       </c>
       <c r="D154" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="E154" t="s">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="F154">
         <v>2.75</v>
@@ -17642,7 +17648,7 @@
         <v>1.95</v>
       </c>
       <c r="AD154">
-        <v>0</v>
+        <v>1.27</v>
       </c>
       <c r="AE154">
         <v>1.5</v>
@@ -17654,12 +17660,12 @@
         <v>2.25</v>
       </c>
       <c r="AH154">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="155" spans="1:34">
       <c r="A155" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B155" s="2">
         <v>44982.6875</v>
@@ -17668,10 +17674,10 @@
         <v>22</v>
       </c>
       <c r="D155" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="E155" t="s">
-        <v>400</v>
+        <v>402</v>
       </c>
       <c r="F155">
         <v>2.25</v>
@@ -17695,10 +17701,10 @@
         <v>4.33</v>
       </c>
       <c r="M155">
-        <v>1.64</v>
+        <v>1.54</v>
       </c>
       <c r="N155">
-        <v>2.25</v>
+        <v>2.17</v>
       </c>
       <c r="O155">
         <v>1.3</v>
@@ -17763,7 +17769,7 @@
     </row>
     <row r="156" spans="1:34">
       <c r="A156" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B156" s="2">
         <v>44982.6875</v>
@@ -17772,10 +17778,10 @@
         <v>22</v>
       </c>
       <c r="D156" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="E156" t="s">
-        <v>401</v>
+        <v>403</v>
       </c>
       <c r="F156">
         <v>3.4</v>
@@ -17799,10 +17805,10 @@
         <v>4</v>
       </c>
       <c r="M156">
-        <v>1.65</v>
+        <v>1.67</v>
       </c>
       <c r="N156">
-        <v>2.17</v>
+        <v>2.1</v>
       </c>
       <c r="O156">
         <v>1.32</v>
@@ -17867,7 +17873,7 @@
     </row>
     <row r="157" spans="1:34">
       <c r="A157" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B157" s="2">
         <v>44982.69791666666</v>
@@ -17876,10 +17882,10 @@
         <v>27</v>
       </c>
       <c r="D157" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="E157" t="s">
-        <v>402</v>
+        <v>404</v>
       </c>
       <c r="F157">
         <v>3.25</v>
@@ -17954,7 +17960,7 @@
         <v>1.8</v>
       </c>
       <c r="AD157">
-        <v>0</v>
+        <v>1.22</v>
       </c>
       <c r="AE157">
         <v>1.43</v>
@@ -17971,7 +17977,7 @@
     </row>
     <row r="158" spans="1:34">
       <c r="A158" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B158" s="2">
         <v>44982.69791666666</v>
@@ -17980,10 +17986,10 @@
         <v>24</v>
       </c>
       <c r="D158" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="E158" t="s">
-        <v>403</v>
+        <v>405</v>
       </c>
       <c r="F158">
         <v>2.38</v>
@@ -18075,7 +18081,7 @@
     </row>
     <row r="159" spans="1:34">
       <c r="A159" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B159" s="2">
         <v>44982.69791666666</v>
@@ -18084,10 +18090,10 @@
         <v>25</v>
       </c>
       <c r="D159" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="E159" t="s">
-        <v>404</v>
+        <v>406</v>
       </c>
       <c r="F159">
         <v>5</v>
@@ -18179,7 +18185,7 @@
     </row>
     <row r="160" spans="1:34">
       <c r="A160" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B160" s="2">
         <v>44982.70833333334</v>
@@ -18188,10 +18194,10 @@
         <v>23</v>
       </c>
       <c r="D160" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="E160" t="s">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="F160">
         <v>1.6</v>
@@ -18215,10 +18221,10 @@
         <v>4.6</v>
       </c>
       <c r="M160">
-        <v>1.65</v>
+        <v>1.68</v>
       </c>
       <c r="N160">
-        <v>2.25</v>
+        <v>1.99</v>
       </c>
       <c r="O160">
         <v>1.32</v>
@@ -18283,7 +18289,7 @@
     </row>
     <row r="161" spans="1:34">
       <c r="A161" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B161" s="2">
         <v>44982.70833333334</v>
@@ -18292,10 +18298,10 @@
         <v>25</v>
       </c>
       <c r="D161" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="E161" t="s">
-        <v>406</v>
+        <v>408</v>
       </c>
       <c r="F161">
         <v>4.5</v>
@@ -18387,7 +18393,7 @@
     </row>
     <row r="162" spans="1:34">
       <c r="A162" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B162" s="2">
         <v>44982.70833333334</v>
@@ -18396,10 +18402,10 @@
         <v>29</v>
       </c>
       <c r="D162" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="E162" t="s">
-        <v>407</v>
+        <v>409</v>
       </c>
       <c r="F162">
         <v>2.4</v>
@@ -18417,10 +18423,10 @@
         <v>5</v>
       </c>
       <c r="K162">
-        <v>1.62</v>
+        <v>1.6</v>
       </c>
       <c r="L162">
-        <v>2.23</v>
+        <v>2.2</v>
       </c>
       <c r="M162">
         <v>2.6</v>
@@ -18491,7 +18497,7 @@
     </row>
     <row r="163" spans="1:34">
       <c r="A163" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B163" s="2">
         <v>44982.70833333334</v>
@@ -18500,10 +18506,10 @@
         <v>29</v>
       </c>
       <c r="D163" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="E163" t="s">
-        <v>408</v>
+        <v>410</v>
       </c>
       <c r="F163">
         <v>2.8</v>
@@ -18524,7 +18530,7 @@
         <v>1.5</v>
       </c>
       <c r="L163">
-        <v>2.5</v>
+        <v>2.45</v>
       </c>
       <c r="M163">
         <v>2.4</v>
@@ -18595,7 +18601,7 @@
     </row>
     <row r="164" spans="1:34">
       <c r="A164" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B164" s="2">
         <v>44982.70833333334</v>
@@ -18604,10 +18610,10 @@
         <v>23</v>
       </c>
       <c r="D164" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="E164" t="s">
-        <v>409</v>
+        <v>411</v>
       </c>
       <c r="F164">
         <v>2.75</v>
@@ -18631,10 +18637,10 @@
         <v>2.9</v>
       </c>
       <c r="M164">
-        <v>2.38</v>
+        <v>2.24</v>
       </c>
       <c r="N164">
-        <v>1.58</v>
+        <v>1.53</v>
       </c>
       <c r="O164">
         <v>1.5</v>
@@ -18708,10 +18714,10 @@
         <v>5</v>
       </c>
       <c r="D165" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="E165" t="s">
-        <v>410</v>
+        <v>412</v>
       </c>
       <c r="F165">
         <v>2.07</v>
@@ -18803,7 +18809,7 @@
     </row>
     <row r="166" spans="1:34">
       <c r="A166" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B166" s="2">
         <v>44982.70833333334</v>
@@ -18812,19 +18818,19 @@
         <v>4</v>
       </c>
       <c r="D166" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="E166" t="s">
-        <v>411</v>
+        <v>413</v>
       </c>
       <c r="F166">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="G166">
-        <v>2.8</v>
+        <v>3.15</v>
       </c>
       <c r="H166">
-        <v>3.2</v>
+        <v>2.73</v>
       </c>
       <c r="I166">
         <v>1.07</v>
@@ -18839,10 +18845,10 @@
         <v>3</v>
       </c>
       <c r="M166">
-        <v>2.28</v>
+        <v>2.02</v>
       </c>
       <c r="N166">
-        <v>1.58</v>
+        <v>1.74</v>
       </c>
       <c r="O166">
         <v>1.44</v>
@@ -18907,7 +18913,7 @@
     </row>
     <row r="167" spans="1:34">
       <c r="A167" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B167" s="2">
         <v>44982.72916666666</v>
@@ -18916,10 +18922,10 @@
         <v>22</v>
       </c>
       <c r="D167" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="E167" t="s">
-        <v>412</v>
+        <v>414</v>
       </c>
       <c r="F167">
         <v>7.5</v>
@@ -18943,10 +18949,10 @@
         <v>4.2</v>
       </c>
       <c r="M167">
-        <v>1.7</v>
+        <v>1.72</v>
       </c>
       <c r="N167">
-        <v>2.08</v>
+        <v>2.1</v>
       </c>
       <c r="O167">
         <v>1.33</v>
@@ -19011,7 +19017,7 @@
     </row>
     <row r="168" spans="1:34">
       <c r="A168" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B168" s="2">
         <v>44982.75</v>
@@ -19020,19 +19026,19 @@
         <v>5</v>
       </c>
       <c r="D168" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="E168" t="s">
-        <v>413</v>
+        <v>415</v>
       </c>
       <c r="F168">
-        <v>1.83</v>
+        <v>1.79</v>
       </c>
       <c r="G168">
-        <v>3.4</v>
+        <v>3.35</v>
       </c>
       <c r="H168">
-        <v>3.85</v>
+        <v>3.8</v>
       </c>
       <c r="I168">
         <v>0</v>
@@ -19047,10 +19053,10 @@
         <v>0</v>
       </c>
       <c r="M168">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="N168">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="O168">
         <v>0</v>
@@ -19114,8 +19120,8 @@
       </c>
     </row>
     <row r="169" spans="1:34">
-      <c r="A169">
-        <v>8777</v>
+      <c r="A169" t="s">
+        <v>74</v>
       </c>
       <c r="B169" s="2">
         <v>44982.77083333334</v>
@@ -19124,19 +19130,19 @@
         <v>0</v>
       </c>
       <c r="D169" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="E169" t="s">
-        <v>414</v>
+        <v>416</v>
       </c>
       <c r="F169">
-        <v>2.45</v>
+        <v>2.3</v>
       </c>
       <c r="G169">
-        <v>3.48</v>
+        <v>3.2</v>
       </c>
       <c r="H169">
-        <v>2.74</v>
+        <v>2.6</v>
       </c>
       <c r="I169">
         <v>1.03</v>
@@ -19151,10 +19157,10 @@
         <v>3.3</v>
       </c>
       <c r="M169">
-        <v>1.86</v>
+        <v>2.04</v>
       </c>
       <c r="N169">
-        <v>1.94</v>
+        <v>1.84</v>
       </c>
       <c r="O169">
         <v>1.4</v>
@@ -19228,10 +19234,10 @@
         <v>5</v>
       </c>
       <c r="D170" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="E170" t="s">
-        <v>415</v>
+        <v>417</v>
       </c>
       <c r="F170">
         <v>3.05</v>
@@ -19332,10 +19338,10 @@
         <v>5</v>
       </c>
       <c r="D171" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="E171" t="s">
-        <v>416</v>
+        <v>418</v>
       </c>
       <c r="F171">
         <v>1.72</v>
@@ -19427,7 +19433,7 @@
     </row>
     <row r="172" spans="1:34">
       <c r="A172" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B172" s="2">
         <v>44982.83333333334</v>
@@ -19436,19 +19442,19 @@
         <v>4</v>
       </c>
       <c r="D172" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="E172" t="s">
-        <v>417</v>
+        <v>419</v>
       </c>
       <c r="F172">
-        <v>3.65</v>
+        <v>3.3</v>
       </c>
       <c r="G172">
-        <v>3.25</v>
+        <v>3.16</v>
       </c>
       <c r="H172">
-        <v>1.9</v>
+        <v>1.89</v>
       </c>
       <c r="I172">
         <v>1.06</v>
@@ -19463,10 +19469,10 @@
         <v>3.25</v>
       </c>
       <c r="M172">
-        <v>2.05</v>
+        <v>1.8</v>
       </c>
       <c r="N172">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="O172">
         <v>1.35</v>
@@ -19531,7 +19537,7 @@
     </row>
     <row r="173" spans="1:34">
       <c r="A173" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B173" s="2">
         <v>44982.84375</v>
@@ -19540,19 +19546,19 @@
         <v>6</v>
       </c>
       <c r="D173" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="E173" t="s">
-        <v>418</v>
+        <v>420</v>
       </c>
       <c r="F173">
-        <v>1.8</v>
+        <v>1.81</v>
       </c>
       <c r="G173">
-        <v>3.6</v>
+        <v>3.91</v>
       </c>
       <c r="H173">
-        <v>3.75</v>
+        <v>3.9</v>
       </c>
       <c r="I173">
         <v>1.02</v>
@@ -19567,7 +19573,7 @@
         <v>4.1</v>
       </c>
       <c r="M173">
-        <v>1.73</v>
+        <v>1.77</v>
       </c>
       <c r="N173">
         <v>2.05</v>
@@ -19609,33 +19615,33 @@
         <v>4.04</v>
       </c>
       <c r="AA173">
-        <v>0</v>
+        <v>1.62</v>
       </c>
       <c r="AB173">
-        <v>0</v>
+        <v>7.9</v>
       </c>
       <c r="AC173">
-        <v>0</v>
+        <v>2.82</v>
       </c>
       <c r="AD173">
-        <v>0</v>
+        <v>1.29</v>
       </c>
       <c r="AE173">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="AF173">
-        <v>0</v>
+        <v>1.88</v>
       </c>
       <c r="AG173">
-        <v>0</v>
+        <v>2.45</v>
       </c>
       <c r="AH173">
-        <v>0</v>
+        <v>3.3</v>
       </c>
     </row>
     <row r="174" spans="1:34">
       <c r="A174" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B174" s="2">
         <v>44982.85416666666</v>
@@ -19644,19 +19650,19 @@
         <v>5</v>
       </c>
       <c r="D174" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="E174" t="s">
-        <v>419</v>
+        <v>421</v>
       </c>
       <c r="F174">
-        <v>1.2</v>
+        <v>1.26</v>
       </c>
       <c r="G174">
-        <v>5</v>
+        <v>4.84</v>
       </c>
       <c r="H174">
-        <v>11</v>
+        <v>7.34</v>
       </c>
       <c r="I174">
         <v>0</v>
@@ -19671,10 +19677,10 @@
         <v>0</v>
       </c>
       <c r="M174">
-        <v>1.74</v>
+        <v>1.75</v>
       </c>
       <c r="N174">
-        <v>2.04</v>
+        <v>2.05</v>
       </c>
       <c r="O174">
         <v>0</v>

--- a/Jogos_do_Dia/2023-02-25_FutPythonTrader_Jogos_do_Dia.xlsx
+++ b/Jogos_do_Dia/2023-02-25_FutPythonTrader_Jogos_do_Dia.xlsx
@@ -1816,10 +1816,10 @@
         <v>1.3</v>
       </c>
       <c r="V2">
-        <v>3</v>
+        <v>1.5</v>
       </c>
       <c r="W2">
-        <v>2</v>
+        <v>2.33</v>
       </c>
       <c r="X2">
         <v>0.67</v>
@@ -1923,7 +1923,7 @@
         <v>3</v>
       </c>
       <c r="W3">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="X3">
         <v>2.03</v>
@@ -1976,13 +1976,13 @@
         <v>251</v>
       </c>
       <c r="F4">
-        <v>2.73</v>
+        <v>2.75</v>
       </c>
       <c r="G4">
-        <v>2.97</v>
+        <v>3</v>
       </c>
       <c r="H4">
-        <v>2.43</v>
+        <v>2.7</v>
       </c>
       <c r="I4">
         <v>1.1</v>
@@ -1997,7 +1997,7 @@
         <v>2.65</v>
       </c>
       <c r="M4">
-        <v>2.25</v>
+        <v>2.45</v>
       </c>
       <c r="N4">
         <v>1.53</v>
@@ -2024,10 +2024,10 @@
         <v>1.36</v>
       </c>
       <c r="V4">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="W4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X4">
         <v>1.28</v>
@@ -2080,13 +2080,13 @@
         <v>252</v>
       </c>
       <c r="F5">
-        <v>1.98</v>
+        <v>2.1</v>
       </c>
       <c r="G5">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="H5">
-        <v>3.49</v>
+        <v>3.5</v>
       </c>
       <c r="I5">
         <v>1.07</v>
@@ -2101,10 +2101,10 @@
         <v>3.1</v>
       </c>
       <c r="M5">
-        <v>2</v>
+        <v>2.15</v>
       </c>
       <c r="N5">
-        <v>1.67</v>
+        <v>1.7</v>
       </c>
       <c r="O5">
         <v>1.44</v>
@@ -2128,7 +2128,7 @@
         <v>1.7</v>
       </c>
       <c r="V5">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="W5">
         <v>0</v>
@@ -2184,13 +2184,13 @@
         <v>253</v>
       </c>
       <c r="F6">
-        <v>2.69</v>
+        <v>2.7</v>
       </c>
       <c r="G6">
-        <v>2.99</v>
+        <v>3</v>
       </c>
       <c r="H6">
-        <v>2.44</v>
+        <v>2.45</v>
       </c>
       <c r="I6">
         <v>1.07</v>
@@ -2205,10 +2205,10 @@
         <v>3.25</v>
       </c>
       <c r="M6">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="N6">
-        <v>1.86</v>
+        <v>1.75</v>
       </c>
       <c r="O6">
         <v>1.4</v>
@@ -2232,7 +2232,7 @@
         <v>1.75</v>
       </c>
       <c r="V6">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="W6">
         <v>0</v>
@@ -2288,13 +2288,13 @@
         <v>254</v>
       </c>
       <c r="F7">
-        <v>2.49</v>
+        <v>2.5</v>
       </c>
       <c r="G7">
-        <v>2.87</v>
+        <v>2.9</v>
       </c>
       <c r="H7">
-        <v>2.74</v>
+        <v>2.7</v>
       </c>
       <c r="I7">
         <v>1.1</v>
@@ -2309,10 +2309,10 @@
         <v>2.75</v>
       </c>
       <c r="M7">
-        <v>2.25</v>
+        <v>2.38</v>
       </c>
       <c r="N7">
-        <v>1.53</v>
+        <v>1.57</v>
       </c>
       <c r="O7">
         <v>1.5</v>
@@ -2392,13 +2392,13 @@
         <v>255</v>
       </c>
       <c r="F8">
-        <v>3.37</v>
+        <v>3.3</v>
       </c>
       <c r="G8">
-        <v>3.07</v>
+        <v>3.1</v>
       </c>
       <c r="H8">
-        <v>2.03</v>
+        <v>2.05</v>
       </c>
       <c r="I8">
         <v>1.06</v>
@@ -2413,7 +2413,7 @@
         <v>3.25</v>
       </c>
       <c r="M8">
-        <v>1.91</v>
+        <v>2.05</v>
       </c>
       <c r="N8">
         <v>1.75</v>
@@ -2440,7 +2440,7 @@
         <v>1.5</v>
       </c>
       <c r="V8">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="W8">
         <v>0</v>
@@ -2496,13 +2496,13 @@
         <v>256</v>
       </c>
       <c r="F9">
-        <v>1.71</v>
+        <v>1.67</v>
       </c>
       <c r="G9">
-        <v>3.65</v>
+        <v>3.8</v>
       </c>
       <c r="H9">
-        <v>3.8</v>
+        <v>4.33</v>
       </c>
       <c r="I9">
         <v>1.03</v>
@@ -2517,10 +2517,10 @@
         <v>4</v>
       </c>
       <c r="M9">
-        <v>1.6</v>
+        <v>1.65</v>
       </c>
       <c r="N9">
-        <v>2.1</v>
+        <v>2.25</v>
       </c>
       <c r="O9">
         <v>1.33</v>
@@ -2544,7 +2544,7 @@
         <v>1.9</v>
       </c>
       <c r="V9">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="W9">
         <v>0</v>
@@ -2600,13 +2600,13 @@
         <v>257</v>
       </c>
       <c r="F10">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="G10">
+        <v>3.6</v>
+      </c>
+      <c r="H10">
         <v>3.1</v>
-      </c>
-      <c r="H10">
-        <v>2.8</v>
       </c>
       <c r="I10">
         <v>1.04</v>
@@ -2621,10 +2621,10 @@
         <v>3.9</v>
       </c>
       <c r="M10">
-        <v>1.85</v>
+        <v>1.73</v>
       </c>
       <c r="N10">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="O10">
         <v>1.33</v>
@@ -2648,10 +2648,10 @@
         <v>1.63</v>
       </c>
       <c r="V10">
-        <v>1.63</v>
+        <v>1.44</v>
       </c>
       <c r="W10">
-        <v>0.57</v>
+        <v>0.88</v>
       </c>
       <c r="X10">
         <v>1.41</v>
@@ -2704,13 +2704,13 @@
         <v>258</v>
       </c>
       <c r="F11">
-        <v>1.7</v>
+        <v>1.75</v>
       </c>
       <c r="G11">
         <v>4</v>
       </c>
       <c r="H11">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="I11">
         <v>1.03</v>
@@ -2725,10 +2725,10 @@
         <v>4.25</v>
       </c>
       <c r="M11">
-        <v>1.64</v>
+        <v>1.57</v>
       </c>
       <c r="N11">
-        <v>2.04</v>
+        <v>2.38</v>
       </c>
       <c r="O11">
         <v>1.33</v>
@@ -2752,10 +2752,10 @@
         <v>1.99</v>
       </c>
       <c r="V11">
-        <v>2.43</v>
+        <v>2.5</v>
       </c>
       <c r="W11">
-        <v>1.78</v>
+        <v>1.6</v>
       </c>
       <c r="X11">
         <v>2.27</v>
@@ -2808,13 +2808,13 @@
         <v>259</v>
       </c>
       <c r="F12">
-        <v>2.3</v>
+        <v>2.38</v>
       </c>
       <c r="G12">
         <v>3.3</v>
       </c>
       <c r="H12">
-        <v>2.55</v>
+        <v>2.75</v>
       </c>
       <c r="I12">
         <v>1.03</v>
@@ -2829,10 +2829,10 @@
         <v>3.7</v>
       </c>
       <c r="M12">
-        <v>1.75</v>
+        <v>1.91</v>
       </c>
       <c r="N12">
-        <v>1.91</v>
+        <v>1.87</v>
       </c>
       <c r="O12">
         <v>1.37</v>
@@ -2859,7 +2859,7 @@
         <v>0</v>
       </c>
       <c r="W12">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="X12">
         <v>0</v>
@@ -2912,13 +2912,13 @@
         <v>260</v>
       </c>
       <c r="F13">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="G13">
+        <v>3.2</v>
+      </c>
+      <c r="H13">
         <v>3.1</v>
-      </c>
-      <c r="H13">
-        <v>3</v>
       </c>
       <c r="I13">
         <v>1.04</v>
@@ -2933,10 +2933,10 @@
         <v>3.3</v>
       </c>
       <c r="M13">
-        <v>1.91</v>
+        <v>2.05</v>
       </c>
       <c r="N13">
-        <v>1.74</v>
+        <v>1.75</v>
       </c>
       <c r="O13">
         <v>1.43</v>
@@ -2960,10 +2960,10 @@
         <v>1.62</v>
       </c>
       <c r="V13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X13">
         <v>0</v>
@@ -3016,13 +3016,13 @@
         <v>261</v>
       </c>
       <c r="F14">
-        <v>2.7</v>
+        <v>2.8</v>
       </c>
       <c r="G14">
-        <v>2.9</v>
+        <v>3</v>
       </c>
       <c r="H14">
-        <v>2.45</v>
+        <v>2.5</v>
       </c>
       <c r="I14">
         <v>1.1</v>
@@ -3037,7 +3037,7 @@
         <v>2.55</v>
       </c>
       <c r="M14">
-        <v>2.35</v>
+        <v>2.6</v>
       </c>
       <c r="N14">
         <v>1.5</v>
@@ -3064,7 +3064,7 @@
         <v>1.42</v>
       </c>
       <c r="V14">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="W14">
         <v>0</v>
@@ -3120,13 +3120,13 @@
         <v>262</v>
       </c>
       <c r="F15">
-        <v>3.05</v>
+        <v>3.1</v>
       </c>
       <c r="G15">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="H15">
-        <v>2.05</v>
+        <v>2.15</v>
       </c>
       <c r="I15">
         <v>1.05</v>
@@ -3141,10 +3141,10 @@
         <v>3.5</v>
       </c>
       <c r="M15">
-        <v>1.77</v>
+        <v>1.86</v>
       </c>
       <c r="N15">
-        <v>1.88</v>
+        <v>2</v>
       </c>
       <c r="O15">
         <v>1.39</v>
@@ -3171,7 +3171,7 @@
         <v>0</v>
       </c>
       <c r="W15">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="X15">
         <v>0</v>
@@ -3224,13 +3224,13 @@
         <v>263</v>
       </c>
       <c r="F16">
-        <v>2.05</v>
+        <v>2.02</v>
       </c>
       <c r="G16">
-        <v>3.05</v>
+        <v>3.53</v>
       </c>
       <c r="H16">
-        <v>3.2</v>
+        <v>4</v>
       </c>
       <c r="I16">
         <v>1.08</v>
@@ -3245,10 +3245,10 @@
         <v>2.7</v>
       </c>
       <c r="M16">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="N16">
-        <v>1.53</v>
+        <v>1.57</v>
       </c>
       <c r="O16">
         <v>1.49</v>
@@ -3272,7 +3272,7 @@
         <v>1.83</v>
       </c>
       <c r="V16">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="W16">
         <v>0</v>
@@ -3328,13 +3328,13 @@
         <v>264</v>
       </c>
       <c r="F17">
-        <v>2.11</v>
+        <v>2.25</v>
       </c>
       <c r="G17">
-        <v>3.03</v>
+        <v>3.34</v>
       </c>
       <c r="H17">
-        <v>3.21</v>
+        <v>3.24</v>
       </c>
       <c r="I17">
         <v>1.07</v>
@@ -3352,7 +3352,7 @@
         <v>2.15</v>
       </c>
       <c r="N17">
-        <v>1.57</v>
+        <v>1.7</v>
       </c>
       <c r="O17">
         <v>1.44</v>
@@ -3376,7 +3376,7 @@
         <v>1.6</v>
       </c>
       <c r="V17">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="W17">
         <v>0</v>
@@ -3432,13 +3432,13 @@
         <v>265</v>
       </c>
       <c r="F18">
-        <v>2.14</v>
+        <v>2.29</v>
       </c>
       <c r="G18">
-        <v>2.91</v>
+        <v>3.24</v>
       </c>
       <c r="H18">
-        <v>3.3</v>
+        <v>3.24</v>
       </c>
       <c r="I18">
         <v>1.08</v>
@@ -3453,10 +3453,10 @@
         <v>2.9</v>
       </c>
       <c r="M18">
-        <v>2.2</v>
+        <v>2.18</v>
       </c>
       <c r="N18">
-        <v>1.57</v>
+        <v>1.64</v>
       </c>
       <c r="O18">
         <v>1.5</v>
@@ -3483,7 +3483,7 @@
         <v>0</v>
       </c>
       <c r="W18">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="X18">
         <v>0</v>
@@ -3536,13 +3536,13 @@
         <v>266</v>
       </c>
       <c r="F19">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="G19">
-        <v>3.6</v>
+        <v>3.8</v>
       </c>
       <c r="H19">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="I19">
         <v>1.03</v>
@@ -3557,10 +3557,10 @@
         <v>3.6</v>
       </c>
       <c r="M19">
-        <v>1.85</v>
+        <v>1.75</v>
       </c>
       <c r="N19">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="O19">
         <v>1.33</v>
@@ -3584,10 +3584,10 @@
         <v>2.05</v>
       </c>
       <c r="V19">
-        <v>1.75</v>
+        <v>1.89</v>
       </c>
       <c r="W19">
-        <v>1</v>
+        <v>0.89</v>
       </c>
       <c r="X19">
         <v>1.45</v>
@@ -3640,13 +3640,13 @@
         <v>267</v>
       </c>
       <c r="F20">
-        <v>1.62</v>
+        <v>1.46</v>
       </c>
       <c r="G20">
-        <v>3.75</v>
+        <v>3.64</v>
       </c>
       <c r="H20">
-        <v>5</v>
+        <v>5.42</v>
       </c>
       <c r="I20">
         <v>1.07</v>
@@ -3664,7 +3664,7 @@
         <v>2.05</v>
       </c>
       <c r="N20">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="O20">
         <v>1.4</v>
@@ -3688,10 +3688,10 @@
         <v>2.38</v>
       </c>
       <c r="V20">
-        <v>2.6</v>
+        <v>2.64</v>
       </c>
       <c r="W20">
-        <v>1.2</v>
+        <v>1.09</v>
       </c>
       <c r="X20">
         <v>1.78</v>
@@ -3744,10 +3744,10 @@
         <v>268</v>
       </c>
       <c r="F21">
-        <v>2.75</v>
+        <v>2.9</v>
       </c>
       <c r="G21">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="H21">
         <v>2.4</v>
@@ -3765,10 +3765,10 @@
         <v>2.7</v>
       </c>
       <c r="M21">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="N21">
-        <v>1.6</v>
+        <v>1.65</v>
       </c>
       <c r="O21">
         <v>1.5</v>
@@ -3792,10 +3792,10 @@
         <v>1.36</v>
       </c>
       <c r="V21">
-        <v>1.27</v>
+        <v>1.17</v>
       </c>
       <c r="W21">
-        <v>1.4</v>
+        <v>1.55</v>
       </c>
       <c r="X21">
         <v>1.44</v>
@@ -3807,16 +3807,16 @@
         <v>3.02</v>
       </c>
       <c r="AA21">
-        <v>0</v>
+        <v>2.08</v>
       </c>
       <c r="AB21">
-        <v>0</v>
+        <v>7.6</v>
       </c>
       <c r="AC21">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AD21">
-        <v>0</v>
+        <v>1.19</v>
       </c>
       <c r="AE21">
         <v>1.29</v>
@@ -3848,13 +3848,13 @@
         <v>269</v>
       </c>
       <c r="F22">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="G22">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="H22">
-        <v>3.3</v>
+        <v>3.05</v>
       </c>
       <c r="I22">
         <v>1.06</v>
@@ -3869,10 +3869,10 @@
         <v>3.2</v>
       </c>
       <c r="M22">
-        <v>1.85</v>
+        <v>1.76</v>
       </c>
       <c r="N22">
-        <v>2</v>
+        <v>1.89</v>
       </c>
       <c r="O22">
         <v>1.4</v>
@@ -3896,10 +3896,10 @@
         <v>1.8</v>
       </c>
       <c r="V22">
-        <v>1.3</v>
+        <v>1.45</v>
       </c>
       <c r="W22">
-        <v>0.73</v>
+        <v>0.67</v>
       </c>
       <c r="X22">
         <v>1.73</v>
@@ -3952,13 +3952,13 @@
         <v>270</v>
       </c>
       <c r="F23">
-        <v>2.55</v>
+        <v>2.45</v>
       </c>
       <c r="G23">
         <v>3.6</v>
       </c>
       <c r="H23">
-        <v>2.4</v>
+        <v>2.25</v>
       </c>
       <c r="I23">
         <v>1.02</v>
@@ -4000,10 +4000,10 @@
         <v>1.46</v>
       </c>
       <c r="V23">
-        <v>1.5</v>
+        <v>1.45</v>
       </c>
       <c r="W23">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="X23">
         <v>1.96</v>
@@ -4056,13 +4056,13 @@
         <v>271</v>
       </c>
       <c r="F24">
-        <v>2.3</v>
+        <v>2.35</v>
       </c>
       <c r="G24">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="H24">
-        <v>2.9</v>
+        <v>2.7</v>
       </c>
       <c r="I24">
         <v>1.07</v>
@@ -4077,10 +4077,10 @@
         <v>3.1</v>
       </c>
       <c r="M24">
-        <v>2</v>
+        <v>1.94</v>
       </c>
       <c r="N24">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="O24">
         <v>1.44</v>
@@ -4104,10 +4104,10 @@
         <v>1.46</v>
       </c>
       <c r="V24">
-        <v>1.6</v>
+        <v>1.73</v>
       </c>
       <c r="W24">
-        <v>0.6</v>
+        <v>0.55</v>
       </c>
       <c r="X24">
         <v>1.54</v>
@@ -4160,13 +4160,13 @@
         <v>272</v>
       </c>
       <c r="F25">
-        <v>2.5</v>
+        <v>2.72</v>
       </c>
       <c r="G25">
-        <v>3.4</v>
+        <v>3</v>
       </c>
       <c r="H25">
-        <v>2.4</v>
+        <v>2.37</v>
       </c>
       <c r="I25">
         <v>1.06</v>
@@ -4184,7 +4184,7 @@
         <v>2</v>
       </c>
       <c r="N25">
-        <v>1.8</v>
+        <v>1.76</v>
       </c>
       <c r="O25">
         <v>1.4</v>
@@ -4208,7 +4208,7 @@
         <v>1.56</v>
       </c>
       <c r="V25">
-        <v>1.45</v>
+        <v>1.42</v>
       </c>
       <c r="W25">
         <v>1.08</v>
@@ -4223,28 +4223,28 @@
         <v>3.38</v>
       </c>
       <c r="AA25">
-        <v>0</v>
+        <v>1.85</v>
       </c>
       <c r="AB25">
-        <v>0</v>
+        <v>7.9</v>
       </c>
       <c r="AC25">
-        <v>0</v>
+        <v>2.45</v>
       </c>
       <c r="AD25">
-        <v>0</v>
+        <v>1.23</v>
       </c>
       <c r="AE25">
-        <v>0</v>
+        <v>1.4</v>
       </c>
       <c r="AF25">
-        <v>0</v>
+        <v>1.7</v>
       </c>
       <c r="AG25">
         <v>1.95</v>
       </c>
       <c r="AH25">
-        <v>0</v>
+        <v>2.85</v>
       </c>
     </row>
     <row r="26" spans="1:34">
@@ -4264,13 +4264,13 @@
         <v>273</v>
       </c>
       <c r="F26">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="G26">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="H26">
-        <v>4.2</v>
+        <v>3.65</v>
       </c>
       <c r="I26">
         <v>1.03</v>
@@ -4285,10 +4285,10 @@
         <v>3.75</v>
       </c>
       <c r="M26">
-        <v>1.9</v>
+        <v>1.81</v>
       </c>
       <c r="N26">
-        <v>1.95</v>
+        <v>1.84</v>
       </c>
       <c r="O26">
         <v>1.34</v>
@@ -4371,7 +4371,7 @@
         <v>2.3</v>
       </c>
       <c r="G27">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="H27">
         <v>3.1</v>
@@ -4389,10 +4389,10 @@
         <v>2.63</v>
       </c>
       <c r="M27">
-        <v>2.2</v>
+        <v>2.3</v>
       </c>
       <c r="N27">
-        <v>1.55</v>
+        <v>1.57</v>
       </c>
       <c r="O27">
         <v>1.49</v>
@@ -4472,13 +4472,13 @@
         <v>275</v>
       </c>
       <c r="F28">
-        <v>1.91</v>
+        <v>1.65</v>
       </c>
       <c r="G28">
-        <v>3.1</v>
+        <v>3.5</v>
       </c>
       <c r="H28">
-        <v>4</v>
+        <v>5.5</v>
       </c>
       <c r="I28">
         <v>1.08</v>
@@ -4493,10 +4493,10 @@
         <v>2.9</v>
       </c>
       <c r="M28">
-        <v>2.3</v>
+        <v>2.2</v>
       </c>
       <c r="N28">
-        <v>1.57</v>
+        <v>1.67</v>
       </c>
       <c r="O28">
         <v>1.48</v>
@@ -4680,13 +4680,13 @@
         <v>277</v>
       </c>
       <c r="F30">
-        <v>1.74</v>
+        <v>1.77</v>
       </c>
       <c r="G30">
-        <v>3.53</v>
+        <v>3.6</v>
       </c>
       <c r="H30">
-        <v>3.83</v>
+        <v>3.9</v>
       </c>
       <c r="I30">
         <v>1.06</v>
@@ -4701,10 +4701,10 @@
         <v>3.25</v>
       </c>
       <c r="M30">
-        <v>1.91</v>
+        <v>2.15</v>
       </c>
       <c r="N30">
-        <v>1.73</v>
+        <v>1.67</v>
       </c>
       <c r="O30">
         <v>1.42</v>
@@ -4784,13 +4784,13 @@
         <v>278</v>
       </c>
       <c r="F31">
-        <v>8.5</v>
+        <v>9.25</v>
       </c>
       <c r="G31">
-        <v>6</v>
+        <v>6.2</v>
       </c>
       <c r="H31">
-        <v>1.22</v>
+        <v>1.18</v>
       </c>
       <c r="I31">
         <v>1.03</v>
@@ -4808,7 +4808,7 @@
         <v>1.63</v>
       </c>
       <c r="N31">
-        <v>2.2</v>
+        <v>2.23</v>
       </c>
       <c r="O31">
         <v>1.3</v>
@@ -4888,13 +4888,13 @@
         <v>279</v>
       </c>
       <c r="F32">
-        <v>2.3</v>
+        <v>2.34</v>
       </c>
       <c r="G32">
-        <v>3.4</v>
+        <v>3.15</v>
       </c>
       <c r="H32">
-        <v>2.7</v>
+        <v>2.8</v>
       </c>
       <c r="I32">
         <v>1.03</v>
@@ -4909,10 +4909,10 @@
         <v>4.2</v>
       </c>
       <c r="M32">
-        <v>1.7</v>
+        <v>1.66</v>
       </c>
       <c r="N32">
-        <v>2.1</v>
+        <v>2.16</v>
       </c>
       <c r="O32">
         <v>1.31</v>
@@ -4995,10 +4995,10 @@
         <v>2.15</v>
       </c>
       <c r="G33">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="H33">
-        <v>3.25</v>
+        <v>3.1</v>
       </c>
       <c r="I33">
         <v>1.05</v>
@@ -5013,10 +5013,10 @@
         <v>3.6</v>
       </c>
       <c r="M33">
-        <v>1.83</v>
+        <v>1.86</v>
       </c>
       <c r="N33">
-        <v>2.03</v>
+        <v>2.02</v>
       </c>
       <c r="O33">
         <v>1.39</v>
@@ -5096,13 +5096,13 @@
         <v>281</v>
       </c>
       <c r="F34">
-        <v>2</v>
+        <v>2.08</v>
       </c>
       <c r="G34">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="H34">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="I34">
         <v>1.05</v>
@@ -5117,10 +5117,10 @@
         <v>3.6</v>
       </c>
       <c r="M34">
-        <v>1.85</v>
+        <v>1.83</v>
       </c>
       <c r="N34">
-        <v>2</v>
+        <v>1.98</v>
       </c>
       <c r="O34">
         <v>1.37</v>
@@ -5200,13 +5200,13 @@
         <v>282</v>
       </c>
       <c r="F35">
-        <v>3.2</v>
+        <v>3.05</v>
       </c>
       <c r="G35">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="H35">
-        <v>2.05</v>
+        <v>2.17</v>
       </c>
       <c r="I35">
         <v>1.05</v>
@@ -5224,7 +5224,7 @@
         <v>1.83</v>
       </c>
       <c r="N35">
-        <v>2.03</v>
+        <v>2.05</v>
       </c>
       <c r="O35">
         <v>1.35</v>
@@ -5304,13 +5304,13 @@
         <v>283</v>
       </c>
       <c r="F36">
-        <v>2</v>
+        <v>2.03</v>
       </c>
       <c r="G36">
-        <v>3.4</v>
+        <v>3.27</v>
       </c>
       <c r="H36">
-        <v>3.4</v>
+        <v>3.17</v>
       </c>
       <c r="I36">
         <v>1.04</v>
@@ -5325,10 +5325,10 @@
         <v>4</v>
       </c>
       <c r="M36">
-        <v>1.72</v>
+        <v>1.7</v>
       </c>
       <c r="N36">
-        <v>2.05</v>
+        <v>1.95</v>
       </c>
       <c r="O36">
         <v>1.36</v>
@@ -5408,13 +5408,13 @@
         <v>284</v>
       </c>
       <c r="F37">
-        <v>2.6</v>
+        <v>2.56</v>
       </c>
       <c r="G37">
-        <v>3.3</v>
+        <v>3.35</v>
       </c>
       <c r="H37">
-        <v>2.45</v>
+        <v>2.43</v>
       </c>
       <c r="I37">
         <v>1.05</v>
@@ -5429,10 +5429,10 @@
         <v>3.5</v>
       </c>
       <c r="M37">
-        <v>1.8</v>
+        <v>1.96</v>
       </c>
       <c r="N37">
-        <v>2.05</v>
+        <v>1.84</v>
       </c>
       <c r="O37">
         <v>1.36</v>
@@ -5512,13 +5512,13 @@
         <v>285</v>
       </c>
       <c r="F38">
-        <v>2.25</v>
+        <v>2.45</v>
       </c>
       <c r="G38">
-        <v>3.1</v>
+        <v>2.88</v>
       </c>
       <c r="H38">
-        <v>3.4</v>
+        <v>3</v>
       </c>
       <c r="I38">
         <v>1.13</v>
@@ -5527,10 +5527,10 @@
         <v>6.5</v>
       </c>
       <c r="K38">
-        <v>1.5</v>
+        <v>1.62</v>
       </c>
       <c r="L38">
-        <v>2.43</v>
+        <v>2.3</v>
       </c>
       <c r="M38">
         <v>2.49</v>
@@ -5616,13 +5616,13 @@
         <v>286</v>
       </c>
       <c r="F39">
-        <v>2.15</v>
+        <v>2.2</v>
       </c>
       <c r="G39">
-        <v>3.3</v>
+        <v>3.1</v>
       </c>
       <c r="H39">
-        <v>3.1</v>
+        <v>2.91</v>
       </c>
       <c r="I39">
         <v>1.08</v>
@@ -5637,10 +5637,10 @@
         <v>3</v>
       </c>
       <c r="M39">
-        <v>2.1</v>
+        <v>1.92</v>
       </c>
       <c r="N39">
-        <v>1.68</v>
+        <v>1.88</v>
       </c>
       <c r="O39">
         <v>1.44</v>
@@ -5720,10 +5720,10 @@
         <v>287</v>
       </c>
       <c r="F40">
-        <v>3</v>
+        <v>3.45</v>
       </c>
       <c r="G40">
-        <v>3.25</v>
+        <v>3.05</v>
       </c>
       <c r="H40">
         <v>2.38</v>
@@ -5741,10 +5741,10 @@
         <v>2.98</v>
       </c>
       <c r="M40">
-        <v>2.09</v>
+        <v>2.15</v>
       </c>
       <c r="N40">
-        <v>1.58</v>
+        <v>1.65</v>
       </c>
       <c r="O40">
         <v>1.5</v>
@@ -5824,13 +5824,13 @@
         <v>288</v>
       </c>
       <c r="F41">
-        <v>1.8</v>
+        <v>1.74</v>
       </c>
       <c r="G41">
-        <v>3.4</v>
+        <v>3.68</v>
       </c>
       <c r="H41">
-        <v>4.75</v>
+        <v>5.17</v>
       </c>
       <c r="I41">
         <v>1.06</v>
@@ -5845,10 +5845,10 @@
         <v>3.35</v>
       </c>
       <c r="M41">
-        <v>1.99</v>
+        <v>2.06</v>
       </c>
       <c r="N41">
-        <v>1.65</v>
+        <v>1.81</v>
       </c>
       <c r="O41">
         <v>1.4</v>
@@ -5928,13 +5928,13 @@
         <v>289</v>
       </c>
       <c r="F42">
-        <v>2.2</v>
+        <v>2.19</v>
       </c>
       <c r="G42">
-        <v>3.2</v>
+        <v>3.26</v>
       </c>
       <c r="H42">
-        <v>3.4</v>
+        <v>3.62</v>
       </c>
       <c r="I42">
         <v>1.08</v>
@@ -5949,10 +5949,10 @@
         <v>3.02</v>
       </c>
       <c r="M42">
-        <v>2.05</v>
+        <v>2.15</v>
       </c>
       <c r="N42">
-        <v>1.8</v>
+        <v>1.65</v>
       </c>
       <c r="O42">
         <v>1.44</v>
@@ -6032,13 +6032,13 @@
         <v>290</v>
       </c>
       <c r="F43">
-        <v>2.5</v>
+        <v>2.58</v>
       </c>
       <c r="G43">
-        <v>3.1</v>
+        <v>3.09</v>
       </c>
       <c r="H43">
-        <v>2.9</v>
+        <v>3.05</v>
       </c>
       <c r="I43">
         <v>1.09</v>
@@ -6136,13 +6136,13 @@
         <v>291</v>
       </c>
       <c r="F44">
-        <v>2.1</v>
+        <v>2.36</v>
       </c>
       <c r="G44">
-        <v>3.2</v>
+        <v>3.24</v>
       </c>
       <c r="H44">
-        <v>3.6</v>
+        <v>3.27</v>
       </c>
       <c r="I44">
         <v>1.08</v>
@@ -6157,10 +6157,10 @@
         <v>2.89</v>
       </c>
       <c r="M44">
-        <v>2.15</v>
+        <v>2.2</v>
       </c>
       <c r="N44">
-        <v>1.55</v>
+        <v>1.62</v>
       </c>
       <c r="O44">
         <v>1.5</v>
@@ -6240,13 +6240,13 @@
         <v>292</v>
       </c>
       <c r="F45">
-        <v>2.7</v>
+        <v>2.73</v>
       </c>
       <c r="G45">
-        <v>3.1</v>
+        <v>2.81</v>
       </c>
       <c r="H45">
-        <v>2.7</v>
+        <v>3.21</v>
       </c>
       <c r="I45">
         <v>1.09</v>
@@ -6261,10 +6261,10 @@
         <v>2.84</v>
       </c>
       <c r="M45">
-        <v>2.1</v>
+        <v>2.25</v>
       </c>
       <c r="N45">
-        <v>1.58</v>
+        <v>1.6</v>
       </c>
       <c r="O45">
         <v>1.5</v>
@@ -6344,13 +6344,13 @@
         <v>293</v>
       </c>
       <c r="F46">
-        <v>1.5</v>
+        <v>1.46</v>
       </c>
       <c r="G46">
-        <v>4.33</v>
+        <v>4.21</v>
       </c>
       <c r="H46">
-        <v>5.25</v>
+        <v>5.1</v>
       </c>
       <c r="I46">
         <v>1.03</v>
@@ -6365,10 +6365,10 @@
         <v>4.75</v>
       </c>
       <c r="M46">
-        <v>1.55</v>
+        <v>1.53</v>
       </c>
       <c r="N46">
-        <v>2.35</v>
+        <v>2.25</v>
       </c>
       <c r="O46">
         <v>1.29</v>
@@ -6448,13 +6448,13 @@
         <v>294</v>
       </c>
       <c r="F47">
-        <v>2.9</v>
+        <v>2.85</v>
       </c>
       <c r="G47">
-        <v>3.6</v>
+        <v>3.53</v>
       </c>
       <c r="H47">
-        <v>2.1</v>
+        <v>2.06</v>
       </c>
       <c r="I47">
         <v>1.03</v>
@@ -6469,10 +6469,10 @@
         <v>4.3</v>
       </c>
       <c r="M47">
-        <v>1.55</v>
+        <v>1.53</v>
       </c>
       <c r="N47">
-        <v>2.35</v>
+        <v>2.25</v>
       </c>
       <c r="O47">
         <v>1.33</v>
@@ -6526,7 +6526,7 @@
         <v>1.39</v>
       </c>
       <c r="AF47">
-        <v>1.76</v>
+        <v>1.91</v>
       </c>
       <c r="AG47">
         <v>2.19</v>
@@ -6552,13 +6552,13 @@
         <v>295</v>
       </c>
       <c r="F48">
-        <v>2.3</v>
+        <v>2.55</v>
       </c>
       <c r="G48">
         <v>3</v>
       </c>
       <c r="H48">
-        <v>3.4</v>
+        <v>2.66</v>
       </c>
       <c r="I48">
         <v>1.1</v>
@@ -6573,10 +6573,10 @@
         <v>2.65</v>
       </c>
       <c r="M48">
-        <v>2.25</v>
+        <v>2.4</v>
       </c>
       <c r="N48">
-        <v>1.6</v>
+        <v>1.54</v>
       </c>
       <c r="O48">
         <v>1.51</v>
@@ -6656,13 +6656,13 @@
         <v>296</v>
       </c>
       <c r="F49">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="G49">
-        <v>2.9</v>
+        <v>2.75</v>
       </c>
       <c r="H49">
-        <v>2.4</v>
+        <v>2.35</v>
       </c>
       <c r="I49">
         <v>1.12</v>
@@ -6671,13 +6671,13 @@
         <v>6</v>
       </c>
       <c r="K49">
-        <v>1.54</v>
+        <v>1.53</v>
       </c>
       <c r="L49">
-        <v>2.33</v>
+        <v>2.25</v>
       </c>
       <c r="M49">
-        <v>2.63</v>
+        <v>2.85</v>
       </c>
       <c r="N49">
         <v>1.37</v>
@@ -6719,13 +6719,13 @@
         <v>2.66</v>
       </c>
       <c r="AA49">
-        <v>0</v>
+        <v>2.2</v>
       </c>
       <c r="AB49">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="AC49">
-        <v>0</v>
+        <v>1.83</v>
       </c>
       <c r="AD49">
         <v>1.48</v>
@@ -6760,13 +6760,13 @@
         <v>297</v>
       </c>
       <c r="F50">
-        <v>2.5</v>
+        <v>2.46</v>
       </c>
       <c r="G50">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="H50">
-        <v>2.5</v>
+        <v>2.62</v>
       </c>
       <c r="I50">
         <v>1.04</v>
@@ -6781,10 +6781,10 @@
         <v>3.75</v>
       </c>
       <c r="M50">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="N50">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="O50">
         <v>1.36</v>
@@ -6864,13 +6864,13 @@
         <v>298</v>
       </c>
       <c r="F51">
-        <v>6</v>
+        <v>5.53</v>
       </c>
       <c r="G51">
-        <v>4</v>
+        <v>4.42</v>
       </c>
       <c r="H51">
-        <v>1.55</v>
+        <v>1.41</v>
       </c>
       <c r="I51">
         <v>1.04</v>
@@ -6885,10 +6885,10 @@
         <v>4</v>
       </c>
       <c r="M51">
-        <v>1.6</v>
+        <v>1.61</v>
       </c>
       <c r="N51">
-        <v>2.25</v>
+        <v>2.05</v>
       </c>
       <c r="O51">
         <v>1.29</v>
@@ -6968,13 +6968,13 @@
         <v>299</v>
       </c>
       <c r="F52">
-        <v>1.62</v>
+        <v>1.68</v>
       </c>
       <c r="G52">
-        <v>4</v>
+        <v>3.84</v>
       </c>
       <c r="H52">
-        <v>5</v>
+        <v>3.84</v>
       </c>
       <c r="I52">
         <v>1.04</v>
@@ -6989,10 +6989,10 @@
         <v>4.2</v>
       </c>
       <c r="M52">
-        <v>1.73</v>
+        <v>1.67</v>
       </c>
       <c r="N52">
-        <v>2.15</v>
+        <v>2.05</v>
       </c>
       <c r="O52">
         <v>1.35</v>
@@ -7040,7 +7040,7 @@
         <v>4.42</v>
       </c>
       <c r="AD52">
-        <v>0</v>
+        <v>1.14</v>
       </c>
       <c r="AE52">
         <v>1.29</v>
@@ -7072,13 +7072,13 @@
         <v>300</v>
       </c>
       <c r="F53">
-        <v>1.83</v>
+        <v>1.76</v>
       </c>
       <c r="G53">
-        <v>3.5</v>
+        <v>3.27</v>
       </c>
       <c r="H53">
-        <v>4.5</v>
+        <v>4.16</v>
       </c>
       <c r="I53">
         <v>1.04</v>
@@ -7093,10 +7093,10 @@
         <v>4.15</v>
       </c>
       <c r="M53">
-        <v>1.85</v>
+        <v>1.83</v>
       </c>
       <c r="N53">
-        <v>2</v>
+        <v>1.97</v>
       </c>
       <c r="O53">
         <v>1.32</v>
@@ -7144,7 +7144,7 @@
         <v>3.68</v>
       </c>
       <c r="AD53">
-        <v>0</v>
+        <v>1.14</v>
       </c>
       <c r="AE53">
         <v>1.27</v>
@@ -7176,13 +7176,13 @@
         <v>301</v>
       </c>
       <c r="F54">
-        <v>2.15</v>
+        <v>2.1</v>
       </c>
       <c r="G54">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="H54">
-        <v>2.9</v>
+        <v>3.4</v>
       </c>
       <c r="I54">
         <v>1.01</v>
@@ -7197,10 +7197,10 @@
         <v>3.72</v>
       </c>
       <c r="M54">
-        <v>1.85</v>
+        <v>1.73</v>
       </c>
       <c r="N54">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="O54">
         <v>1.36</v>
@@ -7239,28 +7239,28 @@
         <v>3.02</v>
       </c>
       <c r="AA54">
-        <v>0</v>
+        <v>1.65</v>
       </c>
       <c r="AB54">
-        <v>0</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AC54">
-        <v>0</v>
+        <v>2.76</v>
       </c>
       <c r="AD54">
-        <v>0</v>
+        <v>1.14</v>
       </c>
       <c r="AE54">
-        <v>0</v>
+        <v>1.28</v>
       </c>
       <c r="AF54">
-        <v>0</v>
+        <v>1.53</v>
       </c>
       <c r="AG54">
-        <v>0</v>
+        <v>1.83</v>
       </c>
       <c r="AH54">
-        <v>0</v>
+        <v>2.23</v>
       </c>
     </row>
     <row r="55" spans="1:34">
@@ -7283,10 +7283,10 @@
         <v>6.5</v>
       </c>
       <c r="G55">
-        <v>4.5</v>
+        <v>4.2</v>
       </c>
       <c r="H55">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="I55">
         <v>1.04</v>
@@ -7384,13 +7384,13 @@
         <v>303</v>
       </c>
       <c r="F56">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="G56">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="H56">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="I56">
         <v>1.06</v>
@@ -7405,10 +7405,10 @@
         <v>3.3</v>
       </c>
       <c r="M56">
-        <v>1.93</v>
+        <v>1.81</v>
       </c>
       <c r="N56">
-        <v>1.88</v>
+        <v>1.9</v>
       </c>
       <c r="O56">
         <v>1.38</v>
@@ -7488,13 +7488,13 @@
         <v>304</v>
       </c>
       <c r="F57">
-        <v>1.45</v>
+        <v>1.4</v>
       </c>
       <c r="G57">
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="H57">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="I57">
         <v>1.05</v>
@@ -7509,10 +7509,10 @@
         <v>3.6</v>
       </c>
       <c r="M57">
-        <v>1.8</v>
+        <v>1.81</v>
       </c>
       <c r="N57">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="O57">
         <v>1.36</v>
@@ -7592,10 +7592,10 @@
         <v>305</v>
       </c>
       <c r="F58">
-        <v>1.6</v>
+        <v>1.53</v>
       </c>
       <c r="G58">
-        <v>3.8</v>
+        <v>3.6</v>
       </c>
       <c r="H58">
         <v>5.5</v>
@@ -7613,10 +7613,10 @@
         <v>3.5</v>
       </c>
       <c r="M58">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="N58">
-        <v>1.85</v>
+        <v>1.83</v>
       </c>
       <c r="O58">
         <v>1.36</v>
@@ -7699,10 +7699,10 @@
         <v>1.65</v>
       </c>
       <c r="G59">
-        <v>4</v>
+        <v>3.9</v>
       </c>
       <c r="H59">
-        <v>5</v>
+        <v>4.33</v>
       </c>
       <c r="I59">
         <v>1.03</v>
@@ -7717,10 +7717,10 @@
         <v>4.33</v>
       </c>
       <c r="M59">
-        <v>1.53</v>
+        <v>1.67</v>
       </c>
       <c r="N59">
-        <v>2.29</v>
+        <v>2.2</v>
       </c>
       <c r="O59">
         <v>1.33</v>
@@ -7800,13 +7800,13 @@
         <v>307</v>
       </c>
       <c r="F60">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="G60">
         <v>3.4</v>
       </c>
       <c r="H60">
-        <v>2.75</v>
+        <v>2.8</v>
       </c>
       <c r="I60">
         <v>1.04</v>
@@ -7821,10 +7821,10 @@
         <v>3.75</v>
       </c>
       <c r="M60">
-        <v>1.59</v>
+        <v>1.87</v>
       </c>
       <c r="N60">
-        <v>2.17</v>
+        <v>1.95</v>
       </c>
       <c r="O60">
         <v>1.36</v>
@@ -7904,13 +7904,13 @@
         <v>308</v>
       </c>
       <c r="F61">
-        <v>3.6</v>
+        <v>3.8</v>
       </c>
       <c r="G61">
-        <v>3.8</v>
+        <v>4</v>
       </c>
       <c r="H61">
-        <v>1.91</v>
+        <v>1.73</v>
       </c>
       <c r="I61">
         <v>1.02</v>
@@ -8008,13 +8008,13 @@
         <v>309</v>
       </c>
       <c r="F62">
-        <v>2.2</v>
+        <v>2.05</v>
       </c>
       <c r="G62">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="H62">
-        <v>3.25</v>
+        <v>3.13</v>
       </c>
       <c r="I62">
         <v>1.04</v>
@@ -8029,10 +8029,10 @@
         <v>4</v>
       </c>
       <c r="M62">
-        <v>1.59</v>
+        <v>1.85</v>
       </c>
       <c r="N62">
-        <v>2.17</v>
+        <v>1.95</v>
       </c>
       <c r="O62">
         <v>1.33</v>
@@ -8115,10 +8115,10 @@
         <v>1.95</v>
       </c>
       <c r="G63">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="H63">
-        <v>3.75</v>
+        <v>3.3</v>
       </c>
       <c r="I63">
         <v>1.03</v>
@@ -8133,10 +8133,10 @@
         <v>4.2</v>
       </c>
       <c r="M63">
-        <v>1.56</v>
+        <v>1.75</v>
       </c>
       <c r="N63">
-        <v>2.23</v>
+        <v>2.1</v>
       </c>
       <c r="O63">
         <v>1.33</v>
@@ -8216,13 +8216,13 @@
         <v>311</v>
       </c>
       <c r="F64">
-        <v>1.73</v>
+        <v>1.6</v>
       </c>
       <c r="G64">
-        <v>3.6</v>
+        <v>3.55</v>
       </c>
       <c r="H64">
-        <v>4</v>
+        <v>4.85</v>
       </c>
       <c r="I64">
         <v>1.02</v>
@@ -8237,10 +8237,10 @@
         <v>3.2</v>
       </c>
       <c r="M64">
-        <v>1.78</v>
+        <v>1.91</v>
       </c>
       <c r="N64">
-        <v>2.03</v>
+        <v>1.82</v>
       </c>
       <c r="O64">
         <v>1.39</v>
@@ -8320,13 +8320,13 @@
         <v>312</v>
       </c>
       <c r="F65">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="G65">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="H65">
-        <v>2.4</v>
+        <v>2.25</v>
       </c>
       <c r="I65">
         <v>1.01</v>
@@ -8341,7 +8341,7 @@
         <v>3.48</v>
       </c>
       <c r="M65">
-        <v>1.85</v>
+        <v>1.79</v>
       </c>
       <c r="N65">
         <v>1.95</v>
@@ -8424,13 +8424,13 @@
         <v>313</v>
       </c>
       <c r="F66">
-        <v>2.9</v>
+        <v>2.75</v>
       </c>
       <c r="G66">
-        <v>3.5</v>
+        <v>3.45</v>
       </c>
       <c r="H66">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="I66">
         <v>0</v>
@@ -8445,10 +8445,10 @@
         <v>0</v>
       </c>
       <c r="M66">
-        <v>1.61</v>
+        <v>1.65</v>
       </c>
       <c r="N66">
-        <v>2.15</v>
+        <v>2.14</v>
       </c>
       <c r="O66">
         <v>0</v>
@@ -8528,52 +8528,52 @@
         <v>314</v>
       </c>
       <c r="F67">
-        <v>0</v>
+        <v>2.8</v>
       </c>
       <c r="G67">
-        <v>0</v>
+        <v>2.9</v>
       </c>
       <c r="H67">
-        <v>0</v>
+        <v>2.4</v>
       </c>
       <c r="I67">
-        <v>0</v>
+        <v>1.06</v>
       </c>
       <c r="J67">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="K67">
-        <v>0</v>
+        <v>1.32</v>
       </c>
       <c r="L67">
-        <v>0</v>
+        <v>3.1</v>
       </c>
       <c r="M67">
-        <v>0</v>
+        <v>2.08</v>
       </c>
       <c r="N67">
-        <v>0</v>
+        <v>1.73</v>
       </c>
       <c r="O67">
-        <v>0</v>
+        <v>1.45</v>
       </c>
       <c r="P67">
-        <v>0</v>
+        <v>2.6</v>
       </c>
       <c r="Q67">
-        <v>0</v>
+        <v>1.8</v>
       </c>
       <c r="R67">
-        <v>0</v>
+        <v>1.91</v>
       </c>
       <c r="S67">
-        <v>0</v>
+        <v>1.48</v>
       </c>
       <c r="T67">
-        <v>0</v>
+        <v>1.32</v>
       </c>
       <c r="U67">
-        <v>0</v>
+        <v>1.42</v>
       </c>
       <c r="V67">
         <v>0.6</v>
@@ -8591,25 +8591,25 @@
         <v>2.96</v>
       </c>
       <c r="AA67">
-        <v>0</v>
+        <v>1.98</v>
       </c>
       <c r="AB67">
-        <v>0</v>
+        <v>7.3</v>
       </c>
       <c r="AC67">
-        <v>0</v>
+        <v>2.22</v>
       </c>
       <c r="AD67">
-        <v>0</v>
+        <v>1.4</v>
       </c>
       <c r="AE67">
-        <v>0</v>
+        <v>1.74</v>
       </c>
       <c r="AF67">
-        <v>0</v>
+        <v>2.25</v>
       </c>
       <c r="AG67">
-        <v>0</v>
+        <v>3.04</v>
       </c>
       <c r="AH67">
         <v>0</v>
@@ -8632,13 +8632,13 @@
         <v>315</v>
       </c>
       <c r="F68">
-        <v>1.4</v>
+        <v>1.42</v>
       </c>
       <c r="G68">
-        <v>4.2</v>
+        <v>3.95</v>
       </c>
       <c r="H68">
-        <v>6.5</v>
+        <v>6.2</v>
       </c>
       <c r="I68">
         <v>1.04</v>
@@ -8653,10 +8653,10 @@
         <v>3.6</v>
       </c>
       <c r="M68">
-        <v>1.9</v>
+        <v>1.94</v>
       </c>
       <c r="N68">
-        <v>1.9</v>
+        <v>1.88</v>
       </c>
       <c r="O68">
         <v>1.35</v>
@@ -8736,13 +8736,13 @@
         <v>316</v>
       </c>
       <c r="F69">
-        <v>1.9</v>
+        <v>1.74</v>
       </c>
       <c r="G69">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="H69">
-        <v>4</v>
+        <v>4.15</v>
       </c>
       <c r="I69">
         <v>1.05</v>
@@ -8757,10 +8757,10 @@
         <v>3.25</v>
       </c>
       <c r="M69">
-        <v>2.19</v>
+        <v>1.94</v>
       </c>
       <c r="N69">
-        <v>1.58</v>
+        <v>1.83</v>
       </c>
       <c r="O69">
         <v>1.39</v>
@@ -8840,13 +8840,13 @@
         <v>317</v>
       </c>
       <c r="F70">
-        <v>2.8</v>
+        <v>2.65</v>
       </c>
       <c r="G70">
-        <v>3.2</v>
+        <v>3.28</v>
       </c>
       <c r="H70">
-        <v>2.5</v>
+        <v>2.31</v>
       </c>
       <c r="I70">
         <v>1.07</v>
@@ -8861,10 +8861,10 @@
         <v>2.95</v>
       </c>
       <c r="M70">
-        <v>2.02</v>
+        <v>2.15</v>
       </c>
       <c r="N70">
-        <v>1.68</v>
+        <v>1.67</v>
       </c>
       <c r="O70">
         <v>1.45</v>
@@ -8944,13 +8944,13 @@
         <v>318</v>
       </c>
       <c r="F71">
-        <v>2.75</v>
+        <v>2.65</v>
       </c>
       <c r="G71">
-        <v>3.1</v>
+        <v>2.9</v>
       </c>
       <c r="H71">
-        <v>2.6</v>
+        <v>2.5</v>
       </c>
       <c r="I71">
         <v>1.08</v>
@@ -8965,10 +8965,10 @@
         <v>2.75</v>
       </c>
       <c r="M71">
-        <v>2.23</v>
+        <v>2.25</v>
       </c>
       <c r="N71">
-        <v>1.56</v>
+        <v>1.57</v>
       </c>
       <c r="O71">
         <v>1.44</v>
@@ -9048,13 +9048,13 @@
         <v>319</v>
       </c>
       <c r="F72">
-        <v>3</v>
+        <v>3.05</v>
       </c>
       <c r="G72">
-        <v>3.1</v>
+        <v>2.7</v>
       </c>
       <c r="H72">
-        <v>2.4</v>
+        <v>2.3</v>
       </c>
       <c r="I72">
         <v>1.09</v>
@@ -9069,10 +9069,10 @@
         <v>2.75</v>
       </c>
       <c r="M72">
-        <v>2.25</v>
+        <v>2.35</v>
       </c>
       <c r="N72">
-        <v>1.55</v>
+        <v>1.53</v>
       </c>
       <c r="O72">
         <v>1.51</v>
@@ -9152,13 +9152,13 @@
         <v>320</v>
       </c>
       <c r="F73">
-        <v>4</v>
+        <v>3.25</v>
       </c>
       <c r="G73">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="H73">
-        <v>1.91</v>
+        <v>1.9</v>
       </c>
       <c r="I73">
         <v>1.04</v>
@@ -9173,10 +9173,10 @@
         <v>3.75</v>
       </c>
       <c r="M73">
-        <v>1.78</v>
+        <v>1.73</v>
       </c>
       <c r="N73">
-        <v>1.86</v>
+        <v>1.91</v>
       </c>
       <c r="O73">
         <v>1.35</v>
@@ -9259,10 +9259,10 @@
         <v>2.8</v>
       </c>
       <c r="G74">
-        <v>3.25</v>
+        <v>3.15</v>
       </c>
       <c r="H74">
-        <v>2.5</v>
+        <v>2.2</v>
       </c>
       <c r="I74">
         <v>1.05</v>
@@ -9277,10 +9277,10 @@
         <v>3.25</v>
       </c>
       <c r="M74">
-        <v>1.98</v>
+        <v>2.05</v>
       </c>
       <c r="N74">
-        <v>1.68</v>
+        <v>1.75</v>
       </c>
       <c r="O74">
         <v>1.39</v>
@@ -9360,13 +9360,13 @@
         <v>322</v>
       </c>
       <c r="F75">
-        <v>1.67</v>
+        <v>1.6</v>
       </c>
       <c r="G75">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="H75">
-        <v>5</v>
+        <v>4.6</v>
       </c>
       <c r="I75">
         <v>1.05</v>
@@ -9381,10 +9381,10 @@
         <v>3.3</v>
       </c>
       <c r="M75">
-        <v>2.03</v>
+        <v>1.91</v>
       </c>
       <c r="N75">
-        <v>1.83</v>
+        <v>1.74</v>
       </c>
       <c r="O75">
         <v>1.37</v>
@@ -9464,13 +9464,13 @@
         <v>323</v>
       </c>
       <c r="F76">
-        <v>1.91</v>
+        <v>1.9</v>
       </c>
       <c r="G76">
-        <v>3.6</v>
+        <v>3.15</v>
       </c>
       <c r="H76">
-        <v>3.75</v>
+        <v>3.55</v>
       </c>
       <c r="I76">
         <v>1.04</v>
@@ -9485,10 +9485,10 @@
         <v>3.5</v>
       </c>
       <c r="M76">
-        <v>2</v>
+        <v>1.92</v>
       </c>
       <c r="N76">
-        <v>1.85</v>
+        <v>1.73</v>
       </c>
       <c r="O76">
         <v>1.36</v>
@@ -9568,13 +9568,13 @@
         <v>324</v>
       </c>
       <c r="F77">
-        <v>3.75</v>
+        <v>3.45</v>
       </c>
       <c r="G77">
-        <v>3.4</v>
+        <v>3.35</v>
       </c>
       <c r="H77">
-        <v>2</v>
+        <v>1.86</v>
       </c>
       <c r="I77">
         <v>1.04</v>
@@ -9589,10 +9589,10 @@
         <v>3.5</v>
       </c>
       <c r="M77">
-        <v>1.95</v>
+        <v>1.86</v>
       </c>
       <c r="N77">
-        <v>1.9</v>
+        <v>1.78</v>
       </c>
       <c r="O77">
         <v>1.36</v>
@@ -9672,13 +9672,13 @@
         <v>325</v>
       </c>
       <c r="F78">
-        <v>1.83</v>
+        <v>1.76</v>
       </c>
       <c r="G78">
-        <v>3.6</v>
+        <v>3.3</v>
       </c>
       <c r="H78">
-        <v>4.2</v>
+        <v>3.85</v>
       </c>
       <c r="I78">
         <v>1.05</v>
@@ -9696,7 +9696,7 @@
         <v>2.05</v>
       </c>
       <c r="N78">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="O78">
         <v>1.39</v>
@@ -9776,13 +9776,13 @@
         <v>326</v>
       </c>
       <c r="F79">
-        <v>1.91</v>
+        <v>1.83</v>
       </c>
       <c r="G79">
+        <v>3.3</v>
+      </c>
+      <c r="H79">
         <v>3.6</v>
-      </c>
-      <c r="H79">
-        <v>3.75</v>
       </c>
       <c r="I79">
         <v>1.05</v>
@@ -9797,10 +9797,10 @@
         <v>3.25</v>
       </c>
       <c r="M79">
-        <v>2.03</v>
+        <v>1.9</v>
       </c>
       <c r="N79">
-        <v>1.83</v>
+        <v>1.75</v>
       </c>
       <c r="O79">
         <v>1.39</v>
@@ -9880,13 +9880,13 @@
         <v>327</v>
       </c>
       <c r="F80">
-        <v>2.8</v>
+        <v>2.75</v>
       </c>
       <c r="G80">
-        <v>3.25</v>
+        <v>3.05</v>
       </c>
       <c r="H80">
-        <v>2.5</v>
+        <v>2.3</v>
       </c>
       <c r="I80">
         <v>1.07</v>
@@ -9901,10 +9901,10 @@
         <v>2.95</v>
       </c>
       <c r="M80">
-        <v>2.2</v>
+        <v>2.12</v>
       </c>
       <c r="N80">
-        <v>1.7</v>
+        <v>1.68</v>
       </c>
       <c r="O80">
         <v>1.44</v>
@@ -9987,10 +9987,10 @@
         <v>5</v>
       </c>
       <c r="G81">
-        <v>3.75</v>
+        <v>3.65</v>
       </c>
       <c r="H81">
-        <v>1.67</v>
+        <v>1.54</v>
       </c>
       <c r="I81">
         <v>1.05</v>
@@ -10005,10 +10005,10 @@
         <v>3.25</v>
       </c>
       <c r="M81">
-        <v>1.98</v>
+        <v>1.97</v>
       </c>
       <c r="N81">
-        <v>1.88</v>
+        <v>1.83</v>
       </c>
       <c r="O81">
         <v>1.39</v>
@@ -10088,13 +10088,13 @@
         <v>329</v>
       </c>
       <c r="F82">
-        <v>2</v>
+        <v>1.86</v>
       </c>
       <c r="G82">
-        <v>3.5</v>
+        <v>3.3</v>
       </c>
       <c r="H82">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="I82">
         <v>1.03</v>
@@ -10109,10 +10109,10 @@
         <v>3.6</v>
       </c>
       <c r="M82">
-        <v>1.85</v>
+        <v>1.83</v>
       </c>
       <c r="N82">
-        <v>2</v>
+        <v>1.97</v>
       </c>
       <c r="O82">
         <v>1.36</v>
@@ -10192,13 +10192,13 @@
         <v>330</v>
       </c>
       <c r="F83">
-        <v>1.73</v>
+        <v>1.64</v>
       </c>
       <c r="G83">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="H83">
-        <v>4.75</v>
+        <v>4.3</v>
       </c>
       <c r="I83">
         <v>1.04</v>
@@ -10213,10 +10213,10 @@
         <v>3.65</v>
       </c>
       <c r="M83">
-        <v>1.95</v>
+        <v>1.85</v>
       </c>
       <c r="N83">
-        <v>1.9</v>
+        <v>1.79</v>
       </c>
       <c r="O83">
         <v>1.33</v>
@@ -10299,10 +10299,10 @@
         <v>2.5</v>
       </c>
       <c r="G84">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="H84">
-        <v>2.8</v>
+        <v>2.55</v>
       </c>
       <c r="I84">
         <v>1.07</v>
@@ -10317,10 +10317,10 @@
         <v>3</v>
       </c>
       <c r="M84">
-        <v>2.1</v>
+        <v>2.07</v>
       </c>
       <c r="N84">
-        <v>1.78</v>
+        <v>1.73</v>
       </c>
       <c r="O84">
         <v>1.44</v>
@@ -10400,13 +10400,13 @@
         <v>332</v>
       </c>
       <c r="F85">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="G85">
-        <v>3.25</v>
+        <v>3.1</v>
       </c>
       <c r="H85">
-        <v>2.25</v>
+        <v>2.1</v>
       </c>
       <c r="I85">
         <v>1.05</v>
@@ -10421,10 +10421,10 @@
         <v>3.25</v>
       </c>
       <c r="M85">
-        <v>2.03</v>
+        <v>1.92</v>
       </c>
       <c r="N85">
-        <v>1.83</v>
+        <v>1.73</v>
       </c>
       <c r="O85">
         <v>1.39</v>
@@ -10504,13 +10504,13 @@
         <v>333</v>
       </c>
       <c r="F86">
-        <v>2.7</v>
+        <v>2.9</v>
       </c>
       <c r="G86">
-        <v>3.2</v>
+        <v>2.9</v>
       </c>
       <c r="H86">
-        <v>2.6</v>
+        <v>2.25</v>
       </c>
       <c r="I86">
         <v>1.08</v>
@@ -10525,10 +10525,10 @@
         <v>2.8</v>
       </c>
       <c r="M86">
-        <v>1.99</v>
+        <v>2.3</v>
       </c>
       <c r="N86">
-        <v>1.7</v>
+        <v>1.57</v>
       </c>
       <c r="O86">
         <v>1.47</v>
@@ -10608,13 +10608,13 @@
         <v>334</v>
       </c>
       <c r="F87">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="G87">
-        <v>3.4</v>
+        <v>3.15</v>
       </c>
       <c r="H87">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="I87">
         <v>1.06</v>
@@ -10629,10 +10629,10 @@
         <v>3</v>
       </c>
       <c r="M87">
-        <v>1.98</v>
+        <v>1.97</v>
       </c>
       <c r="N87">
-        <v>1.88</v>
+        <v>1.83</v>
       </c>
       <c r="O87">
         <v>1.42</v>
@@ -10712,13 +10712,13 @@
         <v>335</v>
       </c>
       <c r="F88">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="G88">
-        <v>3.25</v>
+        <v>3.35</v>
       </c>
       <c r="H88">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="I88">
         <v>1.04</v>
@@ -10733,10 +10733,10 @@
         <v>3.5</v>
       </c>
       <c r="M88">
-        <v>1.93</v>
+        <v>1.83</v>
       </c>
       <c r="N88">
-        <v>1.93</v>
+        <v>1.81</v>
       </c>
       <c r="O88">
         <v>1.36</v>
@@ -10816,13 +10816,13 @@
         <v>336</v>
       </c>
       <c r="F89">
-        <v>2.7</v>
+        <v>2.5</v>
       </c>
       <c r="G89">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="H89">
-        <v>2.6</v>
+        <v>2.35</v>
       </c>
       <c r="I89">
         <v>1.04</v>
@@ -10837,10 +10837,10 @@
         <v>3.5</v>
       </c>
       <c r="M89">
-        <v>1.95</v>
+        <v>1.81</v>
       </c>
       <c r="N89">
-        <v>1.9</v>
+        <v>1.83</v>
       </c>
       <c r="O89">
         <v>1.36</v>
@@ -10920,13 +10920,13 @@
         <v>337</v>
       </c>
       <c r="F90">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="G90">
-        <v>3.2</v>
+        <v>2.8</v>
       </c>
       <c r="H90">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="I90">
         <v>1.09</v>
@@ -10941,10 +10941,10 @@
         <v>2.75</v>
       </c>
       <c r="M90">
-        <v>2.15</v>
+        <v>2.3</v>
       </c>
       <c r="N90">
-        <v>1.6</v>
+        <v>1.57</v>
       </c>
       <c r="O90">
         <v>1.5</v>
@@ -11024,13 +11024,13 @@
         <v>338</v>
       </c>
       <c r="F91">
-        <v>2.9</v>
+        <v>2.8</v>
       </c>
       <c r="G91">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="H91">
-        <v>2.4</v>
+        <v>2.25</v>
       </c>
       <c r="I91">
         <v>1.08</v>
@@ -11045,10 +11045,10 @@
         <v>2.75</v>
       </c>
       <c r="M91">
-        <v>2.31</v>
+        <v>2.35</v>
       </c>
       <c r="N91">
-        <v>1.52</v>
+        <v>1.53</v>
       </c>
       <c r="O91">
         <v>1.49</v>
@@ -11128,13 +11128,13 @@
         <v>339</v>
       </c>
       <c r="F92">
+        <v>2.85</v>
+      </c>
+      <c r="G92">
         <v>3</v>
       </c>
-      <c r="G92">
-        <v>3.25</v>
-      </c>
       <c r="H92">
-        <v>2.38</v>
+        <v>2.25</v>
       </c>
       <c r="I92">
         <v>1.07</v>
@@ -11149,10 +11149,10 @@
         <v>2.95</v>
       </c>
       <c r="M92">
-        <v>2.08</v>
+        <v>2.2</v>
       </c>
       <c r="N92">
-        <v>1.64</v>
+        <v>1.61</v>
       </c>
       <c r="O92">
         <v>1.44</v>
@@ -11232,13 +11232,13 @@
         <v>340</v>
       </c>
       <c r="F93">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="G93">
-        <v>3.4</v>
+        <v>3.1</v>
       </c>
       <c r="H93">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="I93">
         <v>1.06</v>
@@ -11253,10 +11253,10 @@
         <v>3.2</v>
       </c>
       <c r="M93">
-        <v>2.05</v>
+        <v>1.94</v>
       </c>
       <c r="N93">
-        <v>1.8</v>
+        <v>1.72</v>
       </c>
       <c r="O93">
         <v>1.41</v>
@@ -11336,13 +11336,13 @@
         <v>341</v>
       </c>
       <c r="F94">
-        <v>2.3</v>
+        <v>2.1</v>
       </c>
       <c r="G94">
-        <v>3.25</v>
+        <v>3.15</v>
       </c>
       <c r="H94">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="I94">
         <v>1.06</v>
@@ -11357,10 +11357,10 @@
         <v>3.1</v>
       </c>
       <c r="M94">
-        <v>2.03</v>
+        <v>2.15</v>
       </c>
       <c r="N94">
-        <v>1.68</v>
+        <v>1.67</v>
       </c>
       <c r="O94">
         <v>1.43</v>
@@ -11440,13 +11440,13 @@
         <v>342</v>
       </c>
       <c r="F95">
-        <v>1.73</v>
+        <v>1.83</v>
       </c>
       <c r="G95">
-        <v>3.6</v>
+        <v>3</v>
       </c>
       <c r="H95">
-        <v>4.75</v>
+        <v>4.05</v>
       </c>
       <c r="I95">
         <v>1.06</v>
@@ -11461,7 +11461,7 @@
         <v>3</v>
       </c>
       <c r="M95">
-        <v>2.03</v>
+        <v>2.15</v>
       </c>
       <c r="N95">
         <v>1.67</v>
@@ -11550,7 +11550,7 @@
         <v>3.5</v>
       </c>
       <c r="H96">
-        <v>4.5</v>
+        <v>3.55</v>
       </c>
       <c r="I96">
         <v>1.06</v>
@@ -11565,10 +11565,10 @@
         <v>3.2</v>
       </c>
       <c r="M96">
-        <v>2.02</v>
+        <v>2.1</v>
       </c>
       <c r="N96">
-        <v>1.68</v>
+        <v>1.67</v>
       </c>
       <c r="O96">
         <v>1.41</v>
@@ -11648,13 +11648,13 @@
         <v>344</v>
       </c>
       <c r="F97">
-        <v>2.88</v>
+        <v>2.7</v>
       </c>
       <c r="G97">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="H97">
-        <v>2.5</v>
+        <v>2.35</v>
       </c>
       <c r="I97">
         <v>1.09</v>
@@ -11669,10 +11669,10 @@
         <v>2.8</v>
       </c>
       <c r="M97">
-        <v>2.24</v>
+        <v>2.3</v>
       </c>
       <c r="N97">
-        <v>1.53</v>
+        <v>1.57</v>
       </c>
       <c r="O97">
         <v>1.49</v>
@@ -11752,13 +11752,13 @@
         <v>345</v>
       </c>
       <c r="F98">
-        <v>2.3</v>
+        <v>2.25</v>
       </c>
       <c r="G98">
-        <v>3.2</v>
+        <v>3.05</v>
       </c>
       <c r="H98">
-        <v>3.1</v>
+        <v>2.8</v>
       </c>
       <c r="I98">
         <v>1.07</v>
@@ -11773,10 +11773,10 @@
         <v>3</v>
       </c>
       <c r="M98">
-        <v>2.07</v>
+        <v>2.15</v>
       </c>
       <c r="N98">
-        <v>1.62</v>
+        <v>1.67</v>
       </c>
       <c r="O98">
         <v>1.46</v>
@@ -11856,13 +11856,13 @@
         <v>346</v>
       </c>
       <c r="F99">
-        <v>1.44</v>
+        <v>1.45</v>
       </c>
       <c r="G99">
-        <v>4.33</v>
+        <v>3.9</v>
       </c>
       <c r="H99">
-        <v>7</v>
+        <v>5.75</v>
       </c>
       <c r="I99">
         <v>1.04</v>
@@ -11877,10 +11877,10 @@
         <v>3.75</v>
       </c>
       <c r="M99">
-        <v>1.85</v>
+        <v>1.78</v>
       </c>
       <c r="N99">
-        <v>2</v>
+        <v>1.84</v>
       </c>
       <c r="O99">
         <v>1.37</v>
@@ -11960,13 +11960,13 @@
         <v>347</v>
       </c>
       <c r="F100">
-        <v>1.73</v>
+        <v>1.6</v>
       </c>
       <c r="G100">
-        <v>3.75</v>
+        <v>3.4</v>
       </c>
       <c r="H100">
-        <v>4.5</v>
+        <v>4.75</v>
       </c>
       <c r="I100">
         <v>1.04</v>
@@ -11981,10 +11981,10 @@
         <v>3.6</v>
       </c>
       <c r="M100">
-        <v>1.87</v>
+        <v>2.01</v>
       </c>
       <c r="N100">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="O100">
         <v>1.45</v>
@@ -12064,13 +12064,13 @@
         <v>348</v>
       </c>
       <c r="F101">
-        <v>2.15</v>
+        <v>1.9</v>
       </c>
       <c r="G101">
         <v>3.2</v>
       </c>
       <c r="H101">
-        <v>3.5</v>
+        <v>3.45</v>
       </c>
       <c r="I101">
         <v>1.08</v>
@@ -12085,10 +12085,10 @@
         <v>3</v>
       </c>
       <c r="M101">
-        <v>2.12</v>
+        <v>2.25</v>
       </c>
       <c r="N101">
-        <v>1.59</v>
+        <v>1.6</v>
       </c>
       <c r="O101">
         <v>1.5</v>
@@ -12168,13 +12168,13 @@
         <v>349</v>
       </c>
       <c r="F102">
-        <v>2.38</v>
+        <v>2.5</v>
       </c>
       <c r="G102">
-        <v>3.3</v>
+        <v>2.9</v>
       </c>
       <c r="H102">
-        <v>2.9</v>
+        <v>2.6</v>
       </c>
       <c r="I102">
         <v>1.07</v>
@@ -12189,10 +12189,10 @@
         <v>3</v>
       </c>
       <c r="M102">
-        <v>2.07</v>
+        <v>2.15</v>
       </c>
       <c r="N102">
-        <v>1.62</v>
+        <v>1.61</v>
       </c>
       <c r="O102">
         <v>1.44</v>
@@ -12272,13 +12272,13 @@
         <v>350</v>
       </c>
       <c r="F103">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="G103">
-        <v>3.5</v>
+        <v>3.3</v>
       </c>
       <c r="H103">
-        <v>3.6</v>
+        <v>3.3</v>
       </c>
       <c r="I103">
         <v>1.05</v>
@@ -12293,10 +12293,10 @@
         <v>3.4</v>
       </c>
       <c r="M103">
-        <v>1.98</v>
+        <v>1.86</v>
       </c>
       <c r="N103">
-        <v>1.88</v>
+        <v>1.75</v>
       </c>
       <c r="O103">
         <v>1.4</v>
@@ -12376,13 +12376,13 @@
         <v>351</v>
       </c>
       <c r="F104">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="G104">
-        <v>3.6</v>
+        <v>3.25</v>
       </c>
       <c r="H104">
-        <v>4.2</v>
+        <v>3.75</v>
       </c>
       <c r="I104">
         <v>1.06</v>
@@ -12397,10 +12397,10 @@
         <v>3.4</v>
       </c>
       <c r="M104">
-        <v>2.07</v>
+        <v>2.02</v>
       </c>
       <c r="N104">
-        <v>1.62</v>
+        <v>1.84</v>
       </c>
       <c r="O104">
         <v>1.44</v>
@@ -12480,13 +12480,13 @@
         <v>352</v>
       </c>
       <c r="F105">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="G105">
-        <v>3.2</v>
+        <v>2.95</v>
       </c>
       <c r="H105">
-        <v>2.8</v>
+        <v>2.45</v>
       </c>
       <c r="I105">
         <v>1.09</v>
@@ -12501,10 +12501,10 @@
         <v>2.8</v>
       </c>
       <c r="M105">
-        <v>2.18</v>
+        <v>2.3</v>
       </c>
       <c r="N105">
-        <v>1.56</v>
+        <v>1.57</v>
       </c>
       <c r="O105">
         <v>1.49</v>
@@ -12584,13 +12584,13 @@
         <v>353</v>
       </c>
       <c r="F106">
-        <v>2.38</v>
+        <v>2.4</v>
       </c>
       <c r="G106">
-        <v>3.2</v>
+        <v>2.95</v>
       </c>
       <c r="H106">
-        <v>3</v>
+        <v>2.65</v>
       </c>
       <c r="I106">
         <v>1.04</v>
@@ -12605,10 +12605,10 @@
         <v>3.14</v>
       </c>
       <c r="M106">
-        <v>2.07</v>
+        <v>2.03</v>
       </c>
       <c r="N106">
-        <v>1.62</v>
+        <v>1.83</v>
       </c>
       <c r="O106">
         <v>1.45</v>
@@ -12688,13 +12688,13 @@
         <v>354</v>
       </c>
       <c r="F107">
-        <v>2.3</v>
+        <v>2.18</v>
       </c>
       <c r="G107">
-        <v>3</v>
+        <v>2.96</v>
       </c>
       <c r="H107">
-        <v>3</v>
+        <v>3.64</v>
       </c>
       <c r="I107">
         <v>1.06</v>
@@ -12792,13 +12792,13 @@
         <v>355</v>
       </c>
       <c r="F108">
-        <v>2.7</v>
+        <v>2.5</v>
       </c>
       <c r="G108">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="H108">
-        <v>2.6</v>
+        <v>2.88</v>
       </c>
       <c r="I108">
         <v>1.08</v>
@@ -12813,10 +12813,10 @@
         <v>3</v>
       </c>
       <c r="M108">
-        <v>1.88</v>
+        <v>2.3</v>
       </c>
       <c r="N108">
-        <v>1.79</v>
+        <v>1.6</v>
       </c>
       <c r="O108">
         <v>1.5</v>
@@ -12896,13 +12896,13 @@
         <v>356</v>
       </c>
       <c r="F109">
-        <v>1.85</v>
+        <v>1.91</v>
       </c>
       <c r="G109">
-        <v>3.5</v>
+        <v>3.3</v>
       </c>
       <c r="H109">
-        <v>4.2</v>
+        <v>3.9</v>
       </c>
       <c r="I109">
         <v>1.06</v>
@@ -12917,10 +12917,10 @@
         <v>3.4</v>
       </c>
       <c r="M109">
-        <v>2.04</v>
+        <v>2</v>
       </c>
       <c r="N109">
-        <v>1.86</v>
+        <v>1.78</v>
       </c>
       <c r="O109">
         <v>1.4</v>
@@ -13000,13 +13000,13 @@
         <v>357</v>
       </c>
       <c r="F110">
-        <v>5</v>
+        <v>4.8</v>
       </c>
       <c r="G110">
-        <v>3.8</v>
+        <v>3.9</v>
       </c>
       <c r="H110">
-        <v>1.65</v>
+        <v>1.62</v>
       </c>
       <c r="I110">
         <v>1.04</v>
@@ -13021,10 +13021,10 @@
         <v>4.35</v>
       </c>
       <c r="M110">
-        <v>1.78</v>
+        <v>1.65</v>
       </c>
       <c r="N110">
-        <v>1.89</v>
+        <v>2.25</v>
       </c>
       <c r="O110">
         <v>1.33</v>
@@ -13104,10 +13104,10 @@
         <v>358</v>
       </c>
       <c r="F111">
-        <v>1.67</v>
+        <v>1.7</v>
       </c>
       <c r="G111">
-        <v>3.75</v>
+        <v>3.4</v>
       </c>
       <c r="H111">
         <v>5</v>
@@ -13125,10 +13125,10 @@
         <v>3.15</v>
       </c>
       <c r="M111">
-        <v>1.87</v>
+        <v>2.15</v>
       </c>
       <c r="N111">
-        <v>1.87</v>
+        <v>1.67</v>
       </c>
       <c r="O111">
         <v>1.44</v>
@@ -13208,13 +13208,13 @@
         <v>359</v>
       </c>
       <c r="F112">
-        <v>1.67</v>
+        <v>1.94</v>
       </c>
       <c r="G112">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="H112">
-        <v>4</v>
+        <v>3.15</v>
       </c>
       <c r="I112">
         <v>0</v>
@@ -13229,10 +13229,10 @@
         <v>0</v>
       </c>
       <c r="M112">
-        <v>1.6</v>
+        <v>1.62</v>
       </c>
       <c r="N112">
-        <v>2.2</v>
+        <v>2.23</v>
       </c>
       <c r="O112">
         <v>0</v>
@@ -13312,13 +13312,13 @@
         <v>360</v>
       </c>
       <c r="F113">
-        <v>1.73</v>
+        <v>1.7</v>
       </c>
       <c r="G113">
         <v>3.25</v>
       </c>
       <c r="H113">
-        <v>5.5</v>
+        <v>4.53</v>
       </c>
       <c r="I113">
         <v>1.11</v>
@@ -13327,16 +13327,16 @@
         <v>6.5</v>
       </c>
       <c r="K113">
-        <v>1.52</v>
+        <v>1.5</v>
       </c>
       <c r="L113">
-        <v>2.4</v>
+        <v>2.37</v>
       </c>
       <c r="M113">
         <v>2.44</v>
       </c>
       <c r="N113">
-        <v>1.43</v>
+        <v>1.49</v>
       </c>
       <c r="O113">
         <v>1.55</v>
@@ -13416,13 +13416,13 @@
         <v>361</v>
       </c>
       <c r="F114">
-        <v>2.63</v>
+        <v>2.57</v>
       </c>
       <c r="G114">
-        <v>2.9</v>
+        <v>2.83</v>
       </c>
       <c r="H114">
-        <v>2.9</v>
+        <v>2.64</v>
       </c>
       <c r="I114">
         <v>1.12</v>
@@ -13431,10 +13431,10 @@
         <v>6</v>
       </c>
       <c r="K114">
-        <v>1.57</v>
+        <v>1.52</v>
       </c>
       <c r="L114">
-        <v>2.3</v>
+        <v>2.45</v>
       </c>
       <c r="M114">
         <v>2.65</v>
@@ -13520,10 +13520,10 @@
         <v>362</v>
       </c>
       <c r="F115">
-        <v>2.88</v>
+        <v>2.8</v>
       </c>
       <c r="G115">
-        <v>3.1</v>
+        <v>2.9</v>
       </c>
       <c r="H115">
         <v>2.55</v>
@@ -13535,16 +13535,16 @@
         <v>7.5</v>
       </c>
       <c r="K115">
+        <v>1.55</v>
+      </c>
+      <c r="L115">
+        <v>2.5</v>
+      </c>
+      <c r="M115">
+        <v>2.4</v>
+      </c>
+      <c r="N115">
         <v>1.5</v>
-      </c>
-      <c r="L115">
-        <v>2.65</v>
-      </c>
-      <c r="M115">
-        <v>2.24</v>
-      </c>
-      <c r="N115">
-        <v>1.53</v>
       </c>
       <c r="O115">
         <v>1.53</v>
@@ -13624,13 +13624,13 @@
         <v>363</v>
       </c>
       <c r="F116">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="G116">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="H116">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="I116">
         <v>1.07</v>
@@ -13645,10 +13645,10 @@
         <v>3.15</v>
       </c>
       <c r="M116">
-        <v>2.03</v>
+        <v>2.05</v>
       </c>
       <c r="N116">
-        <v>1.62</v>
+        <v>1.73</v>
       </c>
       <c r="O116">
         <v>1.44</v>
@@ -13728,13 +13728,13 @@
         <v>364</v>
       </c>
       <c r="F117">
-        <v>1.91</v>
+        <v>1.9</v>
       </c>
       <c r="G117">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="H117">
-        <v>3.8</v>
+        <v>3.3</v>
       </c>
       <c r="I117">
         <v>1.02</v>
@@ -13749,10 +13749,10 @@
         <v>3.6</v>
       </c>
       <c r="M117">
-        <v>1.85</v>
+        <v>1.95</v>
       </c>
       <c r="N117">
-        <v>2</v>
+        <v>1.91</v>
       </c>
       <c r="O117">
         <v>1.33</v>
@@ -13832,13 +13832,13 @@
         <v>365</v>
       </c>
       <c r="F118">
-        <v>1.67</v>
+        <v>1.54</v>
       </c>
       <c r="G118">
-        <v>3.5</v>
+        <v>3.55</v>
       </c>
       <c r="H118">
-        <v>4.75</v>
+        <v>5.2</v>
       </c>
       <c r="I118">
         <v>1.07</v>
@@ -13853,10 +13853,10 @@
         <v>3</v>
       </c>
       <c r="M118">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="N118">
-        <v>1.78</v>
+        <v>1.75</v>
       </c>
       <c r="O118">
         <v>1.45</v>
@@ -13936,10 +13936,10 @@
         <v>366</v>
       </c>
       <c r="F119">
-        <v>2.2</v>
+        <v>2.3</v>
       </c>
       <c r="G119">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="H119">
         <v>3.1</v>
@@ -13957,10 +13957,10 @@
         <v>2.8</v>
       </c>
       <c r="M119">
-        <v>2.2</v>
+        <v>2.4</v>
       </c>
       <c r="N119">
-        <v>1.65</v>
+        <v>1.57</v>
       </c>
       <c r="O119">
         <v>1.5</v>
@@ -14040,13 +14040,13 @@
         <v>367</v>
       </c>
       <c r="F120">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="G120">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="H120">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="I120">
         <v>1.01</v>
@@ -14061,10 +14061,10 @@
         <v>3.3</v>
       </c>
       <c r="M120">
-        <v>1.93</v>
+        <v>1.91</v>
       </c>
       <c r="N120">
-        <v>1.93</v>
+        <v>1.85</v>
       </c>
       <c r="O120">
         <v>1.38</v>
@@ -14144,13 +14144,13 @@
         <v>368</v>
       </c>
       <c r="F121">
-        <v>1.25</v>
+        <v>1.18</v>
       </c>
       <c r="G121">
-        <v>5.25</v>
+        <v>6</v>
       </c>
       <c r="H121">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="I121">
         <v>1.03</v>
@@ -14165,10 +14165,10 @@
         <v>3.75</v>
       </c>
       <c r="M121">
-        <v>2.05</v>
+        <v>1.78</v>
       </c>
       <c r="N121">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="O121">
         <v>1.36</v>
@@ -14248,13 +14248,13 @@
         <v>369</v>
       </c>
       <c r="F122">
-        <v>4.75</v>
+        <v>3.95</v>
       </c>
       <c r="G122">
-        <v>3.6</v>
+        <v>3.55</v>
       </c>
       <c r="H122">
-        <v>1.73</v>
+        <v>1.68</v>
       </c>
       <c r="I122">
         <v>1.04</v>
@@ -14269,10 +14269,10 @@
         <v>4</v>
       </c>
       <c r="M122">
-        <v>1.71</v>
+        <v>1.7</v>
       </c>
       <c r="N122">
-        <v>1.99</v>
+        <v>2.05</v>
       </c>
       <c r="O122">
         <v>1.36</v>
@@ -14352,10 +14352,10 @@
         <v>370</v>
       </c>
       <c r="F123">
-        <v>1.5</v>
+        <v>1.45</v>
       </c>
       <c r="G123">
-        <v>4.5</v>
+        <v>4.2</v>
       </c>
       <c r="H123">
         <v>6</v>
@@ -14373,10 +14373,10 @@
         <v>4.5</v>
       </c>
       <c r="M123">
-        <v>1.56</v>
+        <v>1.62</v>
       </c>
       <c r="N123">
-        <v>2.37</v>
+        <v>2.25</v>
       </c>
       <c r="O123">
         <v>1.35</v>
@@ -14456,13 +14456,13 @@
         <v>371</v>
       </c>
       <c r="F124">
-        <v>2.63</v>
+        <v>2.3</v>
       </c>
       <c r="G124">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="H124">
-        <v>2.7</v>
+        <v>2.8</v>
       </c>
       <c r="I124">
         <v>1.05</v>
@@ -14480,7 +14480,7 @@
         <v>1.9</v>
       </c>
       <c r="N124">
-        <v>1.95</v>
+        <v>1.87</v>
       </c>
       <c r="O124">
         <v>1.36</v>
@@ -14560,13 +14560,13 @@
         <v>372</v>
       </c>
       <c r="F125">
-        <v>1.57</v>
+        <v>1.6</v>
       </c>
       <c r="G125">
-        <v>4</v>
+        <v>4.27</v>
       </c>
       <c r="H125">
-        <v>5.75</v>
+        <v>5.45</v>
       </c>
       <c r="I125">
         <v>0</v>
@@ -14581,10 +14581,10 @@
         <v>0</v>
       </c>
       <c r="M125">
-        <v>1.81</v>
+        <v>1.61</v>
       </c>
       <c r="N125">
-        <v>1.82</v>
+        <v>2.15</v>
       </c>
       <c r="O125">
         <v>0</v>
@@ -14664,13 +14664,13 @@
         <v>373</v>
       </c>
       <c r="F126">
-        <v>1.45</v>
+        <v>1.49</v>
       </c>
       <c r="G126">
-        <v>4.33</v>
+        <v>4.65</v>
       </c>
       <c r="H126">
-        <v>7</v>
+        <v>6.33</v>
       </c>
       <c r="I126">
         <v>0</v>
@@ -14685,10 +14685,10 @@
         <v>0</v>
       </c>
       <c r="M126">
-        <v>1.81</v>
+        <v>1.61</v>
       </c>
       <c r="N126">
-        <v>1.82</v>
+        <v>2.15</v>
       </c>
       <c r="O126">
         <v>0</v>
@@ -14768,13 +14768,13 @@
         <v>374</v>
       </c>
       <c r="F127">
-        <v>1.91</v>
+        <v>1.78</v>
       </c>
       <c r="G127">
-        <v>3.4</v>
+        <v>3.12</v>
       </c>
       <c r="H127">
-        <v>4</v>
+        <v>4.32</v>
       </c>
       <c r="I127">
         <v>1.1</v>
@@ -14792,7 +14792,7 @@
         <v>2.3</v>
       </c>
       <c r="N127">
-        <v>1.57</v>
+        <v>1.5</v>
       </c>
       <c r="O127">
         <v>1.49</v>
@@ -14872,13 +14872,13 @@
         <v>375</v>
       </c>
       <c r="F128">
-        <v>1.6</v>
+        <v>1.72</v>
       </c>
       <c r="G128">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="H128">
-        <v>5.25</v>
+        <v>3.95</v>
       </c>
       <c r="I128">
         <v>1.03</v>
@@ -14893,10 +14893,10 @@
         <v>3.5</v>
       </c>
       <c r="M128">
-        <v>1.95</v>
+        <v>1.99</v>
       </c>
       <c r="N128">
-        <v>1.85</v>
+        <v>1.83</v>
       </c>
       <c r="O128">
         <v>1.4</v>
@@ -14976,13 +14976,13 @@
         <v>376</v>
       </c>
       <c r="F129">
-        <v>3.2</v>
+        <v>2.96</v>
       </c>
       <c r="G129">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="H129">
-        <v>2.15</v>
+        <v>2.13</v>
       </c>
       <c r="I129">
         <v>1.03</v>
@@ -14997,10 +14997,10 @@
         <v>4.57</v>
       </c>
       <c r="M129">
-        <v>1.57</v>
+        <v>1.58</v>
       </c>
       <c r="N129">
-        <v>2.25</v>
+        <v>2.28</v>
       </c>
       <c r="O129">
         <v>1.3</v>
@@ -15080,13 +15080,13 @@
         <v>377</v>
       </c>
       <c r="F130">
-        <v>1.44</v>
+        <v>1.38</v>
       </c>
       <c r="G130">
-        <v>4.5</v>
+        <v>4.22</v>
       </c>
       <c r="H130">
-        <v>7</v>
+        <v>6.48</v>
       </c>
       <c r="I130">
         <v>1.04</v>
@@ -15101,10 +15101,10 @@
         <v>4</v>
       </c>
       <c r="M130">
-        <v>1.88</v>
+        <v>1.8</v>
       </c>
       <c r="N130">
-        <v>1.98</v>
+        <v>2</v>
       </c>
       <c r="O130">
         <v>1.34</v>
@@ -15184,13 +15184,13 @@
         <v>378</v>
       </c>
       <c r="F131">
-        <v>7</v>
+        <v>5.75</v>
       </c>
       <c r="G131">
-        <v>4.33</v>
+        <v>4.25</v>
       </c>
       <c r="H131">
-        <v>1.44</v>
+        <v>1.41</v>
       </c>
       <c r="I131">
         <v>1.02</v>
@@ -15205,10 +15205,10 @@
         <v>4.3</v>
       </c>
       <c r="M131">
-        <v>1.65</v>
+        <v>1.7</v>
       </c>
       <c r="N131">
-        <v>2.06</v>
+        <v>2.1</v>
       </c>
       <c r="O131">
         <v>1.3</v>
@@ -15288,13 +15288,13 @@
         <v>379</v>
       </c>
       <c r="F132">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G132">
         <v>3.4</v>
       </c>
       <c r="H132">
-        <v>1.7</v>
+        <v>1.65</v>
       </c>
       <c r="I132">
         <v>1.03</v>
@@ -15392,52 +15392,52 @@
         <v>380</v>
       </c>
       <c r="F133">
-        <v>0</v>
+        <v>1.83</v>
       </c>
       <c r="G133">
-        <v>0</v>
+        <v>3.4</v>
       </c>
       <c r="H133">
-        <v>0</v>
+        <v>3.8</v>
       </c>
       <c r="I133">
-        <v>0</v>
+        <v>1.07</v>
       </c>
       <c r="J133">
-        <v>0</v>
+        <v>7.5</v>
       </c>
       <c r="K133">
-        <v>0</v>
+        <v>1.33</v>
       </c>
       <c r="L133">
-        <v>0</v>
+        <v>3.25</v>
       </c>
       <c r="M133">
-        <v>0</v>
+        <v>2.08</v>
       </c>
       <c r="N133">
-        <v>0</v>
+        <v>1.73</v>
       </c>
       <c r="O133">
-        <v>0</v>
+        <v>1.43</v>
       </c>
       <c r="P133">
-        <v>0</v>
+        <v>2.71</v>
       </c>
       <c r="Q133">
-        <v>0</v>
+        <v>1.91</v>
       </c>
       <c r="R133">
-        <v>0</v>
+        <v>1.8</v>
       </c>
       <c r="S133">
-        <v>0</v>
+        <v>1.23</v>
       </c>
       <c r="T133">
-        <v>0</v>
+        <v>1.3</v>
       </c>
       <c r="U133">
-        <v>0</v>
+        <v>1.9</v>
       </c>
       <c r="V133">
         <v>0.8</v>
@@ -15455,25 +15455,25 @@
         <v>2.78</v>
       </c>
       <c r="AA133">
-        <v>0</v>
+        <v>1.71</v>
       </c>
       <c r="AB133">
-        <v>0</v>
+        <v>7.4</v>
       </c>
       <c r="AC133">
-        <v>0</v>
+        <v>2.74</v>
       </c>
       <c r="AD133">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="AE133">
-        <v>0</v>
+        <v>1.91</v>
       </c>
       <c r="AF133">
-        <v>0</v>
+        <v>2.55</v>
       </c>
       <c r="AG133">
-        <v>0</v>
+        <v>3.48</v>
       </c>
       <c r="AH133">
         <v>0</v>
@@ -15496,13 +15496,13 @@
         <v>381</v>
       </c>
       <c r="F134">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="G134">
-        <v>5.5</v>
+        <v>4.95</v>
       </c>
       <c r="H134">
-        <v>7.5</v>
+        <v>7.25</v>
       </c>
       <c r="I134">
         <v>1.02</v>
@@ -15517,10 +15517,10 @@
         <v>4.75</v>
       </c>
       <c r="M134">
-        <v>1.45</v>
+        <v>1.42</v>
       </c>
       <c r="N134">
-        <v>2.45</v>
+        <v>2.74</v>
       </c>
       <c r="O134">
         <v>1.23</v>
@@ -15600,13 +15600,13 @@
         <v>382</v>
       </c>
       <c r="F135">
-        <v>3.25</v>
+        <v>3.1</v>
       </c>
       <c r="G135">
-        <v>3.5</v>
+        <v>3.3</v>
       </c>
       <c r="H135">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="I135">
         <v>1.04</v>
@@ -15621,10 +15621,10 @@
         <v>3.6</v>
       </c>
       <c r="M135">
-        <v>1.83</v>
+        <v>1.75</v>
       </c>
       <c r="N135">
-        <v>2.03</v>
+        <v>1.91</v>
       </c>
       <c r="O135">
         <v>1.36</v>
@@ -15704,13 +15704,13 @@
         <v>383</v>
       </c>
       <c r="F136">
-        <v>3.1</v>
+        <v>2.8</v>
       </c>
       <c r="G136">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="H136">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="I136">
         <v>1.06</v>
@@ -15725,10 +15725,10 @@
         <v>3.3</v>
       </c>
       <c r="M136">
-        <v>1.89</v>
+        <v>2.1</v>
       </c>
       <c r="N136">
-        <v>2.01</v>
+        <v>1.75</v>
       </c>
       <c r="O136">
         <v>1.4</v>
@@ -15808,10 +15808,10 @@
         <v>384</v>
       </c>
       <c r="F137">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="G137">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="H137">
         <v>4.33</v>
@@ -15829,10 +15829,10 @@
         <v>3.4</v>
       </c>
       <c r="M137">
-        <v>1.93</v>
+        <v>2.1</v>
       </c>
       <c r="N137">
-        <v>1.97</v>
+        <v>1.75</v>
       </c>
       <c r="O137">
         <v>1.4</v>
@@ -15912,10 +15912,10 @@
         <v>385</v>
       </c>
       <c r="F138">
-        <v>9</v>
+        <v>10.5</v>
       </c>
       <c r="G138">
-        <v>7</v>
+        <v>5.25</v>
       </c>
       <c r="H138">
         <v>1.25</v>
@@ -15933,10 +15933,10 @@
         <v>5.4</v>
       </c>
       <c r="M138">
-        <v>1.4</v>
+        <v>1.55</v>
       </c>
       <c r="N138">
-        <v>2.67</v>
+        <v>2.4</v>
       </c>
       <c r="O138">
         <v>1.25</v>
@@ -16019,10 +16019,10 @@
         <v>1.83</v>
       </c>
       <c r="G139">
+        <v>3.35</v>
+      </c>
+      <c r="H139">
         <v>3.5</v>
-      </c>
-      <c r="H139">
-        <v>4.5</v>
       </c>
       <c r="I139">
         <v>1.04</v>
@@ -16037,10 +16037,10 @@
         <v>3.67</v>
       </c>
       <c r="M139">
-        <v>1.85</v>
+        <v>1.78</v>
       </c>
       <c r="N139">
-        <v>2</v>
+        <v>1.86</v>
       </c>
       <c r="O139">
         <v>1.35</v>
@@ -16120,10 +16120,10 @@
         <v>387</v>
       </c>
       <c r="F140">
-        <v>1.67</v>
+        <v>1.57</v>
       </c>
       <c r="G140">
-        <v>3.5</v>
+        <v>3.45</v>
       </c>
       <c r="H140">
         <v>5.25</v>
@@ -16141,10 +16141,10 @@
         <v>3.3</v>
       </c>
       <c r="M140">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="N140">
-        <v>1.9</v>
+        <v>1.75</v>
       </c>
       <c r="O140">
         <v>1.4</v>
@@ -16183,13 +16183,13 @@
         <v>2.84</v>
       </c>
       <c r="AA140">
-        <v>0</v>
+        <v>1.44</v>
       </c>
       <c r="AB140">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="AC140">
-        <v>0</v>
+        <v>3.1</v>
       </c>
       <c r="AD140">
         <v>1.36</v>
@@ -16227,10 +16227,10 @@
         <v>1.62</v>
       </c>
       <c r="G141">
-        <v>3.8</v>
+        <v>3.35</v>
       </c>
       <c r="H141">
-        <v>5.5</v>
+        <v>4.85</v>
       </c>
       <c r="I141">
         <v>1.03</v>
@@ -16245,10 +16245,10 @@
         <v>3</v>
       </c>
       <c r="M141">
-        <v>1.96</v>
+        <v>2.05</v>
       </c>
       <c r="N141">
-        <v>1.66</v>
+        <v>1.61</v>
       </c>
       <c r="O141">
         <v>1.45</v>
@@ -16287,13 +16287,13 @@
         <v>2.9</v>
       </c>
       <c r="AA141">
-        <v>0</v>
+        <v>1.44</v>
       </c>
       <c r="AB141">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="AC141">
-        <v>0</v>
+        <v>3.1</v>
       </c>
       <c r="AD141">
         <v>1.36</v>
@@ -16328,13 +16328,13 @@
         <v>389</v>
       </c>
       <c r="F142">
-        <v>2.38</v>
+        <v>2.5</v>
       </c>
       <c r="G142">
-        <v>3</v>
+        <v>2.85</v>
       </c>
       <c r="H142">
-        <v>3.3</v>
+        <v>2.7</v>
       </c>
       <c r="I142">
         <v>1.08</v>
@@ -16349,10 +16349,10 @@
         <v>2.65</v>
       </c>
       <c r="M142">
-        <v>2.23</v>
+        <v>2.35</v>
       </c>
       <c r="N142">
-        <v>1.51</v>
+        <v>1.5</v>
       </c>
       <c r="O142">
         <v>1.52</v>
@@ -16391,13 +16391,13 @@
         <v>2.56</v>
       </c>
       <c r="AA142">
-        <v>0</v>
+        <v>1.95</v>
       </c>
       <c r="AB142">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="AC142">
-        <v>0</v>
+        <v>2.05</v>
       </c>
       <c r="AD142">
         <v>1.5</v>
@@ -16432,13 +16432,13 @@
         <v>390</v>
       </c>
       <c r="F143">
-        <v>1.65</v>
+        <v>1.57</v>
       </c>
       <c r="G143">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="H143">
-        <v>5.25</v>
+        <v>4.95</v>
       </c>
       <c r="I143">
         <v>1.06</v>
@@ -16453,10 +16453,10 @@
         <v>3.4</v>
       </c>
       <c r="M143">
-        <v>1.93</v>
+        <v>1.83</v>
       </c>
       <c r="N143">
-        <v>1.93</v>
+        <v>1.83</v>
       </c>
       <c r="O143">
         <v>1.4</v>
@@ -16495,13 +16495,13 @@
         <v>2.89</v>
       </c>
       <c r="AA143">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="AB143">
-        <v>0</v>
+        <v>8.5</v>
       </c>
       <c r="AC143">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AD143">
         <v>1.5</v>
@@ -16539,10 +16539,10 @@
         <v>1.8</v>
       </c>
       <c r="G144">
-        <v>3.5</v>
+        <v>3.15</v>
       </c>
       <c r="H144">
-        <v>4.5</v>
+        <v>4.05</v>
       </c>
       <c r="I144">
         <v>1.05</v>
@@ -16557,10 +16557,10 @@
         <v>2.85</v>
       </c>
       <c r="M144">
-        <v>2.09</v>
+        <v>2.2</v>
       </c>
       <c r="N144">
-        <v>1.58</v>
+        <v>1.57</v>
       </c>
       <c r="O144">
         <v>1.47</v>
@@ -16599,13 +16599,13 @@
         <v>2.51</v>
       </c>
       <c r="AA144">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="AB144">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="AC144">
-        <v>0</v>
+        <v>2.9</v>
       </c>
       <c r="AD144">
         <v>1.4</v>
@@ -16640,13 +16640,13 @@
         <v>392</v>
       </c>
       <c r="F145">
+        <v>2.65</v>
+      </c>
+      <c r="G145">
         <v>2.8</v>
       </c>
-      <c r="G145">
-        <v>3</v>
-      </c>
       <c r="H145">
-        <v>2.63</v>
+        <v>2.55</v>
       </c>
       <c r="I145">
         <v>1.09</v>
@@ -16658,13 +16658,13 @@
         <v>1.5</v>
       </c>
       <c r="L145">
-        <v>2.43</v>
+        <v>2.35</v>
       </c>
       <c r="M145">
-        <v>2.51</v>
+        <v>2.52</v>
       </c>
       <c r="N145">
-        <v>1.41</v>
+        <v>1.46</v>
       </c>
       <c r="O145">
         <v>1.55</v>
@@ -16703,13 +16703,13 @@
         <v>2.52</v>
       </c>
       <c r="AA145">
-        <v>0</v>
+        <v>1.85</v>
       </c>
       <c r="AB145">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="AC145">
-        <v>0</v>
+        <v>2.15</v>
       </c>
       <c r="AD145">
         <v>1.36</v>
@@ -16744,13 +16744,13 @@
         <v>393</v>
       </c>
       <c r="F146">
-        <v>2.88</v>
+        <v>2.6</v>
       </c>
       <c r="G146">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="H146">
-        <v>2.63</v>
+        <v>2.65</v>
       </c>
       <c r="I146">
         <v>1.1</v>
@@ -16759,16 +16759,16 @@
         <v>7</v>
       </c>
       <c r="K146">
-        <v>1.49</v>
+        <v>1.44</v>
       </c>
       <c r="L146">
-        <v>2.45</v>
+        <v>2.4</v>
       </c>
       <c r="M146">
-        <v>2.49</v>
+        <v>2.47</v>
       </c>
       <c r="N146">
-        <v>1.41</v>
+        <v>1.48</v>
       </c>
       <c r="O146">
         <v>1.54</v>
@@ -16807,13 +16807,13 @@
         <v>2.51</v>
       </c>
       <c r="AA146">
-        <v>0</v>
+        <v>1.8</v>
       </c>
       <c r="AB146">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="AC146">
-        <v>0</v>
+        <v>2.25</v>
       </c>
       <c r="AD146">
         <v>1.4</v>
@@ -16848,13 +16848,13 @@
         <v>394</v>
       </c>
       <c r="F147">
-        <v>2.8</v>
+        <v>2.6</v>
       </c>
       <c r="G147">
-        <v>3</v>
+        <v>2.85</v>
       </c>
       <c r="H147">
-        <v>2.7</v>
+        <v>2.55</v>
       </c>
       <c r="I147">
         <v>1.06</v>
@@ -16869,10 +16869,10 @@
         <v>2.7</v>
       </c>
       <c r="M147">
-        <v>2.34</v>
+        <v>2.35</v>
       </c>
       <c r="N147">
-        <v>1.47</v>
+        <v>1.5</v>
       </c>
       <c r="O147">
         <v>1.52</v>
@@ -16911,13 +16911,13 @@
         <v>2.72</v>
       </c>
       <c r="AA147">
-        <v>0</v>
+        <v>1.91</v>
       </c>
       <c r="AB147">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="AC147">
-        <v>0</v>
+        <v>2.1</v>
       </c>
       <c r="AD147">
         <v>1.48</v>
@@ -16952,13 +16952,13 @@
         <v>395</v>
       </c>
       <c r="F148">
-        <v>1.85</v>
+        <v>1.75</v>
       </c>
       <c r="G148">
         <v>3.4</v>
       </c>
       <c r="H148">
-        <v>3.8</v>
+        <v>4.75</v>
       </c>
       <c r="I148">
         <v>1.06</v>
@@ -16976,7 +16976,7 @@
         <v>2.3</v>
       </c>
       <c r="N148">
-        <v>1.57</v>
+        <v>1.6</v>
       </c>
       <c r="O148">
         <v>1.45</v>
@@ -17056,13 +17056,13 @@
         <v>396</v>
       </c>
       <c r="F149">
-        <v>2.38</v>
+        <v>2.1</v>
       </c>
       <c r="G149">
         <v>3.1</v>
       </c>
       <c r="H149">
-        <v>2.88</v>
+        <v>3.4</v>
       </c>
       <c r="I149">
         <v>1.08</v>
@@ -17077,10 +17077,10 @@
         <v>2.62</v>
       </c>
       <c r="M149">
-        <v>2.26</v>
+        <v>2.4</v>
       </c>
       <c r="N149">
-        <v>1.54</v>
+        <v>1.57</v>
       </c>
       <c r="O149">
         <v>1.5</v>
@@ -17160,13 +17160,13 @@
         <v>397</v>
       </c>
       <c r="F150">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="G150">
-        <v>3.3</v>
+        <v>3.1</v>
       </c>
       <c r="H150">
-        <v>4</v>
+        <v>3.8</v>
       </c>
       <c r="I150">
         <v>1.1</v>
@@ -17264,13 +17264,13 @@
         <v>398</v>
       </c>
       <c r="F151">
-        <v>2.6</v>
+        <v>2.66</v>
       </c>
       <c r="G151">
-        <v>3.3</v>
+        <v>3.1</v>
       </c>
       <c r="H151">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="I151">
         <v>1.07</v>
@@ -17285,10 +17285,10 @@
         <v>3.2</v>
       </c>
       <c r="M151">
-        <v>2.05</v>
+        <v>2.04</v>
       </c>
       <c r="N151">
-        <v>1.72</v>
+        <v>1.78</v>
       </c>
       <c r="O151">
         <v>1.42</v>
@@ -17368,13 +17368,13 @@
         <v>399</v>
       </c>
       <c r="F152">
-        <v>1.25</v>
+        <v>1.26</v>
       </c>
       <c r="G152">
-        <v>5.5</v>
+        <v>5.25</v>
       </c>
       <c r="H152">
-        <v>12</v>
+        <v>8.25</v>
       </c>
       <c r="I152">
         <v>1.02</v>
@@ -17389,10 +17389,10 @@
         <v>5.1</v>
       </c>
       <c r="M152">
-        <v>1.61</v>
+        <v>1.53</v>
       </c>
       <c r="N152">
-        <v>2.13</v>
+        <v>2.35</v>
       </c>
       <c r="O152">
         <v>1.27</v>
@@ -17472,13 +17472,13 @@
         <v>400</v>
       </c>
       <c r="F153">
-        <v>2.75</v>
+        <v>2.65</v>
       </c>
       <c r="G153">
-        <v>3.6</v>
+        <v>3.44</v>
       </c>
       <c r="H153">
-        <v>2.1</v>
+        <v>2.03</v>
       </c>
       <c r="I153">
         <v>0</v>
@@ -17576,13 +17576,13 @@
         <v>401</v>
       </c>
       <c r="F154">
-        <v>2.75</v>
+        <v>2.68</v>
       </c>
       <c r="G154">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="H154">
-        <v>2.25</v>
+        <v>2.26</v>
       </c>
       <c r="I154">
         <v>1.04</v>
@@ -17597,10 +17597,10 @@
         <v>4</v>
       </c>
       <c r="M154">
-        <v>1.63</v>
+        <v>1.72</v>
       </c>
       <c r="N154">
-        <v>2.01</v>
+        <v>2.12</v>
       </c>
       <c r="O154">
         <v>1.33</v>
@@ -17680,13 +17680,13 @@
         <v>402</v>
       </c>
       <c r="F155">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="G155">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="H155">
-        <v>2.75</v>
+        <v>2.65</v>
       </c>
       <c r="I155">
         <v>1.04</v>
@@ -17701,10 +17701,10 @@
         <v>4.33</v>
       </c>
       <c r="M155">
-        <v>1.54</v>
+        <v>1.57</v>
       </c>
       <c r="N155">
-        <v>2.17</v>
+        <v>2.15</v>
       </c>
       <c r="O155">
         <v>1.3</v>
@@ -17784,13 +17784,13 @@
         <v>403</v>
       </c>
       <c r="F156">
-        <v>3.4</v>
+        <v>3.05</v>
       </c>
       <c r="G156">
         <v>3.4</v>
       </c>
       <c r="H156">
-        <v>2.1</v>
+        <v>2.08</v>
       </c>
       <c r="I156">
         <v>1.04</v>
@@ -17805,10 +17805,10 @@
         <v>4</v>
       </c>
       <c r="M156">
-        <v>1.67</v>
+        <v>1.65</v>
       </c>
       <c r="N156">
-        <v>2.1</v>
+        <v>2.17</v>
       </c>
       <c r="O156">
         <v>1.32</v>
@@ -17888,13 +17888,13 @@
         <v>404</v>
       </c>
       <c r="F157">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="G157">
-        <v>3.6</v>
+        <v>3.35</v>
       </c>
       <c r="H157">
-        <v>2.05</v>
+        <v>1.95</v>
       </c>
       <c r="I157">
         <v>1.04</v>
@@ -17909,10 +17909,10 @@
         <v>3.6</v>
       </c>
       <c r="M157">
-        <v>1.83</v>
+        <v>1.77</v>
       </c>
       <c r="N157">
-        <v>2.03</v>
+        <v>1.88</v>
       </c>
       <c r="O157">
         <v>1.35</v>
@@ -17992,13 +17992,13 @@
         <v>405</v>
       </c>
       <c r="F158">
-        <v>2.38</v>
+        <v>2.4</v>
       </c>
       <c r="G158">
-        <v>3.3</v>
+        <v>2.8</v>
       </c>
       <c r="H158">
-        <v>2.9</v>
+        <v>2.8</v>
       </c>
       <c r="I158">
         <v>1.05</v>
@@ -18013,10 +18013,10 @@
         <v>3.2</v>
       </c>
       <c r="M158">
-        <v>2</v>
+        <v>1.87</v>
       </c>
       <c r="N158">
-        <v>1.9</v>
+        <v>1.78</v>
       </c>
       <c r="O158">
         <v>1.44</v>
@@ -18096,13 +18096,13 @@
         <v>406</v>
       </c>
       <c r="F159">
-        <v>5</v>
+        <v>4.45</v>
       </c>
       <c r="G159">
-        <v>3.6</v>
+        <v>3.88</v>
       </c>
       <c r="H159">
-        <v>1.7</v>
+        <v>1.75</v>
       </c>
       <c r="I159">
         <v>1.05</v>
@@ -18117,10 +18117,10 @@
         <v>3.9</v>
       </c>
       <c r="M159">
-        <v>1.9</v>
+        <v>1.88</v>
       </c>
       <c r="N159">
-        <v>2</v>
+        <v>1.93</v>
       </c>
       <c r="O159">
         <v>1.36</v>
@@ -18200,13 +18200,13 @@
         <v>407</v>
       </c>
       <c r="F160">
-        <v>1.6</v>
+        <v>1.55</v>
       </c>
       <c r="G160">
-        <v>3.8</v>
+        <v>3.75</v>
       </c>
       <c r="H160">
-        <v>5.75</v>
+        <v>4.75</v>
       </c>
       <c r="I160">
         <v>1.01</v>
@@ -18304,13 +18304,13 @@
         <v>408</v>
       </c>
       <c r="F161">
-        <v>4.5</v>
+        <v>3.75</v>
       </c>
       <c r="G161">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="H161">
-        <v>1.8</v>
+        <v>1.76</v>
       </c>
       <c r="I161">
         <v>1.05</v>
@@ -18325,10 +18325,10 @@
         <v>3.6</v>
       </c>
       <c r="M161">
-        <v>1.87</v>
+        <v>1.91</v>
       </c>
       <c r="N161">
-        <v>2.03</v>
+        <v>1.97</v>
       </c>
       <c r="O161">
         <v>1.4</v>
@@ -18408,13 +18408,13 @@
         <v>409</v>
       </c>
       <c r="F162">
-        <v>2.4</v>
+        <v>2.22</v>
       </c>
       <c r="G162">
-        <v>3</v>
+        <v>2.96</v>
       </c>
       <c r="H162">
-        <v>3.2</v>
+        <v>3.06</v>
       </c>
       <c r="I162">
         <v>1.14</v>
@@ -18423,16 +18423,16 @@
         <v>5</v>
       </c>
       <c r="K162">
-        <v>1.6</v>
+        <v>1.61</v>
       </c>
       <c r="L162">
-        <v>2.2</v>
+        <v>2.14</v>
       </c>
       <c r="M162">
-        <v>2.6</v>
+        <v>2.85</v>
       </c>
       <c r="N162">
-        <v>1.38</v>
+        <v>1.37</v>
       </c>
       <c r="O162">
         <v>1.63</v>
@@ -18512,13 +18512,13 @@
         <v>410</v>
       </c>
       <c r="F163">
-        <v>2.8</v>
+        <v>2.59</v>
       </c>
       <c r="G163">
-        <v>3</v>
+        <v>2.88</v>
       </c>
       <c r="H163">
-        <v>2.7</v>
+        <v>2.59</v>
       </c>
       <c r="I163">
         <v>1.11</v>
@@ -18530,7 +18530,7 @@
         <v>1.5</v>
       </c>
       <c r="L163">
-        <v>2.45</v>
+        <v>2.5</v>
       </c>
       <c r="M163">
         <v>2.4</v>
@@ -18616,13 +18616,13 @@
         <v>411</v>
       </c>
       <c r="F164">
-        <v>2.75</v>
+        <v>2.73</v>
       </c>
       <c r="G164">
-        <v>3.2</v>
+        <v>3.19</v>
       </c>
       <c r="H164">
-        <v>2.6</v>
+        <v>2.71</v>
       </c>
       <c r="I164">
         <v>1.08</v>
@@ -18637,10 +18637,10 @@
         <v>2.9</v>
       </c>
       <c r="M164">
-        <v>2.24</v>
+        <v>2.4</v>
       </c>
       <c r="N164">
-        <v>1.53</v>
+        <v>1.58</v>
       </c>
       <c r="O164">
         <v>1.5</v>
@@ -18824,13 +18824,13 @@
         <v>413</v>
       </c>
       <c r="F166">
-        <v>2.3</v>
+        <v>2.08</v>
       </c>
       <c r="G166">
-        <v>3.15</v>
+        <v>3.38</v>
       </c>
       <c r="H166">
-        <v>2.73</v>
+        <v>3.38</v>
       </c>
       <c r="I166">
         <v>1.07</v>
@@ -18928,13 +18928,13 @@
         <v>414</v>
       </c>
       <c r="F167">
-        <v>7.5</v>
+        <v>7.67</v>
       </c>
       <c r="G167">
-        <v>4.5</v>
+        <v>4.77</v>
       </c>
       <c r="H167">
-        <v>1.36</v>
+        <v>1.42</v>
       </c>
       <c r="I167">
         <v>1.02</v>
@@ -19032,13 +19032,13 @@
         <v>415</v>
       </c>
       <c r="F168">
-        <v>1.79</v>
+        <v>1.83</v>
       </c>
       <c r="G168">
-        <v>3.35</v>
+        <v>3.4</v>
       </c>
       <c r="H168">
-        <v>3.8</v>
+        <v>3.85</v>
       </c>
       <c r="I168">
         <v>0</v>
@@ -19053,10 +19053,10 @@
         <v>0</v>
       </c>
       <c r="M168">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="N168">
-        <v>1.9</v>
+        <v>1.87</v>
       </c>
       <c r="O168">
         <v>0</v>
@@ -19136,13 +19136,13 @@
         <v>416</v>
       </c>
       <c r="F169">
-        <v>2.3</v>
+        <v>2.05</v>
       </c>
       <c r="G169">
-        <v>3.2</v>
+        <v>3.35</v>
       </c>
       <c r="H169">
-        <v>2.6</v>
+        <v>3.35</v>
       </c>
       <c r="I169">
         <v>1.03</v>
@@ -19157,10 +19157,10 @@
         <v>3.3</v>
       </c>
       <c r="M169">
-        <v>2.04</v>
+        <v>1.73</v>
       </c>
       <c r="N169">
-        <v>1.84</v>
+        <v>1.95</v>
       </c>
       <c r="O169">
         <v>1.4</v>
@@ -19448,13 +19448,13 @@
         <v>419</v>
       </c>
       <c r="F172">
-        <v>3.3</v>
+        <v>3.65</v>
       </c>
       <c r="G172">
-        <v>3.16</v>
+        <v>3.25</v>
       </c>
       <c r="H172">
-        <v>1.89</v>
+        <v>1.9</v>
       </c>
       <c r="I172">
         <v>1.06</v>
@@ -19469,10 +19469,10 @@
         <v>3.25</v>
       </c>
       <c r="M172">
-        <v>1.8</v>
+        <v>1.68</v>
       </c>
       <c r="N172">
-        <v>2</v>
+        <v>1.86</v>
       </c>
       <c r="O172">
         <v>1.35</v>
@@ -19552,13 +19552,13 @@
         <v>420</v>
       </c>
       <c r="F173">
-        <v>1.81</v>
+        <v>1.9</v>
       </c>
       <c r="G173">
-        <v>3.91</v>
+        <v>3.6</v>
       </c>
       <c r="H173">
-        <v>3.9</v>
+        <v>3.7</v>
       </c>
       <c r="I173">
         <v>1.02</v>
@@ -19573,10 +19573,10 @@
         <v>4.1</v>
       </c>
       <c r="M173">
-        <v>1.77</v>
+        <v>1.7</v>
       </c>
       <c r="N173">
-        <v>2.05</v>
+        <v>1.95</v>
       </c>
       <c r="O173">
         <v>1.3</v>
@@ -19656,13 +19656,13 @@
         <v>421</v>
       </c>
       <c r="F174">
-        <v>1.26</v>
+        <v>1.28</v>
       </c>
       <c r="G174">
-        <v>4.84</v>
+        <v>5.2</v>
       </c>
       <c r="H174">
-        <v>7.34</v>
+        <v>10.5</v>
       </c>
       <c r="I174">
         <v>0</v>
@@ -19677,10 +19677,10 @@
         <v>0</v>
       </c>
       <c r="M174">
-        <v>1.75</v>
+        <v>1.78</v>
       </c>
       <c r="N174">
-        <v>2.05</v>
+        <v>1.96</v>
       </c>
       <c r="O174">
         <v>0</v>
